--- a/estimates_PS2025.xlsx
+++ b/estimates_PS2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\tibor-pal.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25A7751B-2700-4E8F-997C-138AA5DC90D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75143D5B-72C5-4B8F-8770-7396E9090229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{898E4DB8-E74C-49BD-9493-76D0D230C2FB}"/>
   </bookViews>
@@ -458,7 +458,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,7 +527,7 @@
         <v>4.0038986779857198E-2</v>
       </c>
       <c r="I2">
-        <v>0.52213625254846396</v>
+        <v>0.65962561574593104</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -556,7 +556,7 @@
         <v>3.98916450777132E-2</v>
       </c>
       <c r="I3">
-        <v>0.48029331887383597</v>
+        <v>0.64181220342381595</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -585,7 +585,7 @@
         <v>3.97146429777262E-2</v>
       </c>
       <c r="I4">
-        <v>0.46375864238998499</v>
+        <v>0.60811598362900099</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -614,7 +614,7 @@
         <v>3.9813716405990601E-2</v>
       </c>
       <c r="I5">
-        <v>0.43759595294819797</v>
+        <v>0.58284537588402097</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -643,7 +643,7 @@
         <v>3.9762288557270702E-2</v>
       </c>
       <c r="I6">
-        <v>0.41441290446373402</v>
+        <v>0.59935617961070997</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -672,7 +672,7 @@
         <v>3.9760494105272701E-2</v>
       </c>
       <c r="I7">
-        <v>0.37229504954506798</v>
+        <v>0.57945958317593105</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -701,7 +701,7 @@
         <v>3.9730993844109198E-2</v>
       </c>
       <c r="I8">
-        <v>0.34219873218938601</v>
+        <v>0.55893492422101199</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -730,7 +730,7 @@
         <v>3.9626157456553901E-2</v>
       </c>
       <c r="I9">
-        <v>0.36171783003754499</v>
+        <v>0.53852644184068199</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -759,7 +759,7 @@
         <v>3.9656903718199903E-2</v>
       </c>
       <c r="I10">
-        <v>0.33826340853442399</v>
+        <v>0.545670806575279</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -788,7 +788,7 @@
         <v>3.96840639471936E-2</v>
       </c>
       <c r="I11">
-        <v>0.31489824951394801</v>
+        <v>0.52768104802566196</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -817,7 +817,7 @@
         <v>3.9697075264022399E-2</v>
       </c>
       <c r="I12">
-        <v>0.29250072856158599</v>
+        <v>0.55557395268487797</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -846,7 +846,7 @@
         <v>3.9880689680378799E-2</v>
       </c>
       <c r="I13">
-        <v>0.30024662914851602</v>
+        <v>0.55177203374608896</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -875,7 +875,7 @@
         <v>3.9804988468630897E-2</v>
       </c>
       <c r="I14">
-        <v>0.28093728844546101</v>
+        <v>0.54948954769159297</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -904,7 +904,7 @@
         <v>3.9475776211299503E-2</v>
       </c>
       <c r="I15">
-        <v>0.31115241690189899</v>
+        <v>0.53705184337911904</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -933,7 +933,7 @@
         <v>3.92773391320742E-2</v>
       </c>
       <c r="I16">
-        <v>0.30694237722429502</v>
+        <v>0.52459043069866895</v>
       </c>
       <c r="L16" s="1"/>
     </row>
@@ -963,7 +963,7 @@
         <v>3.9044937638487702E-2</v>
       </c>
       <c r="I17">
-        <v>0.30442876302231098</v>
+        <v>0.50968945011984801</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -992,7 +992,7 @@
         <v>3.91572243973883E-2</v>
       </c>
       <c r="I18">
-        <v>0.29091468247690999</v>
+        <v>0.49476933874187101</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1021,7 +1021,7 @@
         <v>3.90079117217315E-2</v>
       </c>
       <c r="I19">
-        <v>0.27768511998061501</v>
+        <v>0.515393296041745</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1050,7 +1050,7 @@
         <v>3.8906912559505999E-2</v>
       </c>
       <c r="I20">
-        <v>0.26227333556347299</v>
+        <v>0.78172482979352897</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1079,7 +1079,7 @@
         <v>3.8855155381478601E-2</v>
       </c>
       <c r="I21">
-        <v>0.24728669855906801</v>
+        <v>0.74096631821958103</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1108,7 +1108,7 @@
         <v>3.9233360120331601E-2</v>
       </c>
       <c r="I22">
-        <v>0.26812024960477399</v>
+        <v>0.70135676722738904</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1137,7 +1137,7 @@
         <v>4.0449754319989303E-2</v>
       </c>
       <c r="I23">
-        <v>0.61358370951572205</v>
+        <v>0.82243878167267004</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1166,7 +1166,7 @@
         <v>4.0637075046256903E-2</v>
       </c>
       <c r="I24">
-        <v>0.55152108473588202</v>
+        <v>0.76043746079213403</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1195,7 +1195,7 @@
         <v>4.0792947968521599E-2</v>
       </c>
       <c r="I25">
-        <v>0.49439131493565402</v>
+        <v>0.73937967210951105</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1224,7 +1224,7 @@
         <v>4.0223488867603997E-2</v>
       </c>
       <c r="I26">
-        <v>0.67889554959922604</v>
+        <v>0.71521055306372106</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1253,7 +1253,7 @@
         <v>4.0165154962069897E-2</v>
       </c>
       <c r="I27">
-        <v>0.58075513177598803</v>
+        <v>0.72585117873397798</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1282,7 +1282,7 @@
         <v>4.0365423878773302E-2</v>
       </c>
       <c r="I28">
-        <v>0.549172299528768</v>
+        <v>0.68579506985204597</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1311,7 +1311,7 @@
         <v>4.05532872386506E-2</v>
       </c>
       <c r="I29">
-        <v>0.51401613521371403</v>
+        <v>0.64915628366619604</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1340,7 +1340,7 @@
         <v>4.0822271095020103E-2</v>
       </c>
       <c r="I30">
-        <v>0.529349933669505</v>
+        <v>0.61357193047514902</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1369,7 +1369,7 @@
         <v>4.0930565618132297E-2</v>
       </c>
       <c r="I31">
-        <v>0.47280487783337299</v>
+        <v>0.60886599373302996</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1398,7 +1398,7 @@
         <v>4.0825743113149897E-2</v>
       </c>
       <c r="I32">
-        <v>0.42389388062330602</v>
+        <v>0.58003057881120901</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1427,7 +1427,7 @@
         <v>4.0809763741119602E-2</v>
       </c>
       <c r="I33">
-        <v>0.37896051386700103</v>
+        <v>0.56572071921405498</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1456,7 +1456,7 @@
         <v>4.0565091853868099E-2</v>
       </c>
       <c r="I34">
-        <v>0.37320779832451001</v>
+        <v>0.54413417569469702</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1485,7 +1485,7 @@
         <v>4.0601152931549901E-2</v>
       </c>
       <c r="I35">
-        <v>0.33892547235606602</v>
+        <v>0.55476929117707696</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1514,7 +1514,7 @@
         <v>4.0437299972004598E-2</v>
       </c>
       <c r="I36">
-        <v>0.32252993214806802</v>
+        <v>0.53446377168519599</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1543,7 +1543,7 @@
         <v>4.0372649181884102E-2</v>
       </c>
       <c r="I37">
-        <v>0.298572001158948</v>
+        <v>0.52127133569453299</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1572,7 +1572,7 @@
         <v>4.0144178753061997E-2</v>
       </c>
       <c r="I38">
-        <v>0.31025896643311701</v>
+        <v>0.66180292811227204</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -1601,7 +1601,7 @@
         <v>4.01020571092216E-2</v>
       </c>
       <c r="I39">
-        <v>0.28814152324396602</v>
+        <v>0.62792247889644903</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -1630,7 +1630,7 @@
         <v>4.0037837295723501E-2</v>
       </c>
       <c r="I40">
-        <v>0.27421380541676299</v>
+        <v>0.62543453577484398</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -1659,7 +1659,7 @@
         <v>4.0371756936773598E-2</v>
       </c>
       <c r="I41">
-        <v>0.44047311565797698</v>
+        <v>0.72746054169371099</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -1688,7 +1688,7 @@
         <v>4.0338404993010502E-2</v>
       </c>
       <c r="I42">
-        <v>0.39677663950346198</v>
+        <v>1.17372946673889</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -1717,7 +1717,7 @@
         <v>4.0226195933245001E-2</v>
       </c>
       <c r="I43">
-        <v>0.393658358539895</v>
+        <v>1.06498862028566</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -1746,7 +1746,7 @@
         <v>4.0038437852588399E-2</v>
       </c>
       <c r="I44">
-        <v>0.53168883972130798</v>
+        <v>1.02298998644423</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -1775,7 +1775,7 @@
         <v>3.9834848184443702E-2</v>
       </c>
       <c r="I45">
-        <v>1.38013086109115</v>
+        <v>0.920948299118027</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -1804,7 +1804,7 @@
         <v>3.98502639132561E-2</v>
       </c>
       <c r="I46">
-        <v>1.13669076133796</v>
+        <v>0.85884053148266004</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -1833,7 +1833,7 @@
         <v>3.9812554309181E-2</v>
       </c>
       <c r="I47">
-        <v>1.0489985123651699</v>
+        <v>0.78811421843860296</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -1862,7 +1862,7 @@
         <v>3.9811324489725498E-2</v>
       </c>
       <c r="I48">
-        <v>0.85063576964838705</v>
+        <v>1.4825442426672999</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -1891,7 +1891,7 @@
         <v>3.9763867653441198E-2</v>
       </c>
       <c r="I49">
-        <v>0.74009705851741803</v>
+        <v>1.30221786827154</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -1920,7 +1920,7 @@
         <v>3.9754354541398397E-2</v>
       </c>
       <c r="I50">
-        <v>0.62361402130509103</v>
+        <v>1.1720098548912099</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -1949,7 +1949,7 @@
         <v>4.0197683357015998E-2</v>
       </c>
       <c r="I51">
-        <v>2.20042743146597</v>
+        <v>1.1703706903245701</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -1978,7 +1978,7 @@
         <v>4.0248653801225498E-2</v>
       </c>
       <c r="I52">
-        <v>1.69826137644568</v>
+        <v>1.8942614774772699</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2007,7 +2007,7 @@
         <v>4.0311556606257501E-2</v>
       </c>
       <c r="I53">
-        <v>1.37609709996212</v>
+        <v>1.8675319279010001</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2036,7 +2036,7 @@
         <v>4.0452344770014602E-2</v>
       </c>
       <c r="I54">
-        <v>1.3722575527708201</v>
+        <v>1.57795522814077</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2065,7 +2065,7 @@
         <v>4.06898274772945E-2</v>
       </c>
       <c r="I55">
-        <v>3.5907165450543799</v>
+        <v>1.49660483096528</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2094,7 +2094,7 @@
         <v>4.07645670040723E-2</v>
       </c>
       <c r="I56">
-        <v>3.4901655017296398</v>
+        <v>1.60956769687207</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2123,7 +2123,7 @@
         <v>4.0766042353253602E-2</v>
       </c>
       <c r="I57">
-        <v>2.4924327020167998</v>
+        <v>1.4607676032333901</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2152,7 +2152,7 @@
         <v>4.0731646084122101E-2</v>
       </c>
       <c r="I58">
-        <v>2.2423160200686101</v>
+        <v>1.2676457731487101</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2181,7 +2181,7 @@
         <v>4.0732289035939999E-2</v>
       </c>
       <c r="I59">
-        <v>2.5931981708140701</v>
+        <v>1.12849869670934</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2210,7 +2210,7 @@
         <v>4.0746494142740702E-2</v>
       </c>
       <c r="I60">
-        <v>2.1363319906562301</v>
+        <v>1.1183599643997399</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2239,7 +2239,7 @@
         <v>4.0749255562879901E-2</v>
       </c>
       <c r="I61">
-        <v>1.60941580618179</v>
+        <v>1.0325109585380801</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2268,7 +2268,7 @@
         <v>4.0742364248292397E-2</v>
       </c>
       <c r="I62">
-        <v>1.2759993084746799</v>
+        <v>0.92922828035531702</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2297,7 +2297,7 @@
         <v>4.0656817191781998E-2</v>
       </c>
       <c r="I63">
-        <v>1.25321900997219</v>
+        <v>0.86405377600750399</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2326,7 +2326,7 @@
         <v>4.0720663081081597E-2</v>
       </c>
       <c r="I64">
-        <v>1.06856887950123</v>
+        <v>0.80206578492811498</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -2355,7 +2355,7 @@
         <v>4.0730018275446797E-2</v>
       </c>
       <c r="I65">
-        <v>0.865955197012099</v>
+        <v>0.74603592073973202</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -2384,7 +2384,7 @@
         <v>4.0802497849030298E-2</v>
       </c>
       <c r="I66">
-        <v>0.74907892783282504</v>
+        <v>0.76817325425696803</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -2413,7 +2413,7 @@
         <v>4.0736488826463503E-2</v>
       </c>
       <c r="I67">
-        <v>0.64579952335235302</v>
+        <v>0.71319421641762404</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -2442,7 +2442,7 @@
         <v>4.07880942582073E-2</v>
       </c>
       <c r="I68">
-        <v>0.55905959503397995</v>
+        <v>0.68888191383659103</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -2471,7 +2471,7 @@
         <v>4.0474824082545199E-2</v>
       </c>
       <c r="I69">
-        <v>0.59258014855574104</v>
+        <v>0.64714070823810699</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -2500,7 +2500,7 @@
         <v>4.0460166802506303E-2</v>
       </c>
       <c r="I70">
-        <v>0.511135990331548</v>
+        <v>0.62097049558736395</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -2529,7 +2529,7 @@
         <v>4.06105722107995E-2</v>
       </c>
       <c r="I71">
-        <v>0.47704829121116399</v>
+        <v>1.01867453406626</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -2558,7 +2558,7 @@
         <v>4.0590405895867203E-2</v>
       </c>
       <c r="I72">
-        <v>0.42128109625891902</v>
+        <v>1.38819287198256</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -2587,7 +2587,7 @@
         <v>4.0744309312910301E-2</v>
       </c>
       <c r="I73">
-        <v>0.38809435639001599</v>
+        <v>1.2360692551152599</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -2616,7 +2616,7 @@
         <v>3.9849213394284697E-2</v>
       </c>
       <c r="I74">
-        <v>1.04018780635511</v>
+        <v>1.1308518324271499</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -2645,7 +2645,7 @@
         <v>4.0263832319168497E-2</v>
       </c>
       <c r="I75">
-        <v>1.9295694498231899</v>
+        <v>1.1675104745354501</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -2674,7 +2674,7 @@
         <v>4.0196591764588098E-2</v>
       </c>
       <c r="I76">
-        <v>1.5303572034411901</v>
+        <v>1.0460493889469</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -2703,7 +2703,7 @@
         <v>4.0291883598760202E-2</v>
       </c>
       <c r="I77">
-        <v>1.28131586690383</v>
+        <v>0.939745385308564</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -2732,7 +2732,7 @@
         <v>4.0485062360466499E-2</v>
       </c>
       <c r="I78">
-        <v>1.3655707081499899</v>
+        <v>0.89028397251334102</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -2761,7 +2761,7 @@
         <v>4.0428557531471801E-2</v>
       </c>
       <c r="I79">
-        <v>1.0967093241161701</v>
+        <v>0.85787332532124505</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -2790,7 +2790,7 @@
         <v>4.0422056193245397E-2</v>
       </c>
       <c r="I80">
-        <v>0.88561138920874205</v>
+        <v>0.968893267788839</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -2819,7 +2819,7 @@
         <v>4.04942460590276E-2</v>
       </c>
       <c r="I81">
-        <v>0.79509555171413404</v>
+        <v>0.92517972207629096</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -2848,7 +2848,7 @@
         <v>4.04033571084704E-2</v>
       </c>
       <c r="I82">
-        <v>0.73843664229773098</v>
+        <v>0.87521300579561601</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -2877,7 +2877,7 @@
         <v>4.02570449993171E-2</v>
       </c>
       <c r="I83">
-        <v>0.94124416436653502</v>
+        <v>0.97498284230941401</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -2906,7 +2906,7 @@
         <v>4.02460397617131E-2</v>
       </c>
       <c r="I84">
-        <v>0.85844751814116205</v>
+        <v>0.92784159604154504</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -2935,7 +2935,7 @@
         <v>4.0263558698614199E-2</v>
       </c>
       <c r="I85">
-        <v>0.76848780551379603</v>
+        <v>0.87641014937912098</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -2964,7 +2964,7 @@
         <v>4.0416457493298898E-2</v>
       </c>
       <c r="I86">
-        <v>0.95308154279774404</v>
+        <v>0.81620039546940104</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -2993,7 +2993,7 @@
         <v>4.0559750841283999E-2</v>
       </c>
       <c r="I87">
-        <v>0.86338002734492103</v>
+        <v>0.75437122934935896</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -3022,7 +3022,7 @@
         <v>4.0397531993454597E-2</v>
       </c>
       <c r="I88">
-        <v>0.77058474993473303</v>
+        <v>1.1547661284176201</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -3051,7 +3051,7 @@
         <v>4.0530050756970797E-2</v>
       </c>
       <c r="I89">
-        <v>0.66867308556440597</v>
+        <v>1.35778511156911</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -3080,7 +3080,7 @@
         <v>4.0587531840206102E-2</v>
       </c>
       <c r="I90">
-        <v>0.57156595167006197</v>
+        <v>1.3769511456905299</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -3109,7 +3109,7 @@
         <v>4.1639993751988999E-2</v>
       </c>
       <c r="I91">
-        <v>1.33597481134061</v>
+        <v>1.2120408101081499</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -3138,7 +3138,7 @@
         <v>4.1129396462225097E-2</v>
       </c>
       <c r="I92">
-        <v>1.8460704091987501</v>
+        <v>1.1112926811969299</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -3167,7 +3167,7 @@
         <v>4.1396299225506798E-2</v>
       </c>
       <c r="I93">
-        <v>1.8984844576184701</v>
+        <v>1.01366652048128</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -3196,7 +3196,7 @@
         <v>4.1338526296741201E-2</v>
       </c>
       <c r="I94">
-        <v>1.4715329253676099</v>
+        <v>0.94955340700621704</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -3225,7 +3225,7 @@
         <v>4.1215129826901703E-2</v>
       </c>
       <c r="I95">
-        <v>1.2374614232818499</v>
+        <v>1.29721817651959</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -3254,7 +3254,7 @@
         <v>4.1308847692834903E-2</v>
       </c>
       <c r="I96">
-        <v>1.0300098147446199</v>
+        <v>1.1984652832793801</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -3283,7 +3283,7 @@
         <v>4.1443286748202801E-2</v>
       </c>
       <c r="I97">
-        <v>0.90414167275711499</v>
+        <v>1.0819161557249799</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -3312,7 +3312,7 @@
         <v>4.0963939701170203E-2</v>
       </c>
       <c r="I98">
-        <v>1.6852649974928</v>
+        <v>1.0205731118596499</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -3341,7 +3341,7 @@
         <v>4.1079696243823099E-2</v>
       </c>
       <c r="I99">
-        <v>1.43880903522591</v>
+        <v>0.99340474687827596</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -3370,7 +3370,7 @@
         <v>4.0998657634003899E-2</v>
       </c>
       <c r="I100">
-        <v>1.1730325680187099</v>
+        <v>0.97322898564301397</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -3399,7 +3399,7 @@
         <v>4.11364631671342E-2</v>
       </c>
       <c r="I101">
-        <v>1.0440594766508899</v>
+        <v>0.88328921548640604</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -3428,7 +3428,7 @@
         <v>4.0960421509822299E-2</v>
       </c>
       <c r="I102">
-        <v>0.989342991120292</v>
+        <v>0.82566327281072305</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -3457,7 +3457,7 @@
         <v>4.11280920908575E-2</v>
       </c>
       <c r="I103">
-        <v>0.94966465849572901</v>
+        <v>0.78370008815479597</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -3486,7 +3486,7 @@
         <v>4.11643932858533E-2</v>
       </c>
       <c r="I104">
-        <v>0.78268983819459104</v>
+        <v>0.89892026862645902</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -3515,7 +3515,7 @@
         <v>4.1063805062390997E-2</v>
       </c>
       <c r="I105">
-        <v>0.68420984006851404</v>
+        <v>0.82449593664937404</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -3544,7 +3544,7 @@
         <v>4.1186513283411198E-2</v>
       </c>
       <c r="I106">
-        <v>0.61667582817383504</v>
+        <v>0.81109544431355796</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -3573,7 +3573,7 @@
         <v>4.0843552612969902E-2</v>
       </c>
       <c r="I107">
-        <v>0.81054764934746604</v>
+        <v>0.75157418917039898</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -3602,7 +3602,7 @@
         <v>4.0804283870319299E-2</v>
       </c>
       <c r="I108">
-        <v>0.68228354955132797</v>
+        <v>0.81149952238936995</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -3631,7 +3631,7 @@
         <v>4.06453845852245E-2</v>
       </c>
       <c r="I109">
-        <v>0.66036581978620901</v>
+        <v>0.75292213981738798</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -3660,7 +3660,7 @@
         <v>4.0611563086197101E-2</v>
       </c>
       <c r="I110">
-        <v>0.56735376182714303</v>
+        <v>0.70152860022192398</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -3689,7 +3689,7 @@
         <v>4.0406645839472899E-2</v>
       </c>
       <c r="I111">
-        <v>0.66102147483817597</v>
+        <v>0.65737320240356201</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -3718,7 +3718,7 @@
         <v>4.0376253722258303E-2</v>
       </c>
       <c r="I112">
-        <v>0.56938174862719404</v>
+        <v>0.67778573986906498</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -3747,7 +3747,7 @@
         <v>4.0355940147678501E-2</v>
       </c>
       <c r="I113">
-        <v>0.49463237692933198</v>
+        <v>0.71926133626573696</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -3776,7 +3776,7 @@
         <v>4.0354413514568303E-2</v>
       </c>
       <c r="I114">
-        <v>0.43462952723831499</v>
+        <v>0.68367442827548597</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -3805,7 +3805,7 @@
         <v>4.0479506875384597E-2</v>
       </c>
       <c r="I115">
-        <v>0.46188350916985599</v>
+        <v>0.75752350096658005</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -3834,7 +3834,7 @@
         <v>4.0645441557925099E-2</v>
       </c>
       <c r="I116">
-        <v>0.51982686984677395</v>
+        <v>0.71938115874402897</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -3863,7 +3863,7 @@
         <v>4.0578665658630997E-2</v>
       </c>
       <c r="I117">
-        <v>0.46990072387781201</v>
+        <v>0.67243530970402998</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -3892,7 +3892,7 @@
         <v>4.0338233655084398E-2</v>
       </c>
       <c r="I118">
-        <v>0.57633185451666402</v>
+        <v>0.67005569972605905</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -3921,7 +3921,7 @@
         <v>4.0265335786575797E-2</v>
       </c>
       <c r="I119">
-        <v>0.51999925155590099</v>
+        <v>0.63107542703628605</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -3950,7 +3950,7 @@
         <v>4.02736823726128E-2</v>
       </c>
       <c r="I120">
-        <v>0.45465924573675498</v>
+        <v>0.61611254147699201</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -3979,7 +3979,7 @@
         <v>4.0420238658137098E-2</v>
       </c>
       <c r="I121">
-        <v>0.45146464073537901</v>
+        <v>0.61156392881979704</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -4008,7 +4008,7 @@
         <v>4.0433079819836397E-2</v>
       </c>
       <c r="I122">
-        <v>0.40074619460902999</v>
+        <v>0.58304140587395104</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -4037,7 +4037,7 @@
         <v>4.0611964827663397E-2</v>
       </c>
       <c r="I123">
-        <v>0.38208466376523798</v>
+        <v>0.55737069916372695</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -4066,7 +4066,7 @@
         <v>4.0381449236786097E-2</v>
       </c>
       <c r="I124">
-        <v>0.376500439033506</v>
+        <v>0.53708325709935101</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -4095,7 +4095,7 @@
         <v>4.0432283757956898E-2</v>
       </c>
       <c r="I125">
-        <v>0.34242728096347302</v>
+        <v>0.54319964312374203</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -4124,7 +4124,7 @@
         <v>4.0420556095911803E-2</v>
       </c>
       <c r="I126">
-        <v>0.313152096286262</v>
+        <v>0.55320754078960699</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -4153,7 +4153,7 @@
         <v>4.0475403858868497E-2</v>
       </c>
       <c r="I127">
-        <v>0.29094842505644802</v>
+        <v>0.53183270853266595</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -4182,7 +4182,7 @@
         <v>4.0691206324752399E-2</v>
       </c>
       <c r="I128">
-        <v>0.297555852289761</v>
+        <v>0.53492335140172798</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -4211,7 +4211,7 @@
         <v>4.0479476085913499E-2</v>
       </c>
       <c r="I129">
-        <v>0.30852858318648502</v>
+        <v>0.55858247652175996</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -4240,7 +4240,7 @@
         <v>4.0466433681525603E-2</v>
       </c>
       <c r="I130">
-        <v>0.28533602986519102</v>
+        <v>0.54823975865849695</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -4269,7 +4269,7 @@
         <v>4.0337007356705402E-2</v>
       </c>
       <c r="I131">
-        <v>0.28863299187485703</v>
+        <v>0.54465286625354603</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -4298,7 +4298,7 @@
         <v>4.0488730088522197E-2</v>
       </c>
       <c r="I132">
-        <v>0.31450438307718298</v>
+        <v>0.58935684110750697</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -4327,7 +4327,7 @@
         <v>4.0568718769069603E-2</v>
       </c>
       <c r="I133">
-        <v>0.30305683297392699</v>
+        <v>0.56556761908724196</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -4356,7 +4356,7 @@
         <v>4.0656314020364903E-2</v>
       </c>
       <c r="I134">
-        <v>0.29913674471820301</v>
+        <v>0.54431071606721204</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -4385,7 +4385,7 @@
         <v>4.0498313176113E-2</v>
       </c>
       <c r="I135">
-        <v>0.34983148616021897</v>
+        <v>0.52404383103479701</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -4414,7 +4414,7 @@
         <v>4.0509917781658897E-2</v>
       </c>
       <c r="I136">
-        <v>0.32235673176001201</v>
+        <v>0.51226393923762903</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -4443,7 +4443,7 @@
         <v>4.0518015669222397E-2</v>
       </c>
       <c r="I137">
-        <v>0.29876415562560099</v>
+        <v>0.51196794401977597</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -4472,7 +4472,7 @@
         <v>4.0509596715445302E-2</v>
       </c>
       <c r="I138">
-        <v>0.27711193684562702</v>
+        <v>0.496482084544136</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -4501,7 +4501,7 @@
         <v>4.0487473643912399E-2</v>
       </c>
       <c r="I139">
-        <v>0.26490434344325298</v>
+        <v>0.50854920242172597</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -4530,7 +4530,7 @@
         <v>4.0517119847981002E-2</v>
       </c>
       <c r="I140">
-        <v>0.26460117570383601</v>
+        <v>0.49822181927655901</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -4559,7 +4559,7 @@
         <v>4.0501943562167297E-2</v>
       </c>
       <c r="I141">
-        <v>0.24898446027329099</v>
+        <v>0.48414234267293399</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -4588,7 +4588,7 @@
         <v>4.0567723047911203E-2</v>
       </c>
       <c r="I142">
-        <v>0.261112291283774</v>
+        <v>0.509170553169355</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -4617,7 +4617,7 @@
         <v>4.0516747870774202E-2</v>
       </c>
       <c r="I143">
-        <v>0.25071498120324398</v>
+        <v>0.52513247407998698</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -4646,7 +4646,7 @@
         <v>4.05109594930263E-2</v>
       </c>
       <c r="I144">
-        <v>0.23688380796883601</v>
+        <v>0.52711713127086701</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -4675,7 +4675,7 @@
         <v>4.0426910989507403E-2</v>
       </c>
       <c r="I145">
-        <v>0.26174465221478699</v>
+        <v>0.66981328111496197</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -4704,7 +4704,7 @@
         <v>4.0468134657409699E-2</v>
       </c>
       <c r="I146">
-        <v>0.27825411533336802</v>
+        <v>0.63043146728787003</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -4733,7 +4733,7 @@
         <v>4.04100526973536E-2</v>
       </c>
       <c r="I147">
-        <v>0.28034247007922802</v>
+        <v>0.59976315975592998</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -4762,7 +4762,7 @@
         <v>4.05142950431003E-2</v>
       </c>
       <c r="I148">
-        <v>0.45113983155799098</v>
+        <v>0.57121573872728104</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -4791,7 +4791,7 @@
         <v>4.0517780985909302E-2</v>
       </c>
       <c r="I149">
-        <v>0.39993383494673701</v>
+        <v>0.55499433298782597</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -4820,7 +4820,7 @@
         <v>4.0530414429008003E-2</v>
       </c>
       <c r="I150">
-        <v>0.36220584780041698</v>
+        <v>0.53305486925052403</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -4849,7 +4849,7 @@
         <v>4.0530439021751102E-2</v>
       </c>
       <c r="I151">
-        <v>0.32877742016975298</v>
+        <v>0.52196753664427797</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -4878,7 +4878,7 @@
         <v>4.0499578227503601E-2</v>
       </c>
       <c r="I152">
-        <v>0.310508709648602</v>
+        <v>0.51534686939917895</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -4907,7 +4907,7 @@
         <v>4.0499602133718102E-2</v>
       </c>
       <c r="I153">
-        <v>0.286637493631693</v>
+        <v>0.50206801508401999</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -4936,7 +4936,7 @@
         <v>4.05168834881523E-2</v>
       </c>
       <c r="I154">
-        <v>0.27494010931049601</v>
+        <v>0.52711728135184999</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -4965,7 +4965,7 @@
         <v>4.0490189271041498E-2</v>
       </c>
       <c r="I155">
-        <v>0.26807239579953501</v>
+        <v>0.532260150417323</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -4994,7 +4994,7 @@
         <v>4.0473364121900397E-2</v>
       </c>
       <c r="I156">
-        <v>0.25456229177040801</v>
+        <v>0.54737751655518196</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -5023,7 +5023,7 @@
         <v>4.0435863273217097E-2</v>
       </c>
       <c r="I157">
-        <v>0.28034262829976597</v>
+        <v>0.54112794868402303</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -5052,7 +5052,7 @@
         <v>4.0456003309074499E-2</v>
       </c>
       <c r="I158">
-        <v>0.28579086772227202</v>
+        <v>0.52239073802087799</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -5081,7 +5081,7 @@
         <v>4.0440218285864402E-2</v>
       </c>
       <c r="I159">
-        <v>0.30211214563011901</v>
+        <v>0.56560062687204604</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -5110,7 +5110,7 @@
         <v>4.0460255316372401E-2</v>
       </c>
       <c r="I160">
-        <v>0.29530945684697801</v>
+        <v>0.61430055781222703</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -5139,7 +5139,7 @@
         <v>4.0461615652767499E-2</v>
       </c>
       <c r="I161">
-        <v>0.27538208316999802</v>
+        <v>0.63665973497815298</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -5168,7 +5168,7 @@
         <v>4.0485108726504397E-2</v>
       </c>
       <c r="I162">
-        <v>0.32239406911805102</v>
+        <v>0.634319617836688</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -5197,7 +5197,7 @@
         <v>4.0499952309068797E-2</v>
       </c>
       <c r="I163">
-        <v>0.37985517532841301</v>
+        <v>0.63064883772235303</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -5226,7 +5226,7 @@
         <v>4.05483799940018E-2</v>
       </c>
       <c r="I164">
-        <v>0.407825618142451</v>
+        <v>0.70132246569182699</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -5255,7 +5255,7 @@
         <v>4.04543062969435E-2</v>
       </c>
       <c r="I165">
-        <v>0.40485137757248102</v>
+        <v>0.66504432253019696</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -5284,7 +5284,7 @@
         <v>4.05701878018506E-2</v>
       </c>
       <c r="I166">
-        <v>0.40020795652055402</v>
+        <v>0.65286820418497105</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -5313,7 +5313,7 @@
         <v>4.0343975368168E-2</v>
       </c>
       <c r="I167">
-        <v>0.49434320088406403</v>
+        <v>0.62485600775876504</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -5342,7 +5342,7 @@
         <v>4.0304000059875097E-2</v>
       </c>
       <c r="I168">
-        <v>0.444773950929648</v>
+        <v>0.59336787848703199</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -5371,7 +5371,7 @@
         <v>4.0372420894020503E-2</v>
       </c>
       <c r="I169">
-        <v>0.42872689203570902</v>
+        <v>0.57948499459012504</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -5400,7 +5400,7 @@
         <v>4.0423201018770602E-2</v>
       </c>
       <c r="I170">
-        <v>0.392935030432221</v>
+        <v>0.55774852822225296</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -5429,7 +5429,7 @@
         <v>4.0405287899560299E-2</v>
       </c>
       <c r="I171">
-        <v>0.35457543922020102</v>
+        <v>0.56834325121360296</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -5458,7 +5458,7 @@
         <v>4.0322561456389197E-2</v>
       </c>
       <c r="I172">
-        <v>0.33829285895511702</v>
+        <v>0.55259189705915901</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -5487,7 +5487,7 @@
         <v>4.02929938162341E-2</v>
       </c>
       <c r="I173">
-        <v>0.313573420734089</v>
+        <v>0.60151051655724597</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -5516,7 +5516,7 @@
         <v>4.02680309740212E-2</v>
       </c>
       <c r="I174">
-        <v>0.32550405120004899</v>
+        <v>0.59828324930972399</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -5545,7 +5545,7 @@
         <v>4.0271857551171998E-2</v>
       </c>
       <c r="I175">
-        <v>0.30784780469543999</v>
+        <v>0.63110671445418998</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -5574,7 +5574,7 @@
         <v>4.0223663790814899E-2</v>
       </c>
       <c r="I176">
-        <v>0.364304901528965</v>
+        <v>0.63518386648141201</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -5603,7 +5603,7 @@
         <v>4.0243613948369797E-2</v>
       </c>
       <c r="I177">
-        <v>0.36043284640460099</v>
+        <v>0.63333673666319701</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -5632,7 +5632,7 @@
         <v>4.0314553642649999E-2</v>
       </c>
       <c r="I178">
-        <v>0.40078568502916301</v>
+        <v>0.66538680066276101</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -5661,7 +5661,7 @@
         <v>4.0204336972128503E-2</v>
       </c>
       <c r="I179">
-        <v>0.40594854423827598</v>
+        <v>0.63027308861766695</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -5690,7 +5690,7 @@
         <v>4.0113485829036601E-2</v>
       </c>
       <c r="I180">
-        <v>0.40360542200718702</v>
+        <v>0.685266125609445</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -5719,7 +5719,7 @@
         <v>4.0243880898409599E-2</v>
       </c>
       <c r="I181">
-        <v>0.44522959449622501</v>
+        <v>0.69579192562175196</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -5748,7 +5748,7 @@
         <v>4.0221306585537103E-2</v>
       </c>
       <c r="I182">
-        <v>0.399734166235653</v>
+        <v>0.69824370236942901</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
@@ -5777,7 +5777,7 @@
         <v>4.0409013462085801E-2</v>
       </c>
       <c r="I183">
-        <v>0.47207966290777997</v>
+        <v>0.69634297716659099</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -5806,7 +5806,7 @@
         <v>4.0257050124659501E-2</v>
       </c>
       <c r="I184">
-        <v>0.48661640376042598</v>
+        <v>0.74719561194202899</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -5835,7 +5835,7 @@
         <v>4.0162547513185202E-2</v>
       </c>
       <c r="I185">
-        <v>0.49003426789856702</v>
+        <v>0.69526930190770497</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -5864,7 +5864,7 @@
         <v>4.0244926581978098E-2</v>
       </c>
       <c r="I186">
-        <v>0.48738354184923199</v>
+        <v>0.70892108921780395</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -5893,7 +5893,7 @@
         <v>4.0130823867760401E-2</v>
       </c>
       <c r="I187">
-        <v>0.56079128250542298</v>
+        <v>0.68169906230895805</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -5922,7 +5922,7 @@
         <v>4.0141042513094E-2</v>
       </c>
       <c r="I188">
-        <v>0.48588940217522802</v>
+        <v>0.66117224469976399</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -5951,7 +5951,7 @@
         <v>4.0183022034079398E-2</v>
       </c>
       <c r="I189">
-        <v>0.505059110737758</v>
+        <v>0.62455732838224698</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
@@ -5980,7 +5980,7 @@
         <v>4.0136813092777897E-2</v>
       </c>
       <c r="I190">
-        <v>0.46720361155291301</v>
+        <v>1.6675472371637801</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
@@ -6009,7 +6009,7 @@
         <v>4.0120942049019802E-2</v>
       </c>
       <c r="I191">
-        <v>0.43963873716132501</v>
+        <v>1.4329310664768</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -6038,7 +6038,7 @@
         <v>4.0127754145021802E-2</v>
       </c>
       <c r="I192">
-        <v>0.39256185643597002</v>
+        <v>1.3138643628836699</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
@@ -6067,7 +6067,7 @@
         <v>4.0110809079312901E-2</v>
       </c>
       <c r="I193">
-        <v>2.7832037881725702</v>
+        <v>1.15774216007083</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -6096,7 +6096,7 @@
         <v>4.0146840946407497E-2</v>
       </c>
       <c r="I194">
-        <v>2.0557814412743398</v>
+        <v>1.1781036455326901</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
@@ -6125,7 +6125,7 @@
         <v>4.0038525251966502E-2</v>
       </c>
       <c r="I195">
-        <v>1.7287295640557001</v>
+        <v>1.0543736014573299</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -6154,7 +6154,7 @@
         <v>4.0005818409089199E-2</v>
       </c>
       <c r="I196">
-        <v>1.3428569092054701</v>
+        <v>0.95338589941475005</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
@@ -6183,7 +6183,7 @@
         <v>3.9742157458295402E-2</v>
       </c>
       <c r="I197">
-        <v>1.3904181996174101</v>
+        <v>0.89082654806934702</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -6212,7 +6212,7 @@
         <v>3.98051518839743E-2</v>
       </c>
       <c r="I198">
-        <v>1.11419369145011</v>
+        <v>0.82230486211444198</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -6241,7 +6241,7 @@
         <v>3.98668209956662E-2</v>
       </c>
       <c r="I199">
-        <v>0.91143467320287197</v>
+        <v>0.78954772828131203</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
@@ -6270,7 +6270,7 @@
         <v>3.9976004182503203E-2</v>
       </c>
       <c r="I200">
-        <v>0.79606193874514897</v>
+        <v>0.80485377041204398</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -6299,7 +6299,7 @@
         <v>3.9920039314419203E-2</v>
       </c>
       <c r="I201">
-        <v>0.67867528625705198</v>
+        <v>0.74350057088333199</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
@@ -6328,7 +6328,7 @@
         <v>3.9849419812588598E-2</v>
       </c>
       <c r="I202">
-        <v>0.62587561523418</v>
+        <v>0.70218188935953996</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
@@ -6357,7 +6357,7 @@
         <v>3.9729621673674602E-2</v>
       </c>
       <c r="I203">
-        <v>0.65027959174648398</v>
+        <v>0.74148866056881202</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
@@ -6386,7 +6386,7 @@
         <v>3.9731908293277302E-2</v>
       </c>
       <c r="I204">
-        <v>0.55528309890383998</v>
+        <v>0.72405627081496704</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
@@ -6415,7 +6415,7 @@
         <v>3.9768474087676503E-2</v>
       </c>
       <c r="I205">
-        <v>0.49554940574453399</v>
+        <v>0.70994844616855302</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
@@ -6444,7 +6444,7 @@
         <v>3.9662718197324101E-2</v>
       </c>
       <c r="I206">
-        <v>0.55229543375213097</v>
+        <v>0.67539373728457497</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
@@ -6473,7 +6473,7 @@
         <v>3.9671645681036899E-2</v>
       </c>
       <c r="I207">
-        <v>0.52674748330647703</v>
+        <v>0.63922487576112796</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
@@ -6502,7 +6502,7 @@
         <v>3.9666568419565798E-2</v>
       </c>
       <c r="I208">
-        <v>0.50651679621714196</v>
+        <v>0.62327478736337505</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
@@ -6531,7 +6531,7 @@
         <v>3.96635671425545E-2</v>
       </c>
       <c r="I209">
-        <v>0.45864670036322502</v>
+        <v>0.60156488612779402</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
@@ -6560,7 +6560,7 @@
         <v>3.9668062150389899E-2</v>
       </c>
       <c r="I210">
-        <v>0.41109844179183003</v>
+        <v>0.57694185711113699</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -6589,7 +6589,7 @@
         <v>3.9661711622805997E-2</v>
       </c>
       <c r="I211">
-        <v>0.39096146056286002</v>
+        <v>0.56824536655994895</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -6618,7 +6618,7 @@
         <v>3.9643109280154201E-2</v>
       </c>
       <c r="I212">
-        <v>0.36437031222194599</v>
+        <v>0.56209187500624502</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
@@ -6647,7 +6647,7 @@
         <v>3.9635010864136899E-2</v>
       </c>
       <c r="I213">
-        <v>0.33535190648684698</v>
+        <v>0.54318442917038201</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -6676,7 +6676,7 @@
         <v>3.9564171873053798E-2</v>
       </c>
       <c r="I214">
-        <v>0.325392796616851</v>
+        <v>0.55199228176889603</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
@@ -6705,7 +6705,7 @@
         <v>3.9575328683980698E-2</v>
       </c>
       <c r="I215">
-        <v>0.318437275948036</v>
+        <v>0.57759101814209302</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -6734,7 +6734,7 @@
         <v>3.9544343194512402E-2</v>
       </c>
       <c r="I216">
-        <v>0.29753932409315398</v>
+        <v>0.62605353706744304</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -6763,7 +6763,7 @@
         <v>3.9426282904250903E-2</v>
       </c>
       <c r="I217">
-        <v>0.30718547913243199</v>
+        <v>0.602684539157749</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -6792,7 +6792,7 @@
         <v>3.9301907953157897E-2</v>
       </c>
       <c r="I218">
-        <v>0.33610138423842001</v>
+        <v>0.58394356364267097</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -6821,7 +6821,7 @@
         <v>3.94580235208234E-2</v>
       </c>
       <c r="I219">
-        <v>0.39443303127465601</v>
+        <v>0.59051858838443705</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -6850,7 +6850,7 @@
         <v>3.9379083648224698E-2</v>
       </c>
       <c r="I220">
-        <v>0.36571865373978801</v>
+        <v>0.60221349100545296</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
@@ -6879,7 +6879,7 @@
         <v>3.92866172482935E-2</v>
       </c>
       <c r="I221">
-        <v>0.34348008551970199</v>
+        <v>0.57750702736136295</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -6908,7 +6908,7 @@
         <v>3.9424781934948798E-2</v>
       </c>
       <c r="I222">
-        <v>0.35120220322754803</v>
+        <v>0.56781385563173103</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -6937,7 +6937,7 @@
         <v>3.9611330563128197E-2</v>
       </c>
       <c r="I223">
-        <v>0.36515108874897401</v>
+        <v>0.54939380318789499</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
@@ -6966,7 +6966,7 @@
         <v>3.9552694429925497E-2</v>
       </c>
       <c r="I224">
-        <v>0.33600436665175798</v>
+        <v>0.56380916058328401</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -6995,7 +6995,7 @@
         <v>3.94326899818042E-2</v>
       </c>
       <c r="I225">
-        <v>0.32490257464737199</v>
+        <v>0.55199428931484695</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
@@ -7024,7 +7024,7 @@
         <v>3.95037932332679E-2</v>
       </c>
       <c r="I226">
-        <v>0.30432355098126002</v>
+        <v>0.55170090387223203</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
@@ -7053,7 +7053,7 @@
         <v>3.9311237085224902E-2</v>
       </c>
       <c r="I227">
-        <v>0.320370769557628</v>
+        <v>0.61866481124980999</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -7082,7 +7082,7 @@
         <v>3.92260964719452E-2</v>
       </c>
       <c r="I228">
-        <v>0.307187695436203</v>
+        <v>0.587493506002013</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -7111,7 +7111,7 @@
         <v>3.9324158649941397E-2</v>
       </c>
       <c r="I229">
-        <v>0.306863887333437</v>
+        <v>0.64681754828589</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
@@ -7140,7 +7140,7 @@
         <v>3.9594849023863801E-2</v>
       </c>
       <c r="I230">
-        <v>0.38523614867876299</v>
+        <v>0.61448932555704106</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
@@ -7169,7 +7169,7 @@
         <v>3.9582964027063801E-2</v>
       </c>
       <c r="I231">
-        <v>0.34763861959453701</v>
+        <v>0.59940702461308504</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
@@ -7198,7 +7198,7 @@
         <v>3.9256670134426297E-2</v>
       </c>
       <c r="I232">
-        <v>0.42086294077056902</v>
+        <v>0.57092979303178604</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
@@ -7227,7 +7227,7 @@
         <v>3.9324213008088103E-2</v>
       </c>
       <c r="I233">
-        <v>0.38008713122354798</v>
+        <v>0.55199289604391699</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
@@ -7256,7 +7256,7 @@
         <v>3.9213542877347102E-2</v>
       </c>
       <c r="I234">
-        <v>0.36177878115551199</v>
+        <v>0.536334309890099</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
@@ -7285,7 +7285,7 @@
         <v>3.9209964599998502E-2</v>
       </c>
       <c r="I235">
-        <v>0.32845082857131802</v>
+        <v>0.51851695869810999</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
@@ -7314,7 +7314,7 @@
         <v>3.9156461241587101E-2</v>
       </c>
       <c r="I236">
-        <v>0.30718615728295001</v>
+        <v>2.3831902739222901</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
@@ -7343,7 +7343,7 @@
         <v>3.9086537387403301E-2</v>
       </c>
       <c r="I237">
-        <v>0.29014449196528902</v>
+        <v>2.24006196694156</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
@@ -7372,7 +7372,7 @@
         <v>3.9157141122953397E-2</v>
       </c>
       <c r="I238">
-        <v>0.27134983645753802</v>
+        <v>1.85769801923377</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
@@ -7401,7 +7401,7 @@
         <v>3.8360562714448702E-2</v>
       </c>
       <c r="I239">
-        <v>5.6820858817177804</v>
+        <v>1.6719388613819799</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
@@ -7430,7 +7430,7 @@
         <v>3.80248151289687E-2</v>
       </c>
       <c r="I240">
-        <v>5.0203676157380803</v>
+        <v>1.834890879402</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
@@ -7459,7 +7459,7 @@
         <v>3.8045576314815102E-2</v>
       </c>
       <c r="I241">
-        <v>3.45353193066506</v>
+        <v>1.5527814661572801</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
@@ -7488,7 +7488,7 @@
         <v>3.8036969356628897E-2</v>
       </c>
       <c r="I242">
-        <v>2.7978695561992599</v>
+        <v>1.3618563776586801</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
@@ -7517,7 +7517,7 @@
         <v>3.80365209615404E-2</v>
       </c>
       <c r="I243">
-        <v>3.36931453931264</v>
+        <v>1.2211522428046699</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
@@ -7546,7 +7546,7 @@
         <v>3.8055607110235597E-2</v>
       </c>
       <c r="I244">
-        <v>2.4136202816415402</v>
+        <v>1.13849320034686</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
@@ -7575,7 +7575,7 @@
         <v>3.81000467017042E-2</v>
       </c>
       <c r="I245">
-        <v>1.8571427933696201</v>
+        <v>1.0132148055047401</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -7604,7 +7604,7 @@
         <v>3.8197592262906803E-2</v>
       </c>
       <c r="I246">
-        <v>1.4937028001068899</v>
+        <v>0.93646459554444905</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
@@ -7633,7 +7633,7 @@
         <v>3.8064062853987397E-2</v>
       </c>
       <c r="I247">
-        <v>1.2986567672360301</v>
+        <v>0.85775975632384904</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
@@ -7662,7 +7662,7 @@
         <v>3.8076485290018398E-2</v>
       </c>
       <c r="I248">
-        <v>1.0290942420940099</v>
+        <v>0.863300152691719</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
@@ -7691,7 +7691,7 @@
         <v>3.79921982522003E-2</v>
       </c>
       <c r="I249">
-        <v>0.87945593870822802</v>
+        <v>1.1115487963892201</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
@@ -7720,7 +7720,7 @@
         <v>3.79416335219648E-2</v>
       </c>
       <c r="I250">
-        <v>0.73824179956874902</v>
+        <v>1.06680910582024</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
@@ -7749,7 +7749,7 @@
         <v>3.7740510054703101E-2</v>
       </c>
       <c r="I251">
-        <v>0.74777715363754504</v>
+        <v>1.0186691867192099</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -7778,7 +7778,7 @@
         <v>3.7451684484177197E-2</v>
       </c>
       <c r="I252">
-        <v>1.23803072675433</v>
+        <v>0.94148888190817503</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
@@ -7807,7 +7807,7 @@
         <v>3.7364680324472703E-2</v>
       </c>
       <c r="I253">
-        <v>1.1405716682609801</v>
+        <v>0.88018867939003498</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
@@ -7836,7 +7836,7 @@
         <v>3.7460166900804101E-2</v>
       </c>
       <c r="I254">
-        <v>1.0401769119711699</v>
+        <v>0.80688055627925404</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
@@ -7865,7 +7865,7 @@
         <v>3.7403774483407398E-2</v>
       </c>
       <c r="I255">
-        <v>0.88889131475670602</v>
+        <v>0.77559553711299001</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">

--- a/estimates_PS2025.xlsx
+++ b/estimates_PS2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\tibor-pal.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75143D5B-72C5-4B8F-8770-7396E9090229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A219A0-ECEB-45F9-A403-51C83A9772E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{898E4DB8-E74C-49BD-9493-76D0D230C2FB}"/>
   </bookViews>
@@ -458,7 +458,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,7 +527,7 @@
         <v>4.0038986779857198E-2</v>
       </c>
       <c r="I2">
-        <v>0.65962561574593104</v>
+        <v>0.720864933637685</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -556,7 +556,7 @@
         <v>3.98916450777132E-2</v>
       </c>
       <c r="I3">
-        <v>0.64181220342381595</v>
+        <v>0.69123318704604797</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -585,7 +585,7 @@
         <v>3.97146429777262E-2</v>
       </c>
       <c r="I4">
-        <v>0.60811598362900099</v>
+        <v>0.67916760993880199</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -614,7 +614,7 @@
         <v>3.9813716405990601E-2</v>
       </c>
       <c r="I5">
-        <v>0.58284537588402097</v>
+        <v>0.65962561574593104</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -643,7 +643,7 @@
         <v>3.9762288557270702E-2</v>
       </c>
       <c r="I6">
-        <v>0.59935617961070997</v>
+        <v>0.64181220342381595</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -672,7 +672,7 @@
         <v>3.9760494105272701E-2</v>
       </c>
       <c r="I7">
-        <v>0.57945958317593105</v>
+        <v>0.60811598362900099</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -701,7 +701,7 @@
         <v>3.9730993844109198E-2</v>
       </c>
       <c r="I8">
-        <v>0.55893492422101199</v>
+        <v>0.58284537588402097</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -730,7 +730,7 @@
         <v>3.9626157456553901E-2</v>
       </c>
       <c r="I9">
-        <v>0.53852644184068199</v>
+        <v>0.59935617961070997</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -759,7 +759,7 @@
         <v>3.9656903718199903E-2</v>
       </c>
       <c r="I10">
-        <v>0.545670806575279</v>
+        <v>0.57945958317593105</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -788,7 +788,7 @@
         <v>3.96840639471936E-2</v>
       </c>
       <c r="I11">
-        <v>0.52768104802566196</v>
+        <v>0.55893492422101199</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -817,7 +817,7 @@
         <v>3.9697075264022399E-2</v>
       </c>
       <c r="I12">
-        <v>0.55557395268487797</v>
+        <v>0.53852644184068199</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -846,7 +846,7 @@
         <v>3.9880689680378799E-2</v>
       </c>
       <c r="I13">
-        <v>0.55177203374608896</v>
+        <v>0.545670806575279</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -875,7 +875,7 @@
         <v>3.9804988468630897E-2</v>
       </c>
       <c r="I14">
-        <v>0.54948954769159297</v>
+        <v>0.52768104802566196</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -904,7 +904,7 @@
         <v>3.9475776211299503E-2</v>
       </c>
       <c r="I15">
-        <v>0.53705184337911904</v>
+        <v>0.55557395268487797</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -933,7 +933,7 @@
         <v>3.92773391320742E-2</v>
       </c>
       <c r="I16">
-        <v>0.52459043069866895</v>
+        <v>0.55177203374608896</v>
       </c>
       <c r="L16" s="1"/>
     </row>
@@ -963,7 +963,7 @@
         <v>3.9044937638487702E-2</v>
       </c>
       <c r="I17">
-        <v>0.50968945011984801</v>
+        <v>0.54948954769159297</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -992,7 +992,7 @@
         <v>3.91572243973883E-2</v>
       </c>
       <c r="I18">
-        <v>0.49476933874187101</v>
+        <v>0.53705184337911904</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1021,7 +1021,7 @@
         <v>3.90079117217315E-2</v>
       </c>
       <c r="I19">
-        <v>0.515393296041745</v>
+        <v>0.52459043069866895</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1050,7 +1050,7 @@
         <v>3.8906912559505999E-2</v>
       </c>
       <c r="I20">
-        <v>0.78172482979352897</v>
+        <v>0.50968945011984801</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1079,7 +1079,7 @@
         <v>3.8855155381478601E-2</v>
       </c>
       <c r="I21">
-        <v>0.74096631821958103</v>
+        <v>0.49476933874187101</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1108,7 +1108,7 @@
         <v>3.9233360120331601E-2</v>
       </c>
       <c r="I22">
-        <v>0.70135676722738904</v>
+        <v>0.515393296041745</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1137,7 +1137,7 @@
         <v>4.0449754319989303E-2</v>
       </c>
       <c r="I23">
-        <v>0.82243878167267004</v>
+        <v>0.78172482979352897</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1166,7 +1166,7 @@
         <v>4.0637075046256903E-2</v>
       </c>
       <c r="I24">
-        <v>0.76043746079213403</v>
+        <v>0.74096631821958103</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1195,7 +1195,7 @@
         <v>4.0792947968521599E-2</v>
       </c>
       <c r="I25">
-        <v>0.73937967210951105</v>
+        <v>0.70135676722738904</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1224,7 +1224,7 @@
         <v>4.0223488867603997E-2</v>
       </c>
       <c r="I26">
-        <v>0.71521055306372106</v>
+        <v>0.82243878167267004</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1253,7 +1253,7 @@
         <v>4.0165154962069897E-2</v>
       </c>
       <c r="I27">
-        <v>0.72585117873397798</v>
+        <v>0.76043746079213403</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1282,7 +1282,7 @@
         <v>4.0365423878773302E-2</v>
       </c>
       <c r="I28">
-        <v>0.68579506985204597</v>
+        <v>0.73937967210951105</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1311,7 +1311,7 @@
         <v>4.05532872386506E-2</v>
       </c>
       <c r="I29">
-        <v>0.64915628366619604</v>
+        <v>0.71521055306372106</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1340,7 +1340,7 @@
         <v>4.0822271095020103E-2</v>
       </c>
       <c r="I30">
-        <v>0.61357193047514902</v>
+        <v>0.72585117873397798</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1369,7 +1369,7 @@
         <v>4.0930565618132297E-2</v>
       </c>
       <c r="I31">
-        <v>0.60886599373302996</v>
+        <v>0.68579506985204597</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1398,7 +1398,7 @@
         <v>4.0825743113149897E-2</v>
       </c>
       <c r="I32">
-        <v>0.58003057881120901</v>
+        <v>0.64915628366619604</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1427,7 +1427,7 @@
         <v>4.0809763741119602E-2</v>
       </c>
       <c r="I33">
-        <v>0.56572071921405498</v>
+        <v>0.61357193047514902</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1456,7 +1456,7 @@
         <v>4.0565091853868099E-2</v>
       </c>
       <c r="I34">
-        <v>0.54413417569469702</v>
+        <v>0.60886599373302996</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1485,7 +1485,7 @@
         <v>4.0601152931549901E-2</v>
       </c>
       <c r="I35">
-        <v>0.55476929117707696</v>
+        <v>0.58003057881120901</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1514,7 +1514,7 @@
         <v>4.0437299972004598E-2</v>
       </c>
       <c r="I36">
-        <v>0.53446377168519599</v>
+        <v>0.56572071921405498</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1543,7 +1543,7 @@
         <v>4.0372649181884102E-2</v>
       </c>
       <c r="I37">
-        <v>0.52127133569453299</v>
+        <v>0.54413417569469702</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1572,7 +1572,7 @@
         <v>4.0144178753061997E-2</v>
       </c>
       <c r="I38">
-        <v>0.66180292811227204</v>
+        <v>0.55476929117707696</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -1601,7 +1601,7 @@
         <v>4.01020571092216E-2</v>
       </c>
       <c r="I39">
-        <v>0.62792247889644903</v>
+        <v>0.53446377168519599</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -1630,7 +1630,7 @@
         <v>4.0037837295723501E-2</v>
       </c>
       <c r="I40">
-        <v>0.62543453577484398</v>
+        <v>0.52127133569453299</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -1659,7 +1659,7 @@
         <v>4.0371756936773598E-2</v>
       </c>
       <c r="I41">
-        <v>0.72746054169371099</v>
+        <v>0.66180292811227204</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -1688,7 +1688,7 @@
         <v>4.0338404993010502E-2</v>
       </c>
       <c r="I42">
-        <v>1.17372946673889</v>
+        <v>0.62792247889644903</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -1717,7 +1717,7 @@
         <v>4.0226195933245001E-2</v>
       </c>
       <c r="I43">
-        <v>1.06498862028566</v>
+        <v>0.62543453577484398</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -1746,7 +1746,7 @@
         <v>4.0038437852588399E-2</v>
       </c>
       <c r="I44">
-        <v>1.02298998644423</v>
+        <v>0.72746054169371099</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -1775,7 +1775,7 @@
         <v>3.9834848184443702E-2</v>
       </c>
       <c r="I45">
-        <v>0.920948299118027</v>
+        <v>1.17372946673889</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -1804,7 +1804,7 @@
         <v>3.98502639132561E-2</v>
       </c>
       <c r="I46">
-        <v>0.85884053148266004</v>
+        <v>1.06498862028566</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -1833,7 +1833,7 @@
         <v>3.9812554309181E-2</v>
       </c>
       <c r="I47">
-        <v>0.78811421843860296</v>
+        <v>1.02298998644423</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -1862,7 +1862,7 @@
         <v>3.9811324489725498E-2</v>
       </c>
       <c r="I48">
-        <v>1.4825442426672999</v>
+        <v>0.920948299118027</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -1891,7 +1891,7 @@
         <v>3.9763867653441198E-2</v>
       </c>
       <c r="I49">
-        <v>1.30221786827154</v>
+        <v>0.85884053148266004</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -1920,7 +1920,7 @@
         <v>3.9754354541398397E-2</v>
       </c>
       <c r="I50">
-        <v>1.1720098548912099</v>
+        <v>0.78811421843860296</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -1949,7 +1949,7 @@
         <v>4.0197683357015998E-2</v>
       </c>
       <c r="I51">
-        <v>1.1703706903245701</v>
+        <v>1.4825442426672999</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -1978,7 +1978,7 @@
         <v>4.0248653801225498E-2</v>
       </c>
       <c r="I52">
-        <v>1.8942614774772699</v>
+        <v>1.30221786827154</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2007,7 +2007,7 @@
         <v>4.0311556606257501E-2</v>
       </c>
       <c r="I53">
-        <v>1.8675319279010001</v>
+        <v>1.1720098548912099</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2036,7 +2036,7 @@
         <v>4.0452344770014602E-2</v>
       </c>
       <c r="I54">
-        <v>1.57795522814077</v>
+        <v>1.1703706903245701</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2065,7 +2065,7 @@
         <v>4.06898274772945E-2</v>
       </c>
       <c r="I55">
-        <v>1.49660483096528</v>
+        <v>1.8942614774772699</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2094,7 +2094,7 @@
         <v>4.07645670040723E-2</v>
       </c>
       <c r="I56">
-        <v>1.60956769687207</v>
+        <v>1.8675319279010001</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2123,7 +2123,7 @@
         <v>4.0766042353253602E-2</v>
       </c>
       <c r="I57">
-        <v>1.4607676032333901</v>
+        <v>1.57795522814077</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2152,7 +2152,7 @@
         <v>4.0731646084122101E-2</v>
       </c>
       <c r="I58">
-        <v>1.2676457731487101</v>
+        <v>1.49660483096528</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2181,7 +2181,7 @@
         <v>4.0732289035939999E-2</v>
       </c>
       <c r="I59">
-        <v>1.12849869670934</v>
+        <v>1.60956769687207</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2210,7 +2210,7 @@
         <v>4.0746494142740702E-2</v>
       </c>
       <c r="I60">
-        <v>1.1183599643997399</v>
+        <v>1.4607676032333901</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2239,7 +2239,7 @@
         <v>4.0749255562879901E-2</v>
       </c>
       <c r="I61">
-        <v>1.0325109585380801</v>
+        <v>1.2676457731487101</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2268,7 +2268,7 @@
         <v>4.0742364248292397E-2</v>
       </c>
       <c r="I62">
-        <v>0.92922828035531702</v>
+        <v>1.12849869670934</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2297,7 +2297,7 @@
         <v>4.0656817191781998E-2</v>
       </c>
       <c r="I63">
-        <v>0.86405377600750399</v>
+        <v>1.1183599643997399</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2326,7 +2326,7 @@
         <v>4.0720663081081597E-2</v>
       </c>
       <c r="I64">
-        <v>0.80206578492811498</v>
+        <v>1.0325109585380801</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -2355,7 +2355,7 @@
         <v>4.0730018275446797E-2</v>
       </c>
       <c r="I65">
-        <v>0.74603592073973202</v>
+        <v>0.92922828035531702</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -2384,7 +2384,7 @@
         <v>4.0802497849030298E-2</v>
       </c>
       <c r="I66">
-        <v>0.76817325425696803</v>
+        <v>0.86405377600750399</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -2413,7 +2413,7 @@
         <v>4.0736488826463503E-2</v>
       </c>
       <c r="I67">
-        <v>0.71319421641762404</v>
+        <v>0.80206578492811498</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -2442,7 +2442,7 @@
         <v>4.07880942582073E-2</v>
       </c>
       <c r="I68">
-        <v>0.68888191383659103</v>
+        <v>0.74603592073973202</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -2471,7 +2471,7 @@
         <v>4.0474824082545199E-2</v>
       </c>
       <c r="I69">
-        <v>0.64714070823810699</v>
+        <v>0.76817325425696803</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -2500,7 +2500,7 @@
         <v>4.0460166802506303E-2</v>
       </c>
       <c r="I70">
-        <v>0.62097049558736395</v>
+        <v>0.71319421641762404</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -2529,7 +2529,7 @@
         <v>4.06105722107995E-2</v>
       </c>
       <c r="I71">
-        <v>1.01867453406626</v>
+        <v>0.68888191383659103</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -2558,7 +2558,7 @@
         <v>4.0590405895867203E-2</v>
       </c>
       <c r="I72">
-        <v>1.38819287198256</v>
+        <v>0.64714070823810699</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -2587,7 +2587,7 @@
         <v>4.0744309312910301E-2</v>
       </c>
       <c r="I73">
-        <v>1.2360692551152599</v>
+        <v>0.62097049558736395</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -2616,7 +2616,7 @@
         <v>3.9849213394284697E-2</v>
       </c>
       <c r="I74">
-        <v>1.1308518324271499</v>
+        <v>1.01867453406626</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -2645,7 +2645,7 @@
         <v>4.0263832319168497E-2</v>
       </c>
       <c r="I75">
-        <v>1.1675104745354501</v>
+        <v>1.38819287198256</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -2674,7 +2674,7 @@
         <v>4.0196591764588098E-2</v>
       </c>
       <c r="I76">
-        <v>1.0460493889469</v>
+        <v>1.2360692551152599</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -2703,7 +2703,7 @@
         <v>4.0291883598760202E-2</v>
       </c>
       <c r="I77">
-        <v>0.939745385308564</v>
+        <v>1.1308518324271499</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -2732,7 +2732,7 @@
         <v>4.0485062360466499E-2</v>
       </c>
       <c r="I78">
-        <v>0.89028397251334102</v>
+        <v>1.1675104745354501</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -2761,7 +2761,7 @@
         <v>4.0428557531471801E-2</v>
       </c>
       <c r="I79">
-        <v>0.85787332532124505</v>
+        <v>1.0460493889469</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -2790,7 +2790,7 @@
         <v>4.0422056193245397E-2</v>
       </c>
       <c r="I80">
-        <v>0.968893267788839</v>
+        <v>0.939745385308564</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -2819,7 +2819,7 @@
         <v>4.04942460590276E-2</v>
       </c>
       <c r="I81">
-        <v>0.92517972207629096</v>
+        <v>0.89028397251334102</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -2848,7 +2848,7 @@
         <v>4.04033571084704E-2</v>
       </c>
       <c r="I82">
-        <v>0.87521300579561601</v>
+        <v>0.85787332532124505</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -2877,7 +2877,7 @@
         <v>4.02570449993171E-2</v>
       </c>
       <c r="I83">
-        <v>0.97498284230941401</v>
+        <v>0.968893267788839</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -2906,7 +2906,7 @@
         <v>4.02460397617131E-2</v>
       </c>
       <c r="I84">
-        <v>0.92784159604154504</v>
+        <v>0.92517972207629096</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -2935,7 +2935,7 @@
         <v>4.0263558698614199E-2</v>
       </c>
       <c r="I85">
-        <v>0.87641014937912098</v>
+        <v>0.87521300579561601</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -2964,7 +2964,7 @@
         <v>4.0416457493298898E-2</v>
       </c>
       <c r="I86">
-        <v>0.81620039546940104</v>
+        <v>0.97498284230941401</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -2993,7 +2993,7 @@
         <v>4.0559750841283999E-2</v>
       </c>
       <c r="I87">
-        <v>0.75437122934935896</v>
+        <v>0.92784159604154504</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -3022,7 +3022,7 @@
         <v>4.0397531993454597E-2</v>
       </c>
       <c r="I88">
-        <v>1.1547661284176201</v>
+        <v>0.87641014937912098</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -3051,7 +3051,7 @@
         <v>4.0530050756970797E-2</v>
       </c>
       <c r="I89">
-        <v>1.35778511156911</v>
+        <v>0.81620039546940104</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -3080,7 +3080,7 @@
         <v>4.0587531840206102E-2</v>
       </c>
       <c r="I90">
-        <v>1.3769511456905299</v>
+        <v>0.75437122934935896</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -3109,7 +3109,7 @@
         <v>4.1639993751988999E-2</v>
       </c>
       <c r="I91">
-        <v>1.2120408101081499</v>
+        <v>1.1547661284176201</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -3138,7 +3138,7 @@
         <v>4.1129396462225097E-2</v>
       </c>
       <c r="I92">
-        <v>1.1112926811969299</v>
+        <v>1.35778511156911</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -3167,7 +3167,7 @@
         <v>4.1396299225506798E-2</v>
       </c>
       <c r="I93">
-        <v>1.01366652048128</v>
+        <v>1.3769511456905299</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -3196,7 +3196,7 @@
         <v>4.1338526296741201E-2</v>
       </c>
       <c r="I94">
-        <v>0.94955340700621704</v>
+        <v>1.2120408101081499</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -3225,7 +3225,7 @@
         <v>4.1215129826901703E-2</v>
       </c>
       <c r="I95">
-        <v>1.29721817651959</v>
+        <v>1.1112926811969299</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -3254,7 +3254,7 @@
         <v>4.1308847692834903E-2</v>
       </c>
       <c r="I96">
-        <v>1.1984652832793801</v>
+        <v>1.01366652048128</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -3283,7 +3283,7 @@
         <v>4.1443286748202801E-2</v>
       </c>
       <c r="I97">
-        <v>1.0819161557249799</v>
+        <v>0.94955340700621704</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -3312,7 +3312,7 @@
         <v>4.0963939701170203E-2</v>
       </c>
       <c r="I98">
-        <v>1.0205731118596499</v>
+        <v>1.29721817651959</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -3341,7 +3341,7 @@
         <v>4.1079696243823099E-2</v>
       </c>
       <c r="I99">
-        <v>0.99340474687827596</v>
+        <v>1.1984652832793801</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -3370,7 +3370,7 @@
         <v>4.0998657634003899E-2</v>
       </c>
       <c r="I100">
-        <v>0.97322898564301397</v>
+        <v>1.0819161557249799</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -3399,7 +3399,7 @@
         <v>4.11364631671342E-2</v>
       </c>
       <c r="I101">
-        <v>0.88328921548640604</v>
+        <v>1.0205731118596499</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -3428,7 +3428,7 @@
         <v>4.0960421509822299E-2</v>
       </c>
       <c r="I102">
-        <v>0.82566327281072305</v>
+        <v>0.99340474687827596</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -3457,7 +3457,7 @@
         <v>4.11280920908575E-2</v>
       </c>
       <c r="I103">
-        <v>0.78370008815479597</v>
+        <v>0.97322898564301397</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -3486,7 +3486,7 @@
         <v>4.11643932858533E-2</v>
       </c>
       <c r="I104">
-        <v>0.89892026862645902</v>
+        <v>0.88328921548640604</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -3515,7 +3515,7 @@
         <v>4.1063805062390997E-2</v>
       </c>
       <c r="I105">
-        <v>0.82449593664937404</v>
+        <v>0.82566327281072305</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -3544,7 +3544,7 @@
         <v>4.1186513283411198E-2</v>
       </c>
       <c r="I106">
-        <v>0.81109544431355796</v>
+        <v>0.78370008815479597</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -3573,7 +3573,7 @@
         <v>4.0843552612969902E-2</v>
       </c>
       <c r="I107">
-        <v>0.75157418917039898</v>
+        <v>0.89892026862645902</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -3602,7 +3602,7 @@
         <v>4.0804283870319299E-2</v>
       </c>
       <c r="I108">
-        <v>0.81149952238936995</v>
+        <v>0.82449593664937404</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -3631,7 +3631,7 @@
         <v>4.06453845852245E-2</v>
       </c>
       <c r="I109">
-        <v>0.75292213981738798</v>
+        <v>0.81109544431355796</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -3660,7 +3660,7 @@
         <v>4.0611563086197101E-2</v>
       </c>
       <c r="I110">
-        <v>0.70152860022192398</v>
+        <v>0.75157418917039898</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -3689,7 +3689,7 @@
         <v>4.0406645839472899E-2</v>
       </c>
       <c r="I111">
-        <v>0.65737320240356201</v>
+        <v>0.81149952238936995</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -3718,7 +3718,7 @@
         <v>4.0376253722258303E-2</v>
       </c>
       <c r="I112">
-        <v>0.67778573986906498</v>
+        <v>0.75292213981738798</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -3747,7 +3747,7 @@
         <v>4.0355940147678501E-2</v>
       </c>
       <c r="I113">
-        <v>0.71926133626573696</v>
+        <v>0.70152860022192398</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -3776,7 +3776,7 @@
         <v>4.0354413514568303E-2</v>
       </c>
       <c r="I114">
-        <v>0.68367442827548597</v>
+        <v>0.65737320240356201</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -3805,7 +3805,7 @@
         <v>4.0479506875384597E-2</v>
       </c>
       <c r="I115">
-        <v>0.75752350096658005</v>
+        <v>0.67778573986906498</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -3834,7 +3834,7 @@
         <v>4.0645441557925099E-2</v>
       </c>
       <c r="I116">
-        <v>0.71938115874402897</v>
+        <v>0.71926133626573696</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -3863,7 +3863,7 @@
         <v>4.0578665658630997E-2</v>
       </c>
       <c r="I117">
-        <v>0.67243530970402998</v>
+        <v>0.68367442827548597</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -3892,7 +3892,7 @@
         <v>4.0338233655084398E-2</v>
       </c>
       <c r="I118">
-        <v>0.67005569972605905</v>
+        <v>0.75752350096658005</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -3921,7 +3921,7 @@
         <v>4.0265335786575797E-2</v>
       </c>
       <c r="I119">
-        <v>0.63107542703628605</v>
+        <v>0.71938115874402897</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -3950,7 +3950,7 @@
         <v>4.02736823726128E-2</v>
       </c>
       <c r="I120">
-        <v>0.61611254147699201</v>
+        <v>0.67243530970402998</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -3979,7 +3979,7 @@
         <v>4.0420238658137098E-2</v>
       </c>
       <c r="I121">
-        <v>0.61156392881979704</v>
+        <v>0.67005569972605905</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -4008,7 +4008,7 @@
         <v>4.0433079819836397E-2</v>
       </c>
       <c r="I122">
-        <v>0.58304140587395104</v>
+        <v>0.63107542703628605</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -4037,7 +4037,7 @@
         <v>4.0611964827663397E-2</v>
       </c>
       <c r="I123">
-        <v>0.55737069916372695</v>
+        <v>0.61611254147699201</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -4066,7 +4066,7 @@
         <v>4.0381449236786097E-2</v>
       </c>
       <c r="I124">
-        <v>0.53708325709935101</v>
+        <v>0.61156392881979704</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -4095,7 +4095,7 @@
         <v>4.0432283757956898E-2</v>
       </c>
       <c r="I125">
-        <v>0.54319964312374203</v>
+        <v>0.58304140587395104</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -4124,7 +4124,7 @@
         <v>4.0420556095911803E-2</v>
       </c>
       <c r="I126">
-        <v>0.55320754078960699</v>
+        <v>0.55737069916372695</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -4153,7 +4153,7 @@
         <v>4.0475403858868497E-2</v>
       </c>
       <c r="I127">
-        <v>0.53183270853266595</v>
+        <v>0.53708325709935101</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -4182,7 +4182,7 @@
         <v>4.0691206324752399E-2</v>
       </c>
       <c r="I128">
-        <v>0.53492335140172798</v>
+        <v>0.54319964312374203</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -4211,7 +4211,7 @@
         <v>4.0479476085913499E-2</v>
       </c>
       <c r="I129">
-        <v>0.55858247652175996</v>
+        <v>0.55320754078960699</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -4240,7 +4240,7 @@
         <v>4.0466433681525603E-2</v>
       </c>
       <c r="I130">
-        <v>0.54823975865849695</v>
+        <v>0.53183270853266595</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -4269,7 +4269,7 @@
         <v>4.0337007356705402E-2</v>
       </c>
       <c r="I131">
-        <v>0.54465286625354603</v>
+        <v>0.53492335140172798</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -4298,7 +4298,7 @@
         <v>4.0488730088522197E-2</v>
       </c>
       <c r="I132">
-        <v>0.58935684110750697</v>
+        <v>0.55858247652175996</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -4327,7 +4327,7 @@
         <v>4.0568718769069603E-2</v>
       </c>
       <c r="I133">
-        <v>0.56556761908724196</v>
+        <v>0.54823975865849695</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -4356,7 +4356,7 @@
         <v>4.0656314020364903E-2</v>
       </c>
       <c r="I134">
-        <v>0.54431071606721204</v>
+        <v>0.54465286625354603</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -4385,7 +4385,7 @@
         <v>4.0498313176113E-2</v>
       </c>
       <c r="I135">
-        <v>0.52404383103479701</v>
+        <v>0.58935684110750697</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -4414,7 +4414,7 @@
         <v>4.0509917781658897E-2</v>
       </c>
       <c r="I136">
-        <v>0.51226393923762903</v>
+        <v>0.56556761908724196</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -4443,7 +4443,7 @@
         <v>4.0518015669222397E-2</v>
       </c>
       <c r="I137">
-        <v>0.51196794401977597</v>
+        <v>0.54431071606721204</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -4472,7 +4472,7 @@
         <v>4.0509596715445302E-2</v>
       </c>
       <c r="I138">
-        <v>0.496482084544136</v>
+        <v>0.52404383103479701</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -4501,7 +4501,7 @@
         <v>4.0487473643912399E-2</v>
       </c>
       <c r="I139">
-        <v>0.50854920242172597</v>
+        <v>0.51226393923762903</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -4530,7 +4530,7 @@
         <v>4.0517119847981002E-2</v>
       </c>
       <c r="I140">
-        <v>0.49822181927655901</v>
+        <v>0.51196794401977597</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -4559,7 +4559,7 @@
         <v>4.0501943562167297E-2</v>
       </c>
       <c r="I141">
-        <v>0.48414234267293399</v>
+        <v>0.496482084544136</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -4588,7 +4588,7 @@
         <v>4.0567723047911203E-2</v>
       </c>
       <c r="I142">
-        <v>0.509170553169355</v>
+        <v>0.50854920242172597</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -4617,7 +4617,7 @@
         <v>4.0516747870774202E-2</v>
       </c>
       <c r="I143">
-        <v>0.52513247407998698</v>
+        <v>0.49822181927655901</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -4646,7 +4646,7 @@
         <v>4.05109594930263E-2</v>
       </c>
       <c r="I144">
-        <v>0.52711713127086701</v>
+        <v>0.48414234267293399</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -4675,7 +4675,7 @@
         <v>4.0426910989507403E-2</v>
       </c>
       <c r="I145">
-        <v>0.66981328111496197</v>
+        <v>0.509170553169355</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -4704,7 +4704,7 @@
         <v>4.0468134657409699E-2</v>
       </c>
       <c r="I146">
-        <v>0.63043146728787003</v>
+        <v>0.52513247407998698</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -4733,7 +4733,7 @@
         <v>4.04100526973536E-2</v>
       </c>
       <c r="I147">
-        <v>0.59976315975592998</v>
+        <v>0.52711713127086701</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -4762,7 +4762,7 @@
         <v>4.05142950431003E-2</v>
       </c>
       <c r="I148">
-        <v>0.57121573872728104</v>
+        <v>0.66981328111496197</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -4791,7 +4791,7 @@
         <v>4.0517780985909302E-2</v>
       </c>
       <c r="I149">
-        <v>0.55499433298782597</v>
+        <v>0.63043146728787003</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -4820,7 +4820,7 @@
         <v>4.0530414429008003E-2</v>
       </c>
       <c r="I150">
-        <v>0.53305486925052403</v>
+        <v>0.59976315975592998</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -4849,7 +4849,7 @@
         <v>4.0530439021751102E-2</v>
       </c>
       <c r="I151">
-        <v>0.52196753664427797</v>
+        <v>0.57121573872728104</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -4878,7 +4878,7 @@
         <v>4.0499578227503601E-2</v>
       </c>
       <c r="I152">
-        <v>0.51534686939917895</v>
+        <v>0.55499433298782597</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -4907,7 +4907,7 @@
         <v>4.0499602133718102E-2</v>
       </c>
       <c r="I153">
-        <v>0.50206801508401999</v>
+        <v>0.53305486925052403</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -4936,7 +4936,7 @@
         <v>4.05168834881523E-2</v>
       </c>
       <c r="I154">
-        <v>0.52711728135184999</v>
+        <v>0.52196753664427797</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -4965,7 +4965,7 @@
         <v>4.0490189271041498E-2</v>
       </c>
       <c r="I155">
-        <v>0.532260150417323</v>
+        <v>0.51534686939917895</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -4994,7 +4994,7 @@
         <v>4.0473364121900397E-2</v>
       </c>
       <c r="I156">
-        <v>0.54737751655518196</v>
+        <v>0.50206801508401999</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -5023,7 +5023,7 @@
         <v>4.0435863273217097E-2</v>
       </c>
       <c r="I157">
-        <v>0.54112794868402303</v>
+        <v>0.52711728135184999</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -5052,7 +5052,7 @@
         <v>4.0456003309074499E-2</v>
       </c>
       <c r="I158">
-        <v>0.52239073802087799</v>
+        <v>0.532260150417323</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -5081,7 +5081,7 @@
         <v>4.0440218285864402E-2</v>
       </c>
       <c r="I159">
-        <v>0.56560062687204604</v>
+        <v>0.54737751655518196</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -5110,7 +5110,7 @@
         <v>4.0460255316372401E-2</v>
       </c>
       <c r="I160">
-        <v>0.61430055781222703</v>
+        <v>0.54112794868402303</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -5139,7 +5139,7 @@
         <v>4.0461615652767499E-2</v>
       </c>
       <c r="I161">
-        <v>0.63665973497815298</v>
+        <v>0.52239073802087799</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -5168,7 +5168,7 @@
         <v>4.0485108726504397E-2</v>
       </c>
       <c r="I162">
-        <v>0.634319617836688</v>
+        <v>0.56560062687204604</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -5197,7 +5197,7 @@
         <v>4.0499952309068797E-2</v>
       </c>
       <c r="I163">
-        <v>0.63064883772235303</v>
+        <v>0.61430055781222703</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -5226,7 +5226,7 @@
         <v>4.05483799940018E-2</v>
       </c>
       <c r="I164">
-        <v>0.70132246569182699</v>
+        <v>0.63665973497815298</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -5255,7 +5255,7 @@
         <v>4.04543062969435E-2</v>
       </c>
       <c r="I165">
-        <v>0.66504432253019696</v>
+        <v>0.634319617836688</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -5284,7 +5284,7 @@
         <v>4.05701878018506E-2</v>
       </c>
       <c r="I166">
-        <v>0.65286820418497105</v>
+        <v>0.63064883772235303</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -5313,7 +5313,7 @@
         <v>4.0343975368168E-2</v>
       </c>
       <c r="I167">
-        <v>0.62485600775876504</v>
+        <v>0.70132246569182699</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -5342,7 +5342,7 @@
         <v>4.0304000059875097E-2</v>
       </c>
       <c r="I168">
-        <v>0.59336787848703199</v>
+        <v>0.66504432253019696</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -5371,7 +5371,7 @@
         <v>4.0372420894020503E-2</v>
       </c>
       <c r="I169">
-        <v>0.57948499459012504</v>
+        <v>0.65286820418497105</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -5400,7 +5400,7 @@
         <v>4.0423201018770602E-2</v>
       </c>
       <c r="I170">
-        <v>0.55774852822225296</v>
+        <v>0.62485600775876504</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -5429,7 +5429,7 @@
         <v>4.0405287899560299E-2</v>
       </c>
       <c r="I171">
-        <v>0.56834325121360296</v>
+        <v>0.59336787848703199</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -5458,7 +5458,7 @@
         <v>4.0322561456389197E-2</v>
       </c>
       <c r="I172">
-        <v>0.55259189705915901</v>
+        <v>0.57948499459012504</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -5487,7 +5487,7 @@
         <v>4.02929938162341E-2</v>
       </c>
       <c r="I173">
-        <v>0.60151051655724597</v>
+        <v>0.55774852822225296</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -5516,7 +5516,7 @@
         <v>4.02680309740212E-2</v>
       </c>
       <c r="I174">
-        <v>0.59828324930972399</v>
+        <v>0.56834325121360296</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -5545,7 +5545,7 @@
         <v>4.0271857551171998E-2</v>
       </c>
       <c r="I175">
-        <v>0.63110671445418998</v>
+        <v>0.55259189705915901</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -5574,7 +5574,7 @@
         <v>4.0223663790814899E-2</v>
       </c>
       <c r="I176">
-        <v>0.63518386648141201</v>
+        <v>0.60151051655724597</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -5603,7 +5603,7 @@
         <v>4.0243613948369797E-2</v>
       </c>
       <c r="I177">
-        <v>0.63333673666319701</v>
+        <v>0.59828324930972399</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -5632,7 +5632,7 @@
         <v>4.0314553642649999E-2</v>
       </c>
       <c r="I178">
-        <v>0.66538680066276101</v>
+        <v>0.63110671445418998</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -5661,7 +5661,7 @@
         <v>4.0204336972128503E-2</v>
       </c>
       <c r="I179">
-        <v>0.63027308861766695</v>
+        <v>0.63518386648141201</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -5690,7 +5690,7 @@
         <v>4.0113485829036601E-2</v>
       </c>
       <c r="I180">
-        <v>0.685266125609445</v>
+        <v>0.63333673666319701</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -5719,7 +5719,7 @@
         <v>4.0243880898409599E-2</v>
       </c>
       <c r="I181">
-        <v>0.69579192562175196</v>
+        <v>0.66538680066276101</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -5748,7 +5748,7 @@
         <v>4.0221306585537103E-2</v>
       </c>
       <c r="I182">
-        <v>0.69824370236942901</v>
+        <v>0.63027308861766695</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
@@ -5777,7 +5777,7 @@
         <v>4.0409013462085801E-2</v>
       </c>
       <c r="I183">
-        <v>0.69634297716659099</v>
+        <v>0.685266125609445</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -5806,7 +5806,7 @@
         <v>4.0257050124659501E-2</v>
       </c>
       <c r="I184">
-        <v>0.74719561194202899</v>
+        <v>0.69579192562175196</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -5835,7 +5835,7 @@
         <v>4.0162547513185202E-2</v>
       </c>
       <c r="I185">
-        <v>0.69526930190770497</v>
+        <v>0.69824370236942901</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -5864,7 +5864,7 @@
         <v>4.0244926581978098E-2</v>
       </c>
       <c r="I186">
-        <v>0.70892108921780395</v>
+        <v>0.69634297716659099</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -5893,7 +5893,7 @@
         <v>4.0130823867760401E-2</v>
       </c>
       <c r="I187">
-        <v>0.68169906230895805</v>
+        <v>0.74719561194202899</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -5922,7 +5922,7 @@
         <v>4.0141042513094E-2</v>
       </c>
       <c r="I188">
-        <v>0.66117224469976399</v>
+        <v>0.69526930190770497</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -5951,7 +5951,7 @@
         <v>4.0183022034079398E-2</v>
       </c>
       <c r="I189">
-        <v>0.62455732838224698</v>
+        <v>0.70892108921780395</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
@@ -5980,7 +5980,7 @@
         <v>4.0136813092777897E-2</v>
       </c>
       <c r="I190">
-        <v>1.6675472371637801</v>
+        <v>0.68169906230895805</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
@@ -6009,7 +6009,7 @@
         <v>4.0120942049019802E-2</v>
       </c>
       <c r="I191">
-        <v>1.4329310664768</v>
+        <v>0.66117224469976399</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -6038,7 +6038,7 @@
         <v>4.0127754145021802E-2</v>
       </c>
       <c r="I192">
-        <v>1.3138643628836699</v>
+        <v>0.62455732838224698</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
@@ -6067,7 +6067,7 @@
         <v>4.0110809079312901E-2</v>
       </c>
       <c r="I193">
-        <v>1.15774216007083</v>
+        <v>1.6675472371637801</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -6096,7 +6096,7 @@
         <v>4.0146840946407497E-2</v>
       </c>
       <c r="I194">
-        <v>1.1781036455326901</v>
+        <v>1.4329310664768</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
@@ -6125,7 +6125,7 @@
         <v>4.0038525251966502E-2</v>
       </c>
       <c r="I195">
-        <v>1.0543736014573299</v>
+        <v>1.3138643628836699</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -6154,7 +6154,7 @@
         <v>4.0005818409089199E-2</v>
       </c>
       <c r="I196">
-        <v>0.95338589941475005</v>
+        <v>1.15774216007083</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
@@ -6183,7 +6183,7 @@
         <v>3.9742157458295402E-2</v>
       </c>
       <c r="I197">
-        <v>0.89082654806934702</v>
+        <v>1.1781036455326901</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -6212,7 +6212,7 @@
         <v>3.98051518839743E-2</v>
       </c>
       <c r="I198">
-        <v>0.82230486211444198</v>
+        <v>1.0543736014573299</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -6241,7 +6241,7 @@
         <v>3.98668209956662E-2</v>
       </c>
       <c r="I199">
-        <v>0.78954772828131203</v>
+        <v>0.95338589941475005</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
@@ -6270,7 +6270,7 @@
         <v>3.9976004182503203E-2</v>
       </c>
       <c r="I200">
-        <v>0.80485377041204398</v>
+        <v>0.89082654806934702</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -6299,7 +6299,7 @@
         <v>3.9920039314419203E-2</v>
       </c>
       <c r="I201">
-        <v>0.74350057088333199</v>
+        <v>0.82230486211444198</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
@@ -6328,7 +6328,7 @@
         <v>3.9849419812588598E-2</v>
       </c>
       <c r="I202">
-        <v>0.70218188935953996</v>
+        <v>0.78954772828131203</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
@@ -6357,7 +6357,7 @@
         <v>3.9729621673674602E-2</v>
       </c>
       <c r="I203">
-        <v>0.74148866056881202</v>
+        <v>0.80485377041204398</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
@@ -6386,7 +6386,7 @@
         <v>3.9731908293277302E-2</v>
       </c>
       <c r="I204">
-        <v>0.72405627081496704</v>
+        <v>0.74350057088333199</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
@@ -6415,7 +6415,7 @@
         <v>3.9768474087676503E-2</v>
       </c>
       <c r="I205">
-        <v>0.70994844616855302</v>
+        <v>0.70218188935953996</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
@@ -6444,7 +6444,7 @@
         <v>3.9662718197324101E-2</v>
       </c>
       <c r="I206">
-        <v>0.67539373728457497</v>
+        <v>0.74148866056881202</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
@@ -6473,7 +6473,7 @@
         <v>3.9671645681036899E-2</v>
       </c>
       <c r="I207">
-        <v>0.63922487576112796</v>
+        <v>0.72405627081496704</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
@@ -6502,7 +6502,7 @@
         <v>3.9666568419565798E-2</v>
       </c>
       <c r="I208">
-        <v>0.62327478736337505</v>
+        <v>0.70994844616855302</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
@@ -6531,7 +6531,7 @@
         <v>3.96635671425545E-2</v>
       </c>
       <c r="I209">
-        <v>0.60156488612779402</v>
+        <v>0.67539373728457497</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
@@ -6560,7 +6560,7 @@
         <v>3.9668062150389899E-2</v>
       </c>
       <c r="I210">
-        <v>0.57694185711113699</v>
+        <v>0.63922487576112796</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -6589,7 +6589,7 @@
         <v>3.9661711622805997E-2</v>
       </c>
       <c r="I211">
-        <v>0.56824536655994895</v>
+        <v>0.62327478736337505</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -6618,7 +6618,7 @@
         <v>3.9643109280154201E-2</v>
       </c>
       <c r="I212">
-        <v>0.56209187500624502</v>
+        <v>0.60156488612779402</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
@@ -6647,7 +6647,7 @@
         <v>3.9635010864136899E-2</v>
       </c>
       <c r="I213">
-        <v>0.54318442917038201</v>
+        <v>0.57694185711113699</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -6676,7 +6676,7 @@
         <v>3.9564171873053798E-2</v>
       </c>
       <c r="I214">
-        <v>0.55199228176889603</v>
+        <v>0.56824536655994895</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
@@ -6705,7 +6705,7 @@
         <v>3.9575328683980698E-2</v>
       </c>
       <c r="I215">
-        <v>0.57759101814209302</v>
+        <v>0.56209187500624502</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -6734,7 +6734,7 @@
         <v>3.9544343194512402E-2</v>
       </c>
       <c r="I216">
-        <v>0.62605353706744304</v>
+        <v>0.54318442917038201</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -6763,7 +6763,7 @@
         <v>3.9426282904250903E-2</v>
       </c>
       <c r="I217">
-        <v>0.602684539157749</v>
+        <v>0.55199228176889603</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -6792,7 +6792,7 @@
         <v>3.9301907953157897E-2</v>
       </c>
       <c r="I218">
-        <v>0.58394356364267097</v>
+        <v>0.57759101814209302</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -6821,7 +6821,7 @@
         <v>3.94580235208234E-2</v>
       </c>
       <c r="I219">
-        <v>0.59051858838443705</v>
+        <v>0.62605353706744304</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -6850,7 +6850,7 @@
         <v>3.9379083648224698E-2</v>
       </c>
       <c r="I220">
-        <v>0.60221349100545296</v>
+        <v>0.602684539157749</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
@@ -6879,7 +6879,7 @@
         <v>3.92866172482935E-2</v>
       </c>
       <c r="I221">
-        <v>0.57750702736136295</v>
+        <v>0.58394356364267097</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -6908,7 +6908,7 @@
         <v>3.9424781934948798E-2</v>
       </c>
       <c r="I222">
-        <v>0.56781385563173103</v>
+        <v>0.59051858838443705</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -6937,7 +6937,7 @@
         <v>3.9611330563128197E-2</v>
       </c>
       <c r="I223">
-        <v>0.54939380318789499</v>
+        <v>0.60221349100545296</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
@@ -6966,7 +6966,7 @@
         <v>3.9552694429925497E-2</v>
       </c>
       <c r="I224">
-        <v>0.56380916058328401</v>
+        <v>0.57750702736136295</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -6995,7 +6995,7 @@
         <v>3.94326899818042E-2</v>
       </c>
       <c r="I225">
-        <v>0.55199428931484695</v>
+        <v>0.56781385563173103</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
@@ -7024,7 +7024,7 @@
         <v>3.95037932332679E-2</v>
       </c>
       <c r="I226">
-        <v>0.55170090387223203</v>
+        <v>0.54939380318789499</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
@@ -7053,7 +7053,7 @@
         <v>3.9311237085224902E-2</v>
       </c>
       <c r="I227">
-        <v>0.61866481124980999</v>
+        <v>0.56380916058328401</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -7082,7 +7082,7 @@
         <v>3.92260964719452E-2</v>
       </c>
       <c r="I228">
-        <v>0.587493506002013</v>
+        <v>0.55199428931484695</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -7111,7 +7111,7 @@
         <v>3.9324158649941397E-2</v>
       </c>
       <c r="I229">
-        <v>0.64681754828589</v>
+        <v>0.55170090387223203</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
@@ -7140,7 +7140,7 @@
         <v>3.9594849023863801E-2</v>
       </c>
       <c r="I230">
-        <v>0.61448932555704106</v>
+        <v>0.61866481124980999</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
@@ -7169,7 +7169,7 @@
         <v>3.9582964027063801E-2</v>
       </c>
       <c r="I231">
-        <v>0.59940702461308504</v>
+        <v>0.587493506002013</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
@@ -7198,7 +7198,7 @@
         <v>3.9256670134426297E-2</v>
       </c>
       <c r="I232">
-        <v>0.57092979303178604</v>
+        <v>0.64681754828589</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
@@ -7227,7 +7227,7 @@
         <v>3.9324213008088103E-2</v>
       </c>
       <c r="I233">
-        <v>0.55199289604391699</v>
+        <v>0.61448932555704106</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
@@ -7256,7 +7256,7 @@
         <v>3.9213542877347102E-2</v>
       </c>
       <c r="I234">
-        <v>0.536334309890099</v>
+        <v>0.59940702461308504</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
@@ -7285,7 +7285,7 @@
         <v>3.9209964599998502E-2</v>
       </c>
       <c r="I235">
-        <v>0.51851695869810999</v>
+        <v>0.57092979303178604</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
@@ -7314,7 +7314,7 @@
         <v>3.9156461241587101E-2</v>
       </c>
       <c r="I236">
-        <v>2.3831902739222901</v>
+        <v>0.55199289604391699</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
@@ -7343,7 +7343,7 @@
         <v>3.9086537387403301E-2</v>
       </c>
       <c r="I237">
-        <v>2.24006196694156</v>
+        <v>0.536334309890099</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
@@ -7372,7 +7372,7 @@
         <v>3.9157141122953397E-2</v>
       </c>
       <c r="I238">
-        <v>1.85769801923377</v>
+        <v>0.51851695869810999</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
@@ -7401,7 +7401,7 @@
         <v>3.8360562714448702E-2</v>
       </c>
       <c r="I239">
-        <v>1.6719388613819799</v>
+        <v>2.3831902739222901</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
@@ -7430,7 +7430,7 @@
         <v>3.80248151289687E-2</v>
       </c>
       <c r="I240">
-        <v>1.834890879402</v>
+        <v>2.24006196694156</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
@@ -7459,7 +7459,7 @@
         <v>3.8045576314815102E-2</v>
       </c>
       <c r="I241">
-        <v>1.5527814661572801</v>
+        <v>1.85769801923377</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
@@ -7488,7 +7488,7 @@
         <v>3.8036969356628897E-2</v>
       </c>
       <c r="I242">
-        <v>1.3618563776586801</v>
+        <v>1.6719388613819799</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
@@ -7517,7 +7517,7 @@
         <v>3.80365209615404E-2</v>
       </c>
       <c r="I243">
-        <v>1.2211522428046699</v>
+        <v>1.834890879402</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
@@ -7546,7 +7546,7 @@
         <v>3.8055607110235597E-2</v>
       </c>
       <c r="I244">
-        <v>1.13849320034686</v>
+        <v>1.5527814661572801</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
@@ -7575,7 +7575,7 @@
         <v>3.81000467017042E-2</v>
       </c>
       <c r="I245">
-        <v>1.0132148055047401</v>
+        <v>1.3618563776586801</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -7604,7 +7604,7 @@
         <v>3.8197592262906803E-2</v>
       </c>
       <c r="I246">
-        <v>0.93646459554444905</v>
+        <v>1.2211522428046699</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
@@ -7633,7 +7633,7 @@
         <v>3.8064062853987397E-2</v>
       </c>
       <c r="I247">
-        <v>0.85775975632384904</v>
+        <v>1.13849320034686</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
@@ -7662,7 +7662,7 @@
         <v>3.8076485290018398E-2</v>
       </c>
       <c r="I248">
-        <v>0.863300152691719</v>
+        <v>1.0132148055047401</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
@@ -7691,7 +7691,7 @@
         <v>3.79921982522003E-2</v>
       </c>
       <c r="I249">
-        <v>1.1115487963892201</v>
+        <v>0.93646459554444905</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
@@ -7720,7 +7720,7 @@
         <v>3.79416335219648E-2</v>
       </c>
       <c r="I250">
-        <v>1.06680910582024</v>
+        <v>0.85775975632384904</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
@@ -7749,7 +7749,7 @@
         <v>3.7740510054703101E-2</v>
       </c>
       <c r="I251">
-        <v>1.0186691867192099</v>
+        <v>0.863300152691719</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -7778,7 +7778,7 @@
         <v>3.7451684484177197E-2</v>
       </c>
       <c r="I252">
-        <v>0.94148888190817503</v>
+        <v>1.1115487963892201</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
@@ -7807,7 +7807,7 @@
         <v>3.7364680324472703E-2</v>
       </c>
       <c r="I253">
-        <v>0.88018867939003498</v>
+        <v>1.06680910582024</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
@@ -7836,7 +7836,7 @@
         <v>3.7460166900804101E-2</v>
       </c>
       <c r="I254">
-        <v>0.80688055627925404</v>
+        <v>1.0186691867192099</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
@@ -7865,7 +7865,7 @@
         <v>3.7403774483407398E-2</v>
       </c>
       <c r="I255">
-        <v>0.77559553711299001</v>
+        <v>0.94148888190817503</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
@@ -7894,7 +7894,7 @@
         <v>3.7347514567364702E-2</v>
       </c>
       <c r="I256">
-        <v>0.77722211132637398</v>
+        <v>0.88018867939003498</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
@@ -7923,7 +7923,7 @@
         <v>3.7367070505527997E-2</v>
       </c>
       <c r="I257">
-        <v>0.65354623210151896</v>
+        <v>0.80688055627925404</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
@@ -7952,7 +7952,7 @@
         <v>3.7474644118299899E-2</v>
       </c>
       <c r="I258">
-        <v>0.60403843718958705</v>
+        <v>0.77559553711299001</v>
       </c>
     </row>
   </sheetData>

--- a/estimates_PS2025.xlsx
+++ b/estimates_PS2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\tibor-pal.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A219A0-ECEB-45F9-A403-51C83A9772E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F185AB05-F2F5-47C5-8822-077CE6471107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{898E4DB8-E74C-49BD-9493-76D0D230C2FB}"/>
   </bookViews>
@@ -458,7 +458,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/estimates_PS2025.xlsx
+++ b/estimates_PS2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\tibor-pal.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF23691-3FED-44D8-ABB2-91DCF098C157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72BC99A-B1C7-4842-B9B0-19343D23109D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3330" yWindow="3285" windowWidth="21045" windowHeight="11700" xr2:uid="{898E4DB8-E74C-49BD-9493-76D0D230C2FB}"/>
   </bookViews>
@@ -459,7 +459,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B245" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K253" sqref="K253:K254"/>
+      <selection pane="bottomRight" activeCell="K255" sqref="K255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/estimates_PS2025.xlsx
+++ b/estimates_PS2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\tibor-pal.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72BC99A-B1C7-4842-B9B0-19343D23109D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265778E9-6C4A-433D-836F-C207158304D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="3285" windowWidth="21045" windowHeight="11700" xr2:uid="{898E4DB8-E74C-49BD-9493-76D0D230C2FB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{898E4DB8-E74C-49BD-9493-76D0D230C2FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,12 +87,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -107,7 +113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -118,6 +124,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -453,13 +462,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9DA81B-324A-4AF1-9159-7E70301473AF}">
-  <dimension ref="A1:L259"/>
+  <dimension ref="A1:L260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B245" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K255" sqref="K255"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,10 +486,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -489,16 +498,16 @@
       <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -507,10 +516,10 @@
         <v>22282</v>
       </c>
       <c r="B2" s="4">
-        <v>5.0866809882082</v>
+        <v>4.7968645299358696</v>
       </c>
       <c r="C2" s="4">
-        <v>3.8712741064624399</v>
+        <v>3.9303940512840798</v>
       </c>
       <c r="D2">
         <v>3.8251154304433501</v>
@@ -519,16 +528,16 @@
         <v>5.1248381323175201</v>
       </c>
       <c r="F2">
-        <v>-2.63336897263423</v>
+        <v>-2.5245845926858701</v>
       </c>
       <c r="G2">
-        <v>-0.14555800498805499</v>
+        <v>-0.14110784463061299</v>
       </c>
       <c r="H2">
         <v>4.0038986779857198E-2</v>
       </c>
       <c r="I2">
-        <v>0.71790621016644496</v>
+        <v>0.72040216535119195</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -536,10 +545,10 @@
         <v>22372</v>
       </c>
       <c r="B3" s="4">
-        <v>5.3407751946658504</v>
+        <v>5.0260838656085101</v>
       </c>
       <c r="C3" s="4">
-        <v>3.8591991666944101</v>
+        <v>3.9160828592047401</v>
       </c>
       <c r="D3">
         <v>3.8153533955324601</v>
@@ -548,16 +557,16 @@
         <v>5.3632765567691596</v>
       </c>
       <c r="F3">
-        <v>-2.3514663689403501</v>
+        <v>-2.16700729738091</v>
       </c>
       <c r="G3">
-        <v>-0.146306999550951</v>
+        <v>-0.14107718429134899</v>
       </c>
       <c r="H3">
         <v>3.98916450777132E-2</v>
       </c>
       <c r="I3">
-        <v>0.68959936371664399</v>
+        <v>0.690106937719837</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -565,10 +574,10 @@
         <v>22463</v>
       </c>
       <c r="B4">
-        <v>5.1470365533906497</v>
+        <v>4.9734276989273702</v>
       </c>
       <c r="C4">
-        <v>3.8434896965704302</v>
+        <v>3.89654635335999</v>
       </c>
       <c r="D4">
         <v>3.80269375142425</v>
@@ -577,16 +586,16 @@
         <v>5.1676419373056799</v>
       </c>
       <c r="F4">
-        <v>-1.60880096181063</v>
+        <v>-1.4557364129602799</v>
       </c>
       <c r="G4">
-        <v>-0.13757060746613201</v>
+        <v>-0.13383607227975899</v>
       </c>
       <c r="H4">
         <v>3.97146429777262E-2</v>
       </c>
       <c r="I4">
-        <v>0.67790150342516897</v>
+        <v>0.67728338005518995</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -594,10 +603,10 @@
         <v>22555</v>
       </c>
       <c r="B5">
-        <v>4.96047044775373</v>
+        <v>4.9150698758579496</v>
       </c>
       <c r="C5">
-        <v>3.8255988091158999</v>
+        <v>3.8724415804839598</v>
       </c>
       <c r="D5">
         <v>3.7883533754065701</v>
@@ -606,16 +615,16 @@
         <v>4.9813633649710001</v>
       </c>
       <c r="F5">
-        <v>-0.79393033461928997</v>
+        <v>-0.72623707985849295</v>
       </c>
       <c r="G5">
-        <v>-0.128157299430183</v>
+        <v>-0.125958589493739</v>
       </c>
       <c r="H5">
         <v>3.9813716405990601E-2</v>
       </c>
       <c r="I5">
-        <v>0.65874323809811797</v>
+        <v>0.65861098088608805</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -623,10 +632,10 @@
         <v>22647</v>
       </c>
       <c r="B6">
-        <v>4.7207721170366002</v>
+        <v>4.7509764450010996</v>
       </c>
       <c r="C6">
-        <v>3.8083071918693499</v>
+        <v>3.8472543058966799</v>
       </c>
       <c r="D6">
         <v>3.7744243800671602</v>
@@ -635,16 +644,16 @@
         <v>4.7432712465264801</v>
       </c>
       <c r="F6">
-        <v>5.94281879573373E-2</v>
+        <v>2.6264259205959199E-2</v>
       </c>
       <c r="G6">
-        <v>-0.11730396631838599</v>
+        <v>-0.11333126742314301</v>
       </c>
       <c r="H6">
         <v>3.9762288557270702E-2</v>
       </c>
       <c r="I6">
-        <v>0.64105724738550696</v>
+        <v>0.64061436412375805</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -652,10 +661,10 @@
         <v>22737</v>
       </c>
       <c r="B7">
-        <v>4.1537318118520696</v>
+        <v>4.1363573101396502</v>
       </c>
       <c r="C7">
-        <v>3.7994895719905202</v>
+        <v>3.8371338680346398</v>
       </c>
       <c r="D7">
         <v>3.7664865050965499</v>
@@ -664,16 +673,16 @@
         <v>4.2033929249041204</v>
       </c>
       <c r="F7">
-        <v>0.66459655906555803</v>
+        <v>0.56780012107265099</v>
       </c>
       <c r="G7">
-        <v>-9.5650296500227799E-2</v>
+        <v>-8.0616476186056302E-2</v>
       </c>
       <c r="H7">
         <v>3.9760494105272701E-2</v>
       </c>
       <c r="I7">
-        <v>0.60859163382399895</v>
+        <v>0.60661097239509998</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -681,10 +690,10 @@
         <v>22828</v>
       </c>
       <c r="B8">
-        <v>4.1264188043959402</v>
+        <v>4.1217446330442504</v>
       </c>
       <c r="C8">
-        <v>3.79097270662843</v>
+        <v>3.8273013711375001</v>
       </c>
       <c r="D8">
         <v>3.7588504138316501</v>
@@ -693,16 +702,16 @@
         <v>4.1722014873166797</v>
       </c>
       <c r="F8">
-        <v>0.93952404550998403</v>
+        <v>0.789059655636834</v>
       </c>
       <c r="G8">
-        <v>-9.4709765346958102E-2</v>
+        <v>-7.9828441546999501E-2</v>
       </c>
       <c r="H8">
         <v>3.9730993844109198E-2</v>
       </c>
       <c r="I8">
-        <v>0.58373877513432804</v>
+        <v>0.58127813409308304</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -710,10 +719,10 @@
         <v>22920</v>
       </c>
       <c r="B9">
-        <v>3.9162809493450901</v>
+        <v>3.8735914903483701</v>
       </c>
       <c r="C9">
-        <v>3.7875299342054198</v>
+        <v>3.82731421545471</v>
       </c>
       <c r="D9">
         <v>3.75512458842418</v>
@@ -722,16 +731,16 @@
         <v>3.9556072573583321</v>
       </c>
       <c r="F9">
-        <v>0.75527041074940404</v>
+        <v>0.61993359361758904</v>
       </c>
       <c r="G9">
-        <v>-8.6534487714649402E-2</v>
+        <v>-6.9477477272616994E-2</v>
       </c>
       <c r="H9">
         <v>3.9626157456553901E-2</v>
       </c>
       <c r="I9">
-        <v>0.59790527546884298</v>
+        <v>0.59891810136014401</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -739,10 +748,10 @@
         <v>23012</v>
       </c>
       <c r="B10">
-        <v>3.9107524417212698</v>
+        <v>3.8825253408531699</v>
       </c>
       <c r="C10">
-        <v>3.78388532961843</v>
+        <v>3.8267816076276699</v>
       </c>
       <c r="D10">
         <v>3.7512292668361198</v>
@@ -751,16 +760,16 @@
         <v>3.9423144031087962</v>
       </c>
       <c r="F10">
-        <v>0.91783111034169496</v>
+        <v>0.72298600002341096</v>
       </c>
       <c r="G10">
-        <v>-8.6548924573946695E-2</v>
+        <v>-6.9941422817352397E-2</v>
       </c>
       <c r="H10">
         <v>3.9656903718199903E-2</v>
       </c>
       <c r="I10">
-        <v>0.57805892191220698</v>
+        <v>0.57951282465106901</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -768,10 +777,10 @@
         <v>23102</v>
       </c>
       <c r="B11">
-        <v>3.8924537408606001</v>
+        <v>3.8792372439081699</v>
       </c>
       <c r="C11">
-        <v>3.7800510432845198</v>
+        <v>3.82642093233703</v>
       </c>
       <c r="D11">
         <v>3.7471036722618001</v>
@@ -780,16 +789,16 @@
         <v>3.9172591913289359</v>
       </c>
       <c r="F11">
-        <v>1.14924151867444</v>
+        <v>0.90991588905239995</v>
       </c>
       <c r="G11">
-        <v>-8.6039058543743593E-2</v>
+        <v>-6.9876374887965303E-2</v>
       </c>
       <c r="H11">
         <v>3.96840639471936E-2</v>
       </c>
       <c r="I11">
-        <v>0.55787400481900895</v>
+        <v>0.55934069334418302</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -797,10 +806,10 @@
         <v>23193</v>
       </c>
       <c r="B12">
-        <v>4.14982684308817</v>
+        <v>4.16589398674917</v>
       </c>
       <c r="C12">
-        <v>3.7690030747184999</v>
+        <v>3.8132327671412898</v>
       </c>
       <c r="D12">
         <v>3.7375968243539499</v>
@@ -809,16 +818,16 @@
         <v>4.1784819088086804</v>
       </c>
       <c r="F12">
-        <v>1.6035487188337401</v>
+        <v>1.34424757098623</v>
       </c>
       <c r="G12">
-        <v>-9.4535565960820994E-2</v>
+        <v>-8.03686621774721E-2</v>
       </c>
       <c r="H12">
         <v>3.9697075264022399E-2</v>
       </c>
       <c r="I12">
-        <v>0.53772468600031897</v>
+        <v>0.53927523968961999</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -826,10 +835,10 @@
         <v>23285</v>
       </c>
       <c r="B13">
-        <v>4.01625169877315</v>
+        <v>4.0547046038769698</v>
       </c>
       <c r="C13">
-        <v>3.7609340124461399</v>
+        <v>3.8039869126942101</v>
       </c>
       <c r="D13">
         <v>3.7303337679369899</v>
@@ -838,16 +847,16 @@
         <v>4.0236936219021597</v>
       </c>
       <c r="F13">
-        <v>1.99372647973121</v>
+        <v>1.64331881563953</v>
       </c>
       <c r="G13">
-        <v>-8.9512686075654005E-2</v>
+        <v>-7.5794594518102401E-2</v>
       </c>
       <c r="H13">
         <v>3.9880689680378799E-2</v>
       </c>
       <c r="I13">
-        <v>0.54350460290352698</v>
+        <v>0.54833918455957098</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -855,10 +864,10 @@
         <v>23377</v>
       </c>
       <c r="B14">
-        <v>4.1438406082415096</v>
+        <v>4.1884334208432197</v>
       </c>
       <c r="C14">
-        <v>3.7488911158365199</v>
+        <v>3.7887322600181301</v>
       </c>
       <c r="D14">
         <v>3.7199606041948199</v>
@@ -867,16 +876,16 @@
         <v>4.1634875102150799</v>
       </c>
       <c r="F14">
-        <v>2.40776926505885</v>
+        <v>2.0382752974912801</v>
       </c>
       <c r="G14">
-        <v>-9.3927822637042996E-2</v>
+        <v>-8.07994884165147E-2</v>
       </c>
       <c r="H14">
         <v>3.9804988468630897E-2</v>
       </c>
       <c r="I14">
-        <v>0.52542300249225704</v>
+        <v>0.52949464021668802</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -884,10 +893,10 @@
         <v>23468</v>
       </c>
       <c r="B15">
-        <v>4.0970020676777397</v>
+        <v>4.1570956668361401</v>
       </c>
       <c r="C15">
-        <v>3.7379161981542399</v>
+        <v>3.7746712218160798</v>
       </c>
       <c r="D15">
         <v>3.7103386107384302</v>
@@ -896,16 +905,16 @@
         <v>4.1337332105597202</v>
       </c>
       <c r="F15">
-        <v>2.4966350261642001</v>
+        <v>2.1056150995334502</v>
       </c>
       <c r="G15">
-        <v>-9.1679090410117695E-2</v>
+        <v>-7.8876657844300493E-2</v>
       </c>
       <c r="H15">
         <v>3.9475776211299503E-2</v>
       </c>
       <c r="I15">
-        <v>0.55048282413777905</v>
+        <v>0.55541164693308698</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -913,10 +922,10 @@
         <v>23559</v>
       </c>
       <c r="B16">
-        <v>4.1464219607992296</v>
+        <v>4.2188956646035196</v>
       </c>
       <c r="C16">
-        <v>3.7252847063840799</v>
+        <v>3.7577704211172001</v>
       </c>
       <c r="D16">
         <v>3.6994235252127901</v>
@@ -925,16 +934,16 @@
         <v>4.1958055151652403</v>
       </c>
       <c r="F16">
-        <v>2.6780233937574902</v>
+        <v>2.2710344029570702</v>
       </c>
       <c r="G16">
-        <v>-9.3683442442279802E-2</v>
+        <v>-8.1357778628152799E-2</v>
       </c>
       <c r="H16">
         <v>3.92773391320742E-2</v>
       </c>
       <c r="I16">
-        <v>0.54670052187087403</v>
+        <v>0.55013767701086902</v>
       </c>
       <c r="L16" s="1"/>
     </row>
@@ -943,10 +952,10 @@
         <v>23651</v>
       </c>
       <c r="B17">
-        <v>3.92372291555131</v>
+        <v>3.9955497567873</v>
       </c>
       <c r="C17">
-        <v>3.7187460191247301</v>
+        <v>3.7500559424119801</v>
       </c>
       <c r="D17">
         <v>3.6929948927460199</v>
@@ -955,16 +964,16 @@
         <v>3.981435275820568</v>
       </c>
       <c r="F17">
-        <v>2.6831252535179102</v>
+        <v>2.2033633941482602</v>
       </c>
       <c r="G17">
-        <v>-8.4370566009850295E-2</v>
+        <v>-7.1326380396672301E-2</v>
       </c>
       <c r="H17">
         <v>3.9044937638487702E-2</v>
       </c>
       <c r="I17">
-        <v>0.54440139192639003</v>
+        <v>0.54670572187136801</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -972,10 +981,10 @@
         <v>23743</v>
       </c>
       <c r="B18">
-        <v>4.0850400383842898</v>
+        <v>4.1835513526286903</v>
       </c>
       <c r="C18">
-        <v>3.7066678679193501</v>
+        <v>3.7332860627700502</v>
       </c>
       <c r="D18">
         <v>3.6821716902133499</v>
@@ -984,16 +993,16 @@
         <v>4.1435412870560402</v>
       </c>
       <c r="F18">
-        <v>3.1267897539595402</v>
+        <v>2.56912236372693</v>
       </c>
       <c r="G18">
-        <v>-8.9256868356186597E-2</v>
+        <v>-7.7427355836866801E-2</v>
       </c>
       <c r="H18">
         <v>3.91572243973883E-2</v>
       </c>
       <c r="I18">
-        <v>0.53212870930700296</v>
+        <v>0.53665551265917599</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1001,10 +1010,10 @@
         <v>23833</v>
       </c>
       <c r="B19">
-        <v>4.0778636131422603</v>
+        <v>4.1808710025306199</v>
       </c>
       <c r="C19">
-        <v>3.69489980266719</v>
+        <v>3.7160451386698798</v>
       </c>
       <c r="D19">
         <v>3.6713406133110298</v>
@@ -1013,16 +1022,16 @@
         <v>4.1448829327069596</v>
       </c>
       <c r="F19">
-        <v>3.31562086878853</v>
+        <v>2.7445431756696101</v>
       </c>
       <c r="G19">
-        <v>-8.9164524589473201E-2</v>
+        <v>-7.7415093384534603E-2</v>
       </c>
       <c r="H19">
         <v>3.90079117217315E-2</v>
       </c>
       <c r="I19">
-        <v>0.51958849367794202</v>
+        <v>0.52315587188748902</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1030,10 +1039,10 @@
         <v>23924</v>
       </c>
       <c r="B20">
-        <v>4.1885617990789301</v>
+        <v>4.2966893527109198</v>
       </c>
       <c r="C20">
-        <v>3.6784915957992101</v>
+        <v>3.6934666074221498</v>
       </c>
       <c r="D20">
         <v>3.65683849502182</v>
@@ -1042,16 +1051,16 @@
         <v>4.26642177392824</v>
       </c>
       <c r="F20">
-        <v>3.76088842752154</v>
+        <v>3.1916261751589401</v>
       </c>
       <c r="G20">
-        <v>-9.2147518343662693E-2</v>
+        <v>-8.0381758474280099E-2</v>
       </c>
       <c r="H20">
         <v>3.8906912559505999E-2</v>
       </c>
       <c r="I20">
-        <v>0.504827957480945</v>
+        <v>0.50776447194603902</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1059,10 +1068,10 @@
         <v>24016</v>
       </c>
       <c r="B21">
-        <v>4.2962132051536104</v>
+        <v>4.4022836271984698</v>
       </c>
       <c r="C21">
-        <v>3.6577182529077699</v>
+        <v>3.66560519856225</v>
       </c>
       <c r="D21">
         <v>3.6388893659815702</v>
@@ -1071,16 +1080,16 @@
         <v>4.3780585766290399</v>
       </c>
       <c r="F21">
-        <v>4.22225590297501</v>
+        <v>3.6996123372900902</v>
       </c>
       <c r="G21">
-        <v>-9.5224306687676397E-2</v>
+        <v>-8.3583821475453804E-2</v>
       </c>
       <c r="H21">
         <v>3.8855155381478601E-2</v>
       </c>
       <c r="I21">
-        <v>0.48997242422188098</v>
+        <v>0.49305849452735701</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1088,10 +1097,10 @@
         <v>24108</v>
       </c>
       <c r="B22">
-        <v>4.4170797843738097</v>
+        <v>4.5204049769639996</v>
       </c>
       <c r="C22">
-        <v>3.6328041036545198</v>
+        <v>3.6320751330237502</v>
       </c>
       <c r="D22">
         <v>3.6177270186993602</v>
@@ -1100,16 +1109,16 @@
         <v>4.4762535007984798</v>
       </c>
       <c r="F22">
-        <v>5.0348066298938701</v>
+        <v>4.5152851415514297</v>
       </c>
       <c r="G22">
-        <v>-9.9172489247921394E-2</v>
+        <v>-8.7925503748946504E-2</v>
       </c>
       <c r="H22">
         <v>3.9233360120331601E-2</v>
       </c>
       <c r="I22">
-        <v>0.50865848011009696</v>
+        <v>0.51845922363008501</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1117,10 +1126,10 @@
         <v>24198</v>
       </c>
       <c r="B23">
-        <v>4.2919604830027698</v>
+        <v>4.38684959227513</v>
       </c>
       <c r="C23">
-        <v>3.6109547598289402</v>
+        <v>3.60238513551207</v>
       </c>
       <c r="D23">
         <v>3.5988343483929501</v>
@@ -1129,16 +1138,16 @@
         <v>4.2988981841385598</v>
       </c>
       <c r="F23">
-        <v>5.8545567214403</v>
+        <v>5.2414528771163296</v>
       </c>
       <c r="G23">
-        <v>-9.4891651226760895E-2</v>
+        <v>-8.3600353012277306E-2</v>
       </c>
       <c r="H23">
         <v>4.0449754319989303E-2</v>
       </c>
       <c r="I23">
-        <v>0.75978135642652</v>
+        <v>0.79895660553127701</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1146,10 +1155,10 @@
         <v>24289</v>
       </c>
       <c r="B24">
-        <v>4.2866051437810899</v>
+        <v>4.3763210357350601</v>
       </c>
       <c r="C24">
-        <v>3.5886223905483701</v>
+        <v>3.5721189231614399</v>
       </c>
       <c r="D24">
         <v>3.5795823284191601</v>
@@ -1158,16 +1167,16 @@
         <v>4.2820750374378003</v>
       </c>
       <c r="F24">
-        <v>5.7966764474335797</v>
+        <v>5.1724829061232596</v>
       </c>
       <c r="G24">
-        <v>-9.4746505811233103E-2</v>
+        <v>-8.3334122231487104E-2</v>
       </c>
       <c r="H24">
         <v>4.0637075046256903E-2</v>
       </c>
       <c r="I24">
-        <v>0.72583205776673898</v>
+        <v>0.75499125067065898</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1175,10 +1184,10 @@
         <v>24381</v>
       </c>
       <c r="B25">
-        <v>4.2816520829800799</v>
+        <v>4.36142754091646</v>
       </c>
       <c r="C25">
-        <v>3.5655872006728102</v>
+        <v>3.5410784016219199</v>
       </c>
       <c r="D25">
         <v>3.5597926764037999</v>
@@ -1187,16 +1196,16 @@
         <v>4.2673126419361997</v>
       </c>
       <c r="F25">
-        <v>5.6916334835900697</v>
+        <v>5.0767072727151099</v>
       </c>
       <c r="G25">
-        <v>-9.44955523805628E-2</v>
+        <v>-8.2783634999524E-2</v>
       </c>
       <c r="H25">
         <v>4.0792947968521599E-2</v>
       </c>
       <c r="I25">
-        <v>0.69093318133353199</v>
+        <v>0.71300424007087304</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1204,10 +1213,10 @@
         <v>24473</v>
       </c>
       <c r="B26">
-        <v>4.2762904579204699</v>
+        <v>4.3534830312668502</v>
       </c>
       <c r="C26">
-        <v>3.5416042215819101</v>
+        <v>3.5087661345950698</v>
       </c>
       <c r="D26">
         <v>3.5392884496314401</v>
@@ -1216,16 +1225,16 @@
         <v>4.2948480732714804</v>
       </c>
       <c r="F26">
-        <v>5.0648239157625303</v>
+        <v>4.4976907448931298</v>
       </c>
       <c r="G26">
-        <v>-9.4419336286535496E-2</v>
+        <v>-8.2267892229137801E-2</v>
       </c>
       <c r="H26">
         <v>4.0223488867603997E-2</v>
       </c>
       <c r="I26">
-        <v>0.80770381351465403</v>
+        <v>0.82649058070252202</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1233,10 +1242,10 @@
         <v>24563</v>
       </c>
       <c r="B27">
-        <v>4.0882268564072897</v>
+        <v>4.1158056843795396</v>
       </c>
       <c r="C27">
-        <v>3.5228363408490799</v>
+        <v>3.4852645358625698</v>
       </c>
       <c r="D27">
         <v>3.5226265526394398</v>
@@ -1245,16 +1254,16 @@
         <v>4.1183794697008</v>
       </c>
       <c r="F27">
-        <v>4.9267345949548398</v>
+        <v>4.3828671499777601</v>
       </c>
       <c r="G27">
-        <v>-8.4947893784506998E-2</v>
+        <v>-7.1145628267977906E-2</v>
       </c>
       <c r="H27">
         <v>4.0165154962069897E-2</v>
       </c>
       <c r="I27">
-        <v>0.75225641563975498</v>
+        <v>0.76200270168829398</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1262,10 +1271,10 @@
         <v>24654</v>
       </c>
       <c r="B28">
-        <v>4.1132066884243601</v>
+        <v>4.1401178132059</v>
       </c>
       <c r="C28">
-        <v>3.5026236523980501</v>
+        <v>3.4597888894635198</v>
       </c>
       <c r="D28">
         <v>3.5048448441184998</v>
@@ -1274,16 +1283,16 @@
         <v>4.1268348431410002</v>
       </c>
       <c r="F28">
-        <v>4.8823330510170999</v>
+        <v>4.3431378691317404</v>
       </c>
       <c r="G28">
-        <v>-8.6253433911899699E-2</v>
+        <v>-7.2379510913186298E-2</v>
       </c>
       <c r="H28">
         <v>4.0365423878773302E-2</v>
       </c>
       <c r="I28">
-        <v>0.733200641838751</v>
+        <v>0.74217663242208198</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1291,10 +1300,10 @@
         <v>24746</v>
       </c>
       <c r="B29">
-        <v>4.0779277608128099</v>
+        <v>4.0953474815836701</v>
       </c>
       <c r="C29">
-        <v>3.4827830742226502</v>
+        <v>3.43565437588006</v>
       </c>
       <c r="D29">
         <v>3.4872646788662198</v>
@@ -1303,16 +1312,16 @@
         <v>4.0764041755641198</v>
       </c>
       <c r="F29">
-        <v>5.0135732524394099</v>
+        <v>4.4544058156339998</v>
       </c>
       <c r="G29">
-        <v>-8.2888873033186899E-2</v>
+        <v>-6.9040040432471805E-2</v>
       </c>
       <c r="H29">
         <v>4.05532872386506E-2</v>
       </c>
       <c r="I29">
-        <v>0.71142019664672296</v>
+        <v>0.718343846791617</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1320,10 +1329,10 @@
         <v>24838</v>
       </c>
       <c r="B30">
-        <v>4.2631796819116703</v>
+        <v>4.32728995871891</v>
       </c>
       <c r="C30">
-        <v>3.4546958740786202</v>
+        <v>3.3980840900762002</v>
       </c>
       <c r="D30">
         <v>3.4634611860191198</v>
@@ -1332,16 +1341,16 @@
         <v>4.2375450891130404</v>
       </c>
       <c r="F30">
-        <v>5.2681507365865601</v>
+        <v>4.6817606619008503</v>
       </c>
       <c r="G30">
-        <v>-9.7958648673664106E-2</v>
+        <v>-8.6140896982560403E-2</v>
       </c>
       <c r="H30">
         <v>4.0822271095020103E-2</v>
       </c>
       <c r="I30">
-        <v>0.72259677813529399</v>
+        <v>0.73114990864368301</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1349,10 +1358,10 @@
         <v>24929</v>
       </c>
       <c r="B31">
-        <v>4.2954633472914496</v>
+        <v>4.3670449884321396</v>
       </c>
       <c r="C31">
-        <v>3.42480397914589</v>
+        <v>3.3574754724288698</v>
       </c>
       <c r="D31">
         <v>3.4382367944588901</v>
@@ -1361,16 +1370,16 @@
         <v>4.2612738194404001</v>
       </c>
       <c r="F31">
-        <v>5.7591617401516304</v>
+        <v>5.1310285508438902</v>
       </c>
       <c r="G31">
-        <v>-0.101015135850464</v>
+        <v>-8.99785888654724E-2</v>
       </c>
       <c r="H31">
         <v>4.0930565618132297E-2</v>
       </c>
       <c r="I31">
-        <v>0.68517874640190501</v>
+        <v>0.69023977765276201</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1378,10 +1387,10 @@
         <v>25020</v>
       </c>
       <c r="B32">
-        <v>4.2023517666008097</v>
+        <v>4.2676875946654196</v>
       </c>
       <c r="C32">
-        <v>3.3973187116952102</v>
+        <v>3.3196427773919899</v>
       </c>
       <c r="D32">
         <v>3.4148560167192898</v>
@@ -1390,16 +1399,16 @@
         <v>4.1805092185905197</v>
       </c>
       <c r="F32">
-        <v>5.9016243269805999</v>
+        <v>5.1973661769808404</v>
       </c>
       <c r="G32">
-        <v>-9.2680013684469001E-2</v>
+        <v>-8.1384720811074604E-2</v>
       </c>
       <c r="H32">
         <v>4.0825743113149897E-2</v>
       </c>
       <c r="I32">
-        <v>0.65023429904546504</v>
+        <v>0.65178564740964695</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1407,10 +1416,10 @@
         <v>25112</v>
       </c>
       <c r="B33">
-        <v>4.1017427650930598</v>
+        <v>4.1492344505932897</v>
       </c>
       <c r="C33">
-        <v>3.3724956625911999</v>
+        <v>3.2858035379891501</v>
       </c>
       <c r="D33">
         <v>3.3935341437112698</v>
@@ -1419,16 +1428,16 @@
         <v>4.08337915161444</v>
       </c>
       <c r="F33">
-        <v>5.8354819663140898</v>
+        <v>5.08303452353812</v>
       </c>
       <c r="G33">
-        <v>-8.5723646309486395E-2</v>
+        <v>-7.3655118728117794E-2</v>
       </c>
       <c r="H33">
         <v>4.0809763741119602E-2</v>
       </c>
       <c r="I33">
-        <v>0.61580675759577796</v>
+        <v>0.61535548430369202</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1436,10 +1445,10 @@
         <v>25204</v>
       </c>
       <c r="B34">
-        <v>4.1788123127717496</v>
+        <v>4.2566791043300496</v>
       </c>
       <c r="C34">
-        <v>3.3433439217774299</v>
+        <v>3.2445971393021198</v>
       </c>
       <c r="D34">
         <v>3.3690154011124198</v>
@@ -1448,16 +1457,16 @@
         <v>4.1765134367563999</v>
       </c>
       <c r="F34">
-        <v>5.6053001133064999</v>
+        <v>4.8405726483359803</v>
       </c>
       <c r="G34">
-        <v>-9.2020744290199394E-2</v>
+        <v>-8.1112612997193995E-2</v>
       </c>
       <c r="H34">
         <v>4.0565091853868099E-2</v>
       </c>
       <c r="I34">
-        <v>0.61023234682551197</v>
+        <v>0.60796670041410505</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1465,10 +1474,10 @@
         <v>25294</v>
       </c>
       <c r="B35">
-        <v>4.0724751063012601</v>
+        <v>4.11666922273705</v>
       </c>
       <c r="C35">
-        <v>3.31765963110831</v>
+        <v>3.20874406483482</v>
       </c>
       <c r="D35">
         <v>3.3471635921687501</v>
@@ -1477,16 +1486,16 @@
         <v>4.07010784171504</v>
       </c>
       <c r="F35">
-        <v>5.5756046669737298</v>
+        <v>4.8316280774492997</v>
       </c>
       <c r="G35">
-        <v>-8.4438668270658407E-2</v>
+        <v>-7.1958274604708203E-2</v>
       </c>
       <c r="H35">
         <v>4.0601152931549901E-2</v>
       </c>
       <c r="I35">
-        <v>0.58179736131013005</v>
+        <v>0.57952945314275695</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1494,10 +1503,10 @@
         <v>25385</v>
       </c>
       <c r="B36">
-        <v>4.0562277427408304</v>
+        <v>4.0965790069176702</v>
       </c>
       <c r="C36">
-        <v>3.2917155290673401</v>
+        <v>3.1724479509750698</v>
       </c>
       <c r="D36">
         <v>3.3252299710166899</v>
@@ -1506,16 +1515,16 @@
         <v>4.0666520589361603</v>
       </c>
       <c r="F36">
-        <v>5.1378172191539297</v>
+        <v>4.4243839975024501</v>
       </c>
       <c r="G36">
-        <v>-8.4276466169211903E-2</v>
+        <v>-7.1650632110627804E-2</v>
       </c>
       <c r="H36">
         <v>4.0437299972004598E-2</v>
       </c>
       <c r="I36">
-        <v>0.56700017872844599</v>
+        <v>0.56391949155886201</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1523,10 +1532,10 @@
         <v>25477</v>
       </c>
       <c r="B37">
-        <v>3.8982675933515898</v>
+        <v>3.8841438079257702</v>
       </c>
       <c r="C37">
-        <v>3.27157746643211</v>
+        <v>3.1455438035182199</v>
       </c>
       <c r="D37">
         <v>3.30773382792218</v>
@@ -1535,16 +1544,16 @@
         <v>3.915618489368256</v>
       </c>
       <c r="F37">
-        <v>4.5181095371983702</v>
+        <v>3.84912372130611</v>
       </c>
       <c r="G37">
-        <v>-8.7082687912309401E-2</v>
+        <v>-7.4691469649071293E-2</v>
       </c>
       <c r="H37">
         <v>4.0372649181884102E-2</v>
       </c>
       <c r="I37">
-        <v>0.54541595705177404</v>
+        <v>0.54218194654275897</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1552,10 +1561,10 @@
         <v>25569</v>
       </c>
       <c r="B38">
-        <v>3.8448502032183498</v>
+        <v>3.8240086255969401</v>
       </c>
       <c r="C38">
-        <v>3.2525228864950702</v>
+        <v>3.1205877050951498</v>
       </c>
       <c r="D38">
         <v>3.29110109934367</v>
@@ -1564,16 +1573,16 @@
         <v>3.8892838211411802</v>
       </c>
       <c r="F38">
-        <v>3.4680438425699598</v>
+        <v>2.8647368613960702</v>
       </c>
       <c r="G38">
-        <v>-8.8433587880479295E-2</v>
+        <v>-7.6216427445651894E-2</v>
       </c>
       <c r="H38">
         <v>4.0144178753061997E-2</v>
       </c>
       <c r="I38">
-        <v>0.55395032066115601</v>
+        <v>0.55118043075021395</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -1581,10 +1590,10 @@
         <v>25659</v>
       </c>
       <c r="B39">
-        <v>3.8244749434849901</v>
+        <v>3.7876860020938699</v>
       </c>
       <c r="C39">
-        <v>3.23353472205606</v>
+        <v>3.0965656737584699</v>
       </c>
       <c r="D39">
         <v>3.27454129884245</v>
@@ -1593,16 +1602,16 @@
         <v>3.8744175136947039</v>
       </c>
       <c r="F39">
-        <v>2.7028458742088302</v>
+        <v>2.1995214060250401</v>
       </c>
       <c r="G39">
-        <v>-8.8889829001753906E-2</v>
+        <v>-7.7031160064696902E-2</v>
       </c>
       <c r="H39">
         <v>4.01020571092216E-2</v>
       </c>
       <c r="I39">
-        <v>0.53380332057317204</v>
+        <v>0.53102229782579402</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -1610,10 +1619,10 @@
         <v>25750</v>
       </c>
       <c r="B40">
-        <v>3.8903245470247398</v>
+        <v>3.8483958367850701</v>
       </c>
       <c r="C40">
-        <v>3.2113070963691102</v>
+        <v>3.0684244976242501</v>
       </c>
       <c r="D40">
         <v>3.2556188018358498</v>
@@ -1622,16 +1631,16 @@
         <v>3.946724344411864</v>
       </c>
       <c r="F40">
-        <v>2.1460334794154501</v>
+        <v>1.7705749418416901</v>
       </c>
       <c r="G40">
-        <v>-8.8059884502684593E-2</v>
+        <v>-7.6284247710202202E-2</v>
       </c>
       <c r="H40">
         <v>4.0037837295723501E-2</v>
       </c>
       <c r="I40">
-        <v>0.52017543655605802</v>
+        <v>0.51770898528600195</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -1639,10 +1648,10 @@
         <v>25842</v>
       </c>
       <c r="B41">
-        <v>3.6424455760250298</v>
+        <v>3.49825735786954</v>
       </c>
       <c r="C41">
-        <v>3.20014169970479</v>
+        <v>3.0579816180183199</v>
       </c>
       <c r="D41">
         <v>3.2449855240532601</v>
@@ -1651,16 +1660,16 @@
         <v>3.6557295779716319</v>
       </c>
       <c r="F41">
-        <v>2.27382285655312</v>
+        <v>1.9457532208158499</v>
       </c>
       <c r="G41">
-        <v>-8.1688129006862398E-2</v>
+        <v>-7.0486735446623303E-2</v>
       </c>
       <c r="H41">
         <v>4.0371756936773598E-2</v>
       </c>
       <c r="I41">
-        <v>0.64822416002855598</v>
+        <v>0.66600028050652404</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -1668,10 +1677,10 @@
         <v>25934</v>
       </c>
       <c r="B42">
-        <v>3.6862413055885899</v>
+        <v>3.5479805236478401</v>
       </c>
       <c r="C42">
-        <v>3.1866859073682998</v>
+        <v>3.04478331671945</v>
       </c>
       <c r="D42">
         <v>3.2324239615996402</v>
@@ -1680,16 +1689,16 @@
         <v>3.711825083913824</v>
       </c>
       <c r="F42">
-        <v>2.9722874266617501</v>
+        <v>2.1974049068193202</v>
       </c>
       <c r="G42">
-        <v>-8.4373751667952093E-2</v>
+        <v>-7.2687182735610201E-2</v>
       </c>
       <c r="H42">
         <v>4.0338404993010502E-2</v>
       </c>
       <c r="I42">
-        <v>0.61737361584699302</v>
+        <v>0.630794110444445</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -1697,10 +1706,10 @@
         <v>26024</v>
       </c>
       <c r="B43">
-        <v>3.6472929898235402</v>
+        <v>3.5200750096234499</v>
       </c>
       <c r="C43">
-        <v>3.174027640417</v>
+        <v>3.0323734213639999</v>
       </c>
       <c r="D43">
         <v>3.2205514427829298</v>
@@ -1709,16 +1718,16 @@
         <v>3.695374179804384</v>
       </c>
       <c r="F43">
-        <v>2.61171778919595</v>
+        <v>2.0864261076258099</v>
       </c>
       <c r="G43">
-        <v>-8.1282350437998502E-2</v>
+        <v>-7.1194149800070605E-2</v>
       </c>
       <c r="H43">
         <v>4.0226195933245001E-2</v>
       </c>
       <c r="I43">
-        <v>0.61694784797304103</v>
+        <v>0.62582471143944096</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -1726,10 +1735,10 @@
         <v>26115</v>
       </c>
       <c r="B44">
-        <v>3.6073085129516298</v>
+        <v>3.4852308591237602</v>
       </c>
       <c r="C44">
-        <v>3.1619581472566201</v>
+        <v>3.0205502647970799</v>
       </c>
       <c r="D44">
         <v>3.2092122599367801</v>
@@ -1738,16 +1747,16 @@
         <v>3.6995682352130399</v>
       </c>
       <c r="F44">
-        <v>2.1002147677328402</v>
+        <v>1.6329581060284699</v>
       </c>
       <c r="G44">
-        <v>-7.9190327119494405E-2</v>
+        <v>-6.9772261341016897E-2</v>
       </c>
       <c r="H44">
         <v>4.0038437852588399E-2</v>
       </c>
       <c r="I44">
-        <v>0.71705703803563003</v>
+        <v>0.72559417515169999</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -1755,10 +1764,10 @@
         <v>26207</v>
       </c>
       <c r="B45">
-        <v>3.4973787162263799</v>
+        <v>3.38899767012466</v>
       </c>
       <c r="C45">
-        <v>3.1528695541335101</v>
+        <v>3.0117870968908198</v>
       </c>
       <c r="D45">
         <v>3.2001345235936598</v>
@@ -1767,16 +1776,16 @@
         <v>3.6550717067172318</v>
       </c>
       <c r="F45">
-        <v>1.11724470224067</v>
+        <v>0.60351179763711105</v>
       </c>
       <c r="G45">
-        <v>-7.2467635421186505E-2</v>
+        <v>-6.5080248291633294E-2</v>
       </c>
       <c r="H45">
         <v>3.9834848184443702E-2</v>
       </c>
       <c r="I45">
-        <v>1.14944238501405</v>
+        <v>1.1708161647372901</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -1784,10 +1793,10 @@
         <v>26299</v>
       </c>
       <c r="B46">
-        <v>3.5812038689382102</v>
+        <v>3.4809558711707602</v>
       </c>
       <c r="C46">
-        <v>3.14045087782854</v>
+        <v>2.99894122358941</v>
       </c>
       <c r="D46">
         <v>3.1885569108718199</v>
@@ -1796,16 +1805,16 @@
         <v>3.7252772529250282</v>
       </c>
       <c r="F46">
-        <v>1.48745031690498</v>
+        <v>1.0251893407145201</v>
       </c>
       <c r="G46">
-        <v>-7.7408279742533906E-2</v>
+        <v>-6.9429889715779902E-2</v>
       </c>
       <c r="H46">
         <v>3.98502639132561E-2</v>
       </c>
       <c r="I46">
-        <v>1.0535723346813599</v>
+        <v>1.0614174809744601</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -1813,10 +1822,10 @@
         <v>26390</v>
       </c>
       <c r="B47">
-        <v>3.65999810951925</v>
+        <v>3.5853011633876899</v>
       </c>
       <c r="C47">
-        <v>3.1244412095127299</v>
+        <v>2.9810600806698102</v>
       </c>
       <c r="D47">
         <v>3.1741407071598</v>
@@ -1825,16 +1834,16 @@
         <v>3.8184485321232762</v>
       </c>
       <c r="F47">
-        <v>1.8976364811944699</v>
+        <v>1.3595844561569901</v>
       </c>
       <c r="G47">
-        <v>-8.4627164148989506E-2</v>
+        <v>-7.6856268724129401E-2</v>
       </c>
       <c r="H47">
         <v>3.9812554309181E-2</v>
       </c>
       <c r="I47">
-        <v>1.01848786754693</v>
+        <v>1.0161018341322701</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -1842,10 +1851,10 @@
         <v>26481</v>
       </c>
       <c r="B48">
-        <v>3.5918127919632701</v>
+        <v>3.52496520481355</v>
       </c>
       <c r="C48">
-        <v>3.1105892316659598</v>
+        <v>2.96496982787761</v>
       </c>
       <c r="D48">
         <v>3.1612337120583498</v>
@@ -1854,16 +1863,16 @@
         <v>3.7557585378868201</v>
       </c>
       <c r="F48">
-        <v>2.4065922049330801</v>
+        <v>1.8104515461155899</v>
       </c>
       <c r="G48">
-        <v>-7.8729567146062801E-2</v>
+        <v>-7.2455668776399001E-2</v>
       </c>
       <c r="H48">
         <v>3.9811324489725498E-2</v>
       </c>
       <c r="I48">
-        <v>0.92461089935207397</v>
+        <v>0.91290695667674604</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -1871,10 +1880,10 @@
         <v>26573</v>
       </c>
       <c r="B49">
-        <v>3.6412017859045198</v>
+        <v>3.5993750502383599</v>
       </c>
       <c r="C49">
-        <v>3.0941638116922698</v>
+        <v>2.9448420914809001</v>
       </c>
       <c r="D49">
         <v>3.1463307369461502</v>
@@ -1883,16 +1892,16 @@
         <v>3.8101113540443081</v>
       </c>
       <c r="F49">
-        <v>2.5880878359858999</v>
+        <v>1.9423635111725199</v>
       </c>
       <c r="G49">
-        <v>-8.1629007566348E-2</v>
+        <v>-7.5893157878141104E-2</v>
       </c>
       <c r="H49">
         <v>3.9763867653441198E-2</v>
       </c>
       <c r="I49">
-        <v>0.86623940685985701</v>
+        <v>0.84914566901892596</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -1900,10 +1909,10 @@
         <v>26665</v>
       </c>
       <c r="B50">
-        <v>3.8045821432668299</v>
+        <v>3.8142152295312299</v>
       </c>
       <c r="C50">
-        <v>3.0708385589144198</v>
+        <v>2.9145100901152801</v>
       </c>
       <c r="D50">
         <v>3.1261943540935899</v>
@@ -1912,16 +1921,16 @@
         <v>3.9620691359387439</v>
       </c>
       <c r="F50">
-        <v>2.92547471398154</v>
+        <v>2.2544356054065702</v>
       </c>
       <c r="G50">
-        <v>-8.9158619581571702E-2</v>
+        <v>-8.4692468916797201E-2</v>
       </c>
       <c r="H50">
         <v>3.9754354541398397E-2</v>
       </c>
       <c r="I50">
-        <v>0.79881471581172803</v>
+        <v>0.77849533171746099</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -1929,10 +1938,10 @@
         <v>26755</v>
       </c>
       <c r="B51">
-        <v>3.8134765239812398</v>
+        <v>3.82333158394388</v>
       </c>
       <c r="C51">
-        <v>3.0480215458878099</v>
+        <v>2.8845833719286098</v>
       </c>
       <c r="D51">
         <v>3.1064823578727099</v>
@@ -1941,16 +1950,16 @@
         <v>3.9047648949889919</v>
       </c>
       <c r="F51">
-        <v>4.1031845133788902</v>
+        <v>3.5137512110334201</v>
       </c>
       <c r="G51">
-        <v>-8.8577732152449601E-2</v>
+        <v>-8.4164447632774905E-2</v>
       </c>
       <c r="H51">
         <v>4.0197683357015998E-2</v>
       </c>
       <c r="I51">
-        <v>1.4174524223476299</v>
+        <v>1.52850087769502</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -1958,10 +1967,10 @@
         <v>26846</v>
       </c>
       <c r="B52">
-        <v>3.6359830002525801</v>
+        <v>3.60954161511552</v>
       </c>
       <c r="C52">
-        <v>3.0309210243677001</v>
+        <v>2.8621652300022999</v>
       </c>
       <c r="D52">
         <v>3.0912122470249699</v>
@@ -1970,16 +1979,16 @@
         <v>3.7399854775779522</v>
       </c>
       <c r="F52">
-        <v>3.9279319525389802</v>
+        <v>3.25405678657728</v>
       </c>
       <c r="G52">
-        <v>-9.2903657826414701E-2</v>
+        <v>-8.8948235178997401E-2</v>
       </c>
       <c r="H52">
         <v>4.0248653801225498E-2</v>
       </c>
       <c r="I52">
-        <v>1.2677630653601699</v>
+        <v>1.33180209528398</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -1987,10 +1996,10 @@
         <v>26938</v>
       </c>
       <c r="B53">
-        <v>3.7030501672895602</v>
+        <v>3.6839834166086098</v>
       </c>
       <c r="C53">
-        <v>3.0116165728894999</v>
+        <v>2.8367088223119299</v>
       </c>
       <c r="D53">
         <v>3.0743789760750202</v>
@@ -1999,16 +2008,16 @@
         <v>3.7869516407801802</v>
       </c>
       <c r="F53">
-        <v>3.39935127797207</v>
+        <v>2.8340231605733401</v>
       </c>
       <c r="G53">
-        <v>-8.7660950242185495E-2</v>
+        <v>-8.3118243629035901E-2</v>
       </c>
       <c r="H53">
         <v>4.0311556606257501E-2</v>
       </c>
       <c r="I53">
-        <v>1.1571814797994799</v>
+        <v>1.1916311615017099</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2016,10 +2025,10 @@
         <v>27030</v>
       </c>
       <c r="B54">
-        <v>3.5963668147932801</v>
+        <v>3.5405758389483002</v>
       </c>
       <c r="C54">
-        <v>2.99582311554984</v>
+        <v>2.8167511980023101</v>
       </c>
       <c r="D54">
         <v>3.0603127743390499</v>
@@ -2028,16 +2037,16 @@
         <v>3.6718210065280239</v>
       </c>
       <c r="F54">
-        <v>2.7876751994748501</v>
+        <v>2.2752039959898398</v>
       </c>
       <c r="G54">
-        <v>-9.8953303606240897E-2</v>
+        <v>-9.7970419824212104E-2</v>
       </c>
       <c r="H54">
         <v>4.0452344770014602E-2</v>
       </c>
       <c r="I54">
-        <v>1.16402735109177</v>
+        <v>1.18429360574473</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2045,10 +2054,10 @@
         <v>27120</v>
       </c>
       <c r="B55">
-        <v>3.6458189330391102</v>
+        <v>3.5749019564904199</v>
       </c>
       <c r="C55">
-        <v>2.9795118423148099</v>
+        <v>2.7967764159241399</v>
       </c>
       <c r="D55">
         <v>3.0459888845266399</v>
@@ -2057,16 +2066,16 @@
         <v>3.6676476305727479</v>
       </c>
       <c r="F55">
-        <v>2.5233182843856001</v>
+        <v>2.15324510225184</v>
       </c>
       <c r="G55">
-        <v>-9.7745489161523896E-2</v>
+        <v>-9.72375677519524E-2</v>
       </c>
       <c r="H55">
         <v>4.06898274772945E-2</v>
       </c>
       <c r="I55">
-        <v>1.8509519168334501</v>
+        <v>1.9091393551556799</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2074,10 +2083,10 @@
         <v>27211</v>
       </c>
       <c r="B56">
-        <v>3.49111791638739</v>
+        <v>3.3696880279911001</v>
       </c>
       <c r="C56">
-        <v>2.96831806914129</v>
+        <v>2.7843892158299601</v>
       </c>
       <c r="D56">
         <v>3.0356268226665302</v>
@@ -2086,16 +2095,16 @@
         <v>3.520737209035516</v>
       </c>
       <c r="F56">
-        <v>1.8459873049818001</v>
+        <v>1.5454148855791301</v>
       </c>
       <c r="G56">
-        <v>-0.104760842917686</v>
+        <v>-0.107375727593107</v>
       </c>
       <c r="H56">
         <v>4.07645670040723E-2</v>
       </c>
       <c r="I56">
-        <v>1.8583627667312601</v>
+        <v>1.8703987488920599</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2103,10 +2112,10 @@
         <v>27303</v>
       </c>
       <c r="B57">
-        <v>3.4510318995589202</v>
+        <v>3.3108682780266898</v>
       </c>
       <c r="C57">
-        <v>2.9587351470778902</v>
+        <v>2.7750949877374</v>
       </c>
       <c r="D57">
         <v>3.0266509910637001</v>
@@ -2115,16 +2124,16 @@
         <v>3.484899720572912</v>
       </c>
       <c r="F57">
-        <v>0.87245774042401103</v>
+        <v>0.69442469140381002</v>
       </c>
       <c r="G57">
-        <v>-0.107304177150116</v>
+        <v>-0.111654648072089</v>
       </c>
       <c r="H57">
         <v>4.0766042353253602E-2</v>
       </c>
       <c r="I57">
-        <v>1.5955988084663</v>
+        <v>1.57119035175538</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2132,10 +2141,10 @@
         <v>27395</v>
       </c>
       <c r="B58">
-        <v>3.2245187531784301</v>
+        <v>3.0290297005826998</v>
       </c>
       <c r="C58">
-        <v>2.95610099111473</v>
+        <v>2.7754583280490301</v>
       </c>
       <c r="D58">
         <v>3.02290626450195</v>
@@ -2144,16 +2153,16 @@
         <v>3.3122377546755359</v>
       </c>
       <c r="F58">
-        <v>-9.2530812781774302E-2</v>
+        <v>-0.24017588777189799</v>
       </c>
       <c r="G58">
-        <v>-0.100008491832378</v>
+        <v>-0.104289499957777</v>
       </c>
       <c r="H58">
         <v>4.0731646084122101E-2</v>
       </c>
       <c r="I58">
-        <v>1.5202875357984</v>
+        <v>1.4873010422027999</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2161,10 +2170,10 @@
         <v>27485</v>
       </c>
       <c r="B59">
-        <v>3.2160296254203899</v>
+        <v>3.0127125240036201</v>
       </c>
       <c r="C59">
-        <v>2.9531159351613501</v>
+        <v>2.7757832465868102</v>
       </c>
       <c r="D59">
         <v>3.0189206760007301</v>
@@ -2173,16 +2182,16 @@
         <v>3.3255206933091039</v>
       </c>
       <c r="F59">
-        <v>-0.54112973345979798</v>
+        <v>-0.59043646804661898</v>
       </c>
       <c r="G59">
-        <v>-0.101482725357564</v>
+        <v>-0.104273972762951</v>
       </c>
       <c r="H59">
         <v>4.0732289035939999E-2</v>
       </c>
       <c r="I59">
-        <v>1.6266531572831</v>
+        <v>1.6012631104953301</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2190,10 +2199,10 @@
         <v>27576</v>
       </c>
       <c r="B60">
-        <v>3.24359456341069</v>
+        <v>3.0430026690229099</v>
       </c>
       <c r="C60">
-        <v>2.9490738785056498</v>
+        <v>2.7749339297456599</v>
       </c>
       <c r="D60">
         <v>3.01411988034838</v>
@@ -2202,16 +2211,16 @@
         <v>3.3592607086475601</v>
       </c>
       <c r="F60">
-        <v>-2.0999873589516899E-2</v>
+        <v>-9.5510972691954504E-3</v>
       </c>
       <c r="G60">
-        <v>-0.110125349916669</v>
+        <v>-0.11423937453454799</v>
       </c>
       <c r="H60">
         <v>4.0746494142740702E-2</v>
       </c>
       <c r="I60">
-        <v>1.49157925014119</v>
+        <v>1.4481293830816699</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2219,10 +2228,10 @@
         <v>27668</v>
       </c>
       <c r="B61">
-        <v>3.17597659367412</v>
+        <v>2.9805796447439898</v>
       </c>
       <c r="C61">
-        <v>2.9470730211356102</v>
+        <v>2.77615397291606</v>
       </c>
       <c r="D61">
         <v>3.0108067496654898</v>
@@ -2231,16 +2240,16 @@
         <v>3.3057805353324641</v>
       </c>
       <c r="F61">
-        <v>0.84411560544151598</v>
+        <v>0.80651512582028295</v>
       </c>
       <c r="G61">
-        <v>-9.6638705155330906E-2</v>
+        <v>-9.9835691165541807E-2</v>
       </c>
       <c r="H61">
         <v>4.0749255562879901E-2</v>
       </c>
       <c r="I61">
-        <v>1.3083460243324101</v>
+        <v>1.25224758798651</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2248,10 +2257,10 @@
         <v>27760</v>
       </c>
       <c r="B62">
-        <v>3.26739771723547</v>
+        <v>3.12189617957138</v>
       </c>
       <c r="C62">
-        <v>2.9423212765393201</v>
+        <v>2.7727913755311202</v>
       </c>
       <c r="D62">
         <v>3.00550572809744</v>
@@ -2260,16 +2269,16 @@
         <v>3.3868854057572721</v>
       </c>
       <c r="F62">
-        <v>1.61636371558404</v>
+        <v>1.51941115281613</v>
       </c>
       <c r="G62">
-        <v>-0.11074379386238099</v>
+        <v>-0.125612031747349</v>
       </c>
       <c r="H62">
         <v>4.0742364248292397E-2</v>
       </c>
       <c r="I62">
-        <v>1.17238045797539</v>
+        <v>1.1125602383601501</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2277,10 +2286,10 @@
         <v>27851</v>
       </c>
       <c r="B63">
-        <v>3.0684820342357102</v>
+        <v>2.8916628130937698</v>
       </c>
       <c r="C63">
-        <v>2.9440834634031199</v>
+        <v>2.7780025481517199</v>
       </c>
       <c r="D63">
         <v>3.00512571485483</v>
@@ -2289,16 +2298,16 @@
         <v>3.2417156922002239</v>
       </c>
       <c r="F63">
-        <v>2.3113058561494899</v>
+        <v>2.06160211391534</v>
       </c>
       <c r="G63">
-        <v>-8.3725152578924295E-2</v>
+        <v>-8.5360703552676803E-2</v>
       </c>
       <c r="H63">
         <v>4.0656817191781998E-2</v>
       </c>
       <c r="I63">
-        <v>1.15327407047807</v>
+        <v>1.10603155085979</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2306,10 +2315,10 @@
         <v>27942</v>
       </c>
       <c r="B64">
-        <v>3.0082883618828</v>
+        <v>2.8152608239077201</v>
       </c>
       <c r="C64">
-        <v>2.9487169612718098</v>
+        <v>2.7875573888096099</v>
       </c>
       <c r="D64">
         <v>3.0070111161764701</v>
@@ -2318,16 +2327,16 @@
         <v>3.1686961953488</v>
       </c>
       <c r="F64">
-        <v>2.8048630680738098</v>
+        <v>2.5876395989533898</v>
       </c>
       <c r="G64">
-        <v>-7.6551321925648105E-2</v>
+        <v>-7.5469643895907296E-2</v>
       </c>
       <c r="H64">
         <v>4.0720663081081597E-2</v>
       </c>
       <c r="I64">
-        <v>1.06589003668439</v>
+        <v>1.0211256695455999</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -2335,10 +2344,10 @@
         <v>28034</v>
       </c>
       <c r="B65">
-        <v>2.98281420802742</v>
+        <v>2.7865457805320899</v>
       </c>
       <c r="C65">
-        <v>2.9547113050927898</v>
+        <v>2.79908998595165</v>
       </c>
       <c r="D65">
         <v>3.0099678725603098</v>
@@ -2347,16 +2356,16 @@
         <v>3.1382349377459402</v>
       </c>
       <c r="F65">
-        <v>3.0090187726609701</v>
+        <v>2.8016693323889998</v>
       </c>
       <c r="G65">
-        <v>-7.4185796967905504E-2</v>
+        <v>-7.2711069610315801E-2</v>
       </c>
       <c r="H65">
         <v>4.0730018275446797E-2</v>
       </c>
       <c r="I65">
-        <v>0.96415210456741296</v>
+        <v>0.91755863876802302</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -2364,10 +2373,10 @@
         <v>28126</v>
       </c>
       <c r="B66">
-        <v>3.0162023778059601</v>
+        <v>2.8429047811464598</v>
       </c>
       <c r="C66">
-        <v>2.9599024180561302</v>
+        <v>2.80906246428688</v>
       </c>
       <c r="D66">
         <v>3.0123470702586901</v>
@@ -2376,16 +2385,16 @@
         <v>3.1547923965885358</v>
       </c>
       <c r="F66">
-        <v>3.3738106277561402</v>
+        <v>3.1677370587909799</v>
       </c>
       <c r="G66">
-        <v>-7.6264505509609296E-2</v>
+        <v>-7.6775715864473806E-2</v>
       </c>
       <c r="H66">
         <v>4.0802497849030298E-2</v>
       </c>
       <c r="I66">
-        <v>0.89710952387375098</v>
+        <v>0.85343483886492</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -2393,10 +2402,10 @@
         <v>28216</v>
       </c>
       <c r="B67">
-        <v>3.1172424441451199</v>
+        <v>3.00212765862877</v>
       </c>
       <c r="C67">
-        <v>2.9605694155687301</v>
+        <v>2.8111252163241698</v>
       </c>
       <c r="D67">
         <v>3.0113444287599398</v>
@@ -2405,16 +2414,16 @@
         <v>3.2637309971766282</v>
       </c>
       <c r="F67">
-        <v>3.6361983706991601</v>
+        <v>3.3655318872056301</v>
       </c>
       <c r="G67">
-        <v>-8.8288980213955204E-2</v>
+        <v>-9.9059770924910695E-2</v>
       </c>
       <c r="H67">
         <v>4.0736488826463503E-2</v>
       </c>
       <c r="I67">
-        <v>0.83302361832391303</v>
+        <v>0.79191883857091505</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -2422,10 +2431,10 @@
         <v>28307</v>
       </c>
       <c r="B68">
-        <v>3.1692506388303801</v>
+        <v>3.0834248504722601</v>
       </c>
       <c r="C68">
-        <v>2.95983504577609</v>
+        <v>2.8114094561888301</v>
       </c>
       <c r="D68">
         <v>3.00918501465212</v>
@@ -2434,16 +2443,16 @@
         <v>3.3049555503982959</v>
       </c>
       <c r="F68">
-        <v>4.3774406698044004</v>
+        <v>4.1046283222337898</v>
       </c>
       <c r="G68">
-        <v>-9.4347421175326407E-2</v>
+        <v>-0.112650323167247</v>
       </c>
       <c r="H68">
         <v>4.07880942582073E-2</v>
       </c>
       <c r="I68">
-        <v>0.775004086203403</v>
+        <v>0.73688594551810005</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -2451,10 +2460,10 @@
         <v>28399</v>
       </c>
       <c r="B69">
-        <v>2.9155371808139598</v>
+        <v>2.7335975829721999</v>
       </c>
       <c r="C69">
-        <v>2.9683141172963201</v>
+        <v>2.8258841795507199</v>
       </c>
       <c r="D69">
         <v>3.0137852192269001</v>
@@ -2463,16 +2472,16 @@
         <v>3.1164841516122199</v>
       </c>
       <c r="F69">
-        <v>4.62522162576977</v>
+        <v>4.1828010133494899</v>
       </c>
       <c r="G69">
-        <v>-7.0595466901766102E-2</v>
+        <v>-6.8815668204598807E-2</v>
       </c>
       <c r="H69">
         <v>4.0474824082545199E-2</v>
       </c>
       <c r="I69">
-        <v>0.788525279584669</v>
+        <v>0.76169209673865901</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -2480,10 +2489,10 @@
         <v>28491</v>
       </c>
       <c r="B70">
-        <v>2.8866689161244801</v>
+        <v>2.7025674721918702</v>
       </c>
       <c r="C70">
-        <v>2.9779108806182299</v>
+        <v>2.8419955365093799</v>
       </c>
       <c r="D70">
         <v>3.0193672922064301</v>
@@ -2492,16 +2501,16 @@
         <v>3.086512498371532</v>
       </c>
       <c r="F70">
-        <v>4.5564847655115299</v>
+        <v>4.08045059335348</v>
       </c>
       <c r="G70">
-        <v>-6.8966773836904999E-2</v>
+        <v>-6.6942116451649797E-2</v>
       </c>
       <c r="H70">
         <v>4.0460166802506303E-2</v>
       </c>
       <c r="I70">
-        <v>0.73349699984503702</v>
+        <v>0.70679502112833104</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -2509,10 +2518,10 @@
         <v>28581</v>
       </c>
       <c r="B71">
-        <v>3.1456421964107002</v>
+        <v>3.0266663882440401</v>
       </c>
       <c r="C71">
-        <v>2.9770223437895602</v>
+        <v>2.8422992642004399</v>
       </c>
       <c r="D71">
         <v>3.0168056444831501</v>
@@ -2521,16 +2530,16 @@
         <v>3.3305292132630919</v>
       </c>
       <c r="F71">
-        <v>5.5285111347520797</v>
+        <v>5.1618532942168303</v>
       </c>
       <c r="G71">
-        <v>-8.0718585085049296E-2</v>
+        <v>-8.2741088484611397E-2</v>
       </c>
       <c r="H71">
         <v>4.06105722107995E-2</v>
       </c>
       <c r="I71">
-        <v>0.70620626097814898</v>
+        <v>0.684528256208083</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -2538,10 +2547,10 @@
         <v>28672</v>
       </c>
       <c r="B72">
-        <v>3.1409522039920699</v>
+        <v>3.02381901153238</v>
       </c>
       <c r="C72">
-        <v>2.9763046239603299</v>
+        <v>2.8427977724147202</v>
       </c>
       <c r="D72">
         <v>3.0144808456522401</v>
@@ -2550,16 +2559,16 @@
         <v>3.327964112533492</v>
       </c>
       <c r="F72">
-        <v>6.0669090834780901</v>
+        <v>5.6739506831576101</v>
       </c>
       <c r="G72">
-        <v>-8.0646441425773693E-2</v>
+        <v>-8.2852695916766902E-2</v>
       </c>
       <c r="H72">
         <v>4.0590405895867203E-2</v>
       </c>
       <c r="I72">
-        <v>0.66380601469359801</v>
+        <v>0.642984298522426</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -2567,10 +2576,10 @@
         <v>28764</v>
       </c>
       <c r="B73">
-        <v>3.1604410138231298</v>
+        <v>3.0454577689873199</v>
       </c>
       <c r="C73">
-        <v>2.9751818362433</v>
+        <v>2.8429374862446699</v>
       </c>
       <c r="D73">
         <v>3.01200748590953</v>
@@ -2579,16 +2588,16 @@
         <v>3.3306964530530561</v>
       </c>
       <c r="F73">
-        <v>6.6462899874315999</v>
+        <v>6.21399594952209</v>
       </c>
       <c r="G73">
-        <v>-8.0960285879077803E-2</v>
+        <v>-8.32740092240912E-2</v>
       </c>
       <c r="H73">
         <v>4.0744309312910301E-2</v>
       </c>
       <c r="I73">
-        <v>0.63546321180198895</v>
+        <v>0.61734937389043498</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -2596,10 +2605,10 @@
         <v>28856</v>
       </c>
       <c r="B74">
-        <v>3.0613810551674701</v>
+        <v>2.9430703550580901</v>
       </c>
       <c r="C74">
-        <v>2.9749932439369702</v>
+        <v>2.8438085843681198</v>
       </c>
       <c r="D74">
         <v>3.0102841471002</v>
@@ -2608,16 +2617,16 @@
         <v>3.325940839539276</v>
       </c>
       <c r="F74">
-        <v>4.8818984291870002</v>
+        <v>4.1071470155426404</v>
       </c>
       <c r="G74">
-        <v>-8.0842726783911995E-2</v>
+        <v>-8.3394352319968598E-2</v>
       </c>
       <c r="H74">
         <v>3.9849213394284697E-2</v>
       </c>
       <c r="I74">
-        <v>0.98265342933351996</v>
+        <v>1.0163149896494801</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -2625,10 +2634,10 @@
         <v>28946</v>
       </c>
       <c r="B75">
-        <v>3.0766365327437102</v>
+        <v>2.96352784041922</v>
       </c>
       <c r="C75">
-        <v>2.97549966709974</v>
+        <v>2.8453420538827001</v>
       </c>
       <c r="D75">
         <v>3.00913166227267</v>
@@ -2637,16 +2646,16 @@
         <v>3.2881665180277801</v>
       </c>
       <c r="F75">
-        <v>5.1742518080656099</v>
+        <v>4.5515309101336898</v>
       </c>
       <c r="G75">
-        <v>-8.1225688032216997E-2</v>
+        <v>-8.3903759804151198E-2</v>
       </c>
       <c r="H75">
         <v>4.0263832319168497E-2</v>
       </c>
       <c r="I75">
-        <v>1.3510102771374899</v>
+        <v>1.4052582465143599</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -2654,10 +2663,10 @@
         <v>29037</v>
       </c>
       <c r="B76">
-        <v>3.1243790092659198</v>
+        <v>3.00089302308775</v>
       </c>
       <c r="C76">
-        <v>2.97424396526907</v>
+        <v>2.8453417824899598</v>
       </c>
       <c r="D76">
         <v>3.0067353535621701</v>
@@ -2666,16 +2675,16 @@
         <v>3.3334383326569479</v>
       </c>
       <c r="F76">
-        <v>4.56241544002535</v>
+        <v>4.0188165630118</v>
       </c>
       <c r="G76">
-        <v>-7.9945348093719698E-2</v>
+        <v>-8.2549527361488198E-2</v>
       </c>
       <c r="H76">
         <v>4.0196591764588098E-2</v>
       </c>
       <c r="I76">
-        <v>1.2193733999205101</v>
+        <v>1.24345042031737</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -2683,10 +2692,10 @@
         <v>29129</v>
       </c>
       <c r="B77">
-        <v>3.1169431892869901</v>
+        <v>2.9897239512570901</v>
       </c>
       <c r="C77">
-        <v>2.9737078172587998</v>
+        <v>2.8464422341942899</v>
       </c>
       <c r="D77">
         <v>3.0048779986691598</v>
@@ -2695,16 +2704,16 @@
         <v>3.3132739837232119</v>
       </c>
       <c r="F77">
-        <v>4.3236122536846997</v>
+        <v>3.8617048920472099</v>
       </c>
       <c r="G77">
-        <v>-8.0283719506409904E-2</v>
+        <v>-8.3131831596772399E-2</v>
       </c>
       <c r="H77">
         <v>4.0291883598760202E-2</v>
       </c>
       <c r="I77">
-        <v>1.12700546838914</v>
+        <v>1.1341451162993801</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -2712,10 +2721,10 @@
         <v>29221</v>
       </c>
       <c r="B78">
-        <v>3.1640194654713398</v>
+        <v>3.0348684873046601</v>
       </c>
       <c r="C78">
-        <v>2.9726888998550201</v>
+        <v>2.8474437443307501</v>
       </c>
       <c r="D78">
         <v>3.0027085479589899</v>
@@ -2724,16 +2733,16 @@
         <v>3.3237880057312599</v>
       </c>
       <c r="F78">
-        <v>4.0429644364580799</v>
+        <v>3.7541745109661</v>
       </c>
       <c r="G78">
-        <v>-7.8317366061609203E-2</v>
+        <v>-8.0940204171657301E-2</v>
       </c>
       <c r="H78">
         <v>4.0485062360466499E-2</v>
       </c>
       <c r="I78">
-        <v>1.1658125783597499</v>
+        <v>1.1693471340164501</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -2741,10 +2750,10 @@
         <v>29312</v>
       </c>
       <c r="B79">
-        <v>2.8094500154903801</v>
+        <v>2.61729956811658</v>
       </c>
       <c r="C79">
-        <v>2.9852273240091098</v>
+        <v>2.8666457109079801</v>
       </c>
       <c r="D79">
         <v>3.0106426815623402</v>
@@ -2753,16 +2762,16 @@
         <v>3.0112990482351121</v>
       </c>
       <c r="F79">
-        <v>3.69740744344108</v>
+        <v>3.3435037138327699</v>
       </c>
       <c r="G79">
-        <v>-0.12988776388913001</v>
+        <v>-0.16398487650969701</v>
       </c>
       <c r="H79">
         <v>4.0428557531471801E-2</v>
       </c>
       <c r="I79">
-        <v>1.0547352109935999</v>
+        <v>1.0450571315165</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -2770,10 +2779,10 @@
         <v>29403</v>
       </c>
       <c r="B80">
-        <v>2.8263794497828099</v>
+        <v>2.6564864917493298</v>
       </c>
       <c r="C80">
-        <v>2.9967873153883402</v>
+        <v>2.8840347326881699</v>
       </c>
       <c r="D80">
         <v>3.0178459536933899</v>
@@ -2782,16 +2791,16 @@
         <v>3.024132587032248</v>
       </c>
       <c r="F80">
-        <v>2.5643049854264701</v>
+        <v>2.0082088186306901</v>
       </c>
       <c r="G80">
-        <v>-0.126539749863738</v>
+        <v>-0.15157083030571999</v>
       </c>
       <c r="H80">
         <v>4.0422056193245397E-2</v>
       </c>
       <c r="I80">
-        <v>0.95483112556003402</v>
+        <v>0.93645911488943501</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -2799,10 +2808,10 @@
         <v>29495</v>
       </c>
       <c r="B81">
-        <v>2.9563753170457199</v>
+        <v>2.8360579920394899</v>
       </c>
       <c r="C81">
-        <v>3.00447935854283</v>
+        <v>2.8964865313827399</v>
       </c>
       <c r="D81">
         <v>3.0220636228650002</v>
@@ -2811,16 +2820,16 @@
         <v>3.102210389680768</v>
       </c>
       <c r="F81">
-        <v>2.84565552906929</v>
+        <v>2.3133473483275102</v>
       </c>
       <c r="G81">
-        <v>-0.123465056165571</v>
+        <v>-0.14464824492561401</v>
       </c>
       <c r="H81">
         <v>4.04942460590276E-2</v>
       </c>
       <c r="I81">
-        <v>0.904442860742106</v>
+        <v>0.88787515906384296</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -2828,10 +2837,10 @@
         <v>29587</v>
       </c>
       <c r="B82">
-        <v>3.0510785433130501</v>
+        <v>2.9381430411090199</v>
       </c>
       <c r="C82">
-        <v>3.0099326308173202</v>
+        <v>2.9059772186639301</v>
       </c>
       <c r="D82">
         <v>3.02445683321021</v>
@@ -2840,16 +2849,16 @@
         <v>3.1906394077346039</v>
       </c>
       <c r="F82">
-        <v>2.3018564493521598</v>
+        <v>1.9593560119184299</v>
       </c>
       <c r="G82">
-        <v>-0.11490684593552999</v>
+        <v>-0.13017217222640401</v>
       </c>
       <c r="H82">
         <v>4.04033571084704E-2</v>
       </c>
       <c r="I82">
-        <v>0.87250786225207</v>
+        <v>0.85424247680439003</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -2857,10 +2866,10 @@
         <v>29677</v>
       </c>
       <c r="B83">
-        <v>2.9578262595357199</v>
+        <v>2.83090852917165</v>
       </c>
       <c r="C83">
-        <v>3.0162413353028201</v>
+        <v>2.9163301824974299</v>
       </c>
       <c r="D83">
         <v>3.0277386727759898</v>
@@ -2869,16 +2878,16 @@
         <v>3.1535854123334639</v>
       </c>
       <c r="F83">
-        <v>0.81719616252485106</v>
+        <v>0.25642324914542802</v>
       </c>
       <c r="G83">
-        <v>-0.125558464838849</v>
+        <v>-0.14841474135219901</v>
       </c>
       <c r="H83">
         <v>4.02570449993171E-2</v>
       </c>
       <c r="I83">
-        <v>0.97372564863072797</v>
+        <v>0.96634379240228296</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -2886,10 +2895,10 @@
         <v>29768</v>
       </c>
       <c r="B84">
-        <v>3.1828922157280899</v>
+        <v>3.0767631992043798</v>
       </c>
       <c r="C84">
-        <v>3.0179901494894401</v>
+        <v>2.9199370628872598</v>
       </c>
       <c r="D84">
         <v>3.0277236941151799</v>
@@ -2898,16 +2907,16 @@
         <v>3.3243270786749681</v>
       </c>
       <c r="F84">
-        <v>-0.75126744513090704</v>
+        <v>-1.11075480489478</v>
       </c>
       <c r="G84">
-        <v>-8.1244450416079694E-2</v>
+        <v>-7.3736755074759006E-2</v>
       </c>
       <c r="H84">
         <v>4.02460397617131E-2</v>
       </c>
       <c r="I84">
-        <v>0.93406179941710998</v>
+        <v>0.91955700921212202</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -2915,10 +2924,10 @@
         <v>29860</v>
       </c>
       <c r="B85">
-        <v>3.1089685119124701</v>
+        <v>3.00337848468748</v>
       </c>
       <c r="C85">
-        <v>3.02197781288154</v>
+        <v>2.92626362248085</v>
       </c>
       <c r="D85">
         <v>3.0295186438725699</v>
@@ -2927,16 +2936,16 @@
         <v>3.2771374466044598</v>
       </c>
       <c r="F85">
-        <v>-2.13271426439292</v>
+        <v>-2.4293431149501399</v>
       </c>
       <c r="G85">
-        <v>-8.9599511500988493E-2</v>
+        <v>-8.2679062829839001E-2</v>
       </c>
       <c r="H85">
         <v>4.0263558698614199E-2</v>
       </c>
       <c r="I85">
-        <v>0.88706333615620503</v>
+        <v>0.86745275183229797</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -2944,10 +2953,10 @@
         <v>29952</v>
       </c>
       <c r="B86">
-        <v>2.9573212758562999</v>
+        <v>2.8407320128016198</v>
       </c>
       <c r="C86">
-        <v>3.02910262357475</v>
+        <v>2.9369070639621402</v>
       </c>
       <c r="D86">
         <v>3.0337877607578898</v>
@@ -2956,16 +2965,16 @@
         <v>3.18541914268142</v>
       </c>
       <c r="F86">
-        <v>-4.0643700877850497</v>
+        <v>-4.3473146548639097</v>
       </c>
       <c r="G86">
-        <v>-0.105447673383506</v>
+        <v>-0.10163224810700699</v>
       </c>
       <c r="H86">
         <v>4.0416457493298898E-2</v>
       </c>
       <c r="I86">
-        <v>0.97714069805415205</v>
+        <v>0.96550292945940897</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -2973,10 +2982,10 @@
         <v>30042</v>
       </c>
       <c r="B87">
-        <v>3.0227632679318601</v>
+        <v>2.8707502445728101</v>
       </c>
       <c r="C87">
-        <v>3.0339787449425901</v>
+        <v>2.9464348934375999</v>
       </c>
       <c r="D87">
         <v>3.03634323690819</v>
@@ -2985,16 +2994,16 @@
         <v>3.2607146475420881</v>
       </c>
       <c r="F87">
-        <v>-5.4182888446256401</v>
+        <v>-5.5632392359588003</v>
       </c>
       <c r="G87">
-        <v>-9.3269141675595302E-2</v>
+        <v>-9.2703920073648999E-2</v>
       </c>
       <c r="H87">
         <v>4.0559750841283999E-2</v>
       </c>
       <c r="I87">
-        <v>0.93399535938773903</v>
+        <v>0.91616935959142898</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -3002,10 +3011,10 @@
         <v>30133</v>
       </c>
       <c r="B88">
-        <v>3.0093086134752198</v>
+        <v>2.84255441688543</v>
       </c>
       <c r="C88">
-        <v>3.0399490615980298</v>
+        <v>2.9581275898759198</v>
       </c>
       <c r="D88">
         <v>3.03962833223436</v>
@@ -3014,16 +3023,16 @@
         <v>3.2321404868680559</v>
       </c>
       <c r="F88">
-        <v>-6.1208779979476704</v>
+        <v>-6.0625926029025603</v>
       </c>
       <c r="G88">
-        <v>-9.8141195048303598E-2</v>
+        <v>-0.101778103790723</v>
       </c>
       <c r="H88">
         <v>4.0397531993454597E-2</v>
       </c>
       <c r="I88">
-        <v>0.88472051245580197</v>
+        <v>0.86820839674194095</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -3031,10 +3040,10 @@
         <v>30225</v>
       </c>
       <c r="B89">
-        <v>2.9972389262323902</v>
+        <v>2.8152365458560298</v>
       </c>
       <c r="C89">
-        <v>3.0456548452716499</v>
+        <v>2.97022703723878</v>
       </c>
       <c r="D89">
         <v>3.0425677198984902</v>
@@ -3043,16 +3052,16 @@
         <v>3.2357700886073282</v>
       </c>
       <c r="F89">
-        <v>-7.0663672247516196</v>
+        <v>-6.9442572641970601</v>
       </c>
       <c r="G89">
-        <v>-9.7691416231360295E-2</v>
+        <v>-0.103215528898283</v>
       </c>
       <c r="H89">
         <v>4.0530050756970797E-2</v>
       </c>
       <c r="I89">
-        <v>0.82662505065388003</v>
+        <v>0.80765879961721199</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -3060,10 +3069,10 @@
         <v>30317</v>
       </c>
       <c r="B90">
-        <v>3.1278681525000498</v>
+        <v>2.9644029403239198</v>
       </c>
       <c r="C90">
-        <v>3.0465968446057001</v>
+        <v>2.9766506136422</v>
       </c>
       <c r="D90">
         <v>3.0417631073797899</v>
@@ -3072,16 +3081,16 @@
         <v>3.3511798725040278</v>
       </c>
       <c r="F90">
-        <v>-7.4468840491707597</v>
+        <v>-7.2355109162866702</v>
       </c>
       <c r="G90">
-        <v>-9.0699205121897095E-2</v>
+        <v>-9.2250950998822995E-2</v>
       </c>
       <c r="H90">
         <v>4.0587531840206102E-2</v>
       </c>
       <c r="I90">
-        <v>0.76675768845806003</v>
+        <v>0.74599943484300402</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -3089,10 +3098,10 @@
         <v>30407</v>
       </c>
       <c r="B91">
-        <v>3.1899402707906201</v>
+        <v>3.06211978426099</v>
       </c>
       <c r="C91">
-        <v>3.0418993588497298</v>
+        <v>2.9748454703959402</v>
       </c>
       <c r="D91">
         <v>3.0365419867912302</v>
@@ -3101,16 +3110,16 @@
         <v>3.4913295817835439</v>
       </c>
       <c r="F91">
-        <v>-8.0828479140525396</v>
+        <v>-8.1490868476630602</v>
       </c>
       <c r="G91">
-        <v>-8.7660065691842398E-2</v>
+        <v>-8.6451849970015898E-2</v>
       </c>
       <c r="H91">
         <v>4.1639993751988999E-2</v>
       </c>
       <c r="I91">
-        <v>1.12128823443908</v>
+        <v>1.14949348992722</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -3118,10 +3127,10 @@
         <v>30498</v>
       </c>
       <c r="B92">
-        <v>3.2785563367660902</v>
+        <v>3.1826701829981499</v>
       </c>
       <c r="C92">
-        <v>3.0355816226188601</v>
+        <v>2.9697651310756199</v>
       </c>
       <c r="D92">
         <v>3.0299346830905498</v>
@@ -3130,16 +3139,16 @@
         <v>3.5261779965764002</v>
       </c>
       <c r="F92">
-        <v>-6.7972090418633098</v>
+        <v>-6.90405135037315</v>
       </c>
       <c r="G92">
-        <v>-8.6904819401089101E-2</v>
+        <v>-8.4787313714908302E-2</v>
       </c>
       <c r="H92">
         <v>4.1129396462225097E-2</v>
       </c>
       <c r="I92">
-        <v>1.3291638290813299</v>
+        <v>1.3717541543121099</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -3147,10 +3156,10 @@
         <v>30590</v>
       </c>
       <c r="B93">
-        <v>3.3126735077570499</v>
+        <v>3.2490620990606298</v>
       </c>
       <c r="C93">
-        <v>3.0262759328844</v>
+        <v>2.9599765096408701</v>
       </c>
       <c r="D93">
         <v>3.02098357257419</v>
@@ -3159,16 +3168,16 @@
         <v>3.5859619740238959</v>
       </c>
       <c r="F93">
-        <v>-6.3957126033203604</v>
+        <v>-6.6472604800445696</v>
       </c>
       <c r="G93">
-        <v>-8.4262148193390604E-2</v>
+        <v>-8.0291165963935499E-2</v>
       </c>
       <c r="H93">
         <v>4.1396299225506798E-2</v>
       </c>
       <c r="I93">
-        <v>1.3587487914927401</v>
+        <v>1.3777796136907801</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -3176,10 +3185,10 @@
         <v>30682</v>
       </c>
       <c r="B94">
-        <v>3.3853133680160798</v>
+        <v>3.3459262518405</v>
       </c>
       <c r="C94">
-        <v>3.0139179202961</v>
+        <v>2.9456122626402199</v>
       </c>
       <c r="D94">
         <v>3.00967416378935</v>
@@ -3188,16 +3197,16 @@
         <v>3.645192554301504</v>
       </c>
       <c r="F94">
-        <v>-5.7548419692117303</v>
+        <v>-6.0582976104061599</v>
       </c>
       <c r="G94">
-        <v>-8.0714487006687499E-2</v>
+        <v>-7.5082754969758705E-2</v>
       </c>
       <c r="H94">
         <v>4.1338526296741201E-2</v>
       </c>
       <c r="I94">
-        <v>1.21113492211309</v>
+        <v>1.2095008763558299</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -3205,10 +3214,10 @@
         <v>30773</v>
       </c>
       <c r="B95">
-        <v>3.4538236294062798</v>
+        <v>3.4341450120363501</v>
       </c>
       <c r="C95">
-        <v>2.9988935457230501</v>
+        <v>2.9272569789438401</v>
       </c>
       <c r="D95">
         <v>2.9963281058906799</v>
@@ -3217,16 +3226,16 @@
         <v>3.6932136496612999</v>
       </c>
       <c r="F95">
-        <v>-5.1752399154065598</v>
+        <v>-5.4954111736547002</v>
       </c>
       <c r="G95">
-        <v>-7.7343511999166906E-2</v>
+        <v>-7.0452515471691998E-2</v>
       </c>
       <c r="H95">
         <v>4.1215129826901703E-2</v>
       </c>
       <c r="I95">
-        <v>1.1199888547521599</v>
+        <v>1.10944775847059</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -3234,10 +3243,10 @@
         <v>30864</v>
       </c>
       <c r="B96">
-        <v>3.4068489038971399</v>
+        <v>3.3826582334356798</v>
       </c>
       <c r="C96">
-        <v>2.98453266542416</v>
+        <v>2.9097140878628198</v>
       </c>
       <c r="D96">
         <v>2.9834270655499102</v>
@@ -3246,16 +3255,16 @@
         <v>3.6635442113885319</v>
       </c>
       <c r="F96">
-        <v>-5.0399287792794203</v>
+        <v>-5.4103079646489496</v>
       </c>
       <c r="G96">
-        <v>-7.9800320387684698E-2</v>
+        <v>-7.3123232985249198E-2</v>
       </c>
       <c r="H96">
         <v>4.1308847692834903E-2</v>
       </c>
       <c r="I96">
-        <v>1.02793646821145</v>
+        <v>1.0070982814451599</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -3263,10 +3272,10 @@
         <v>30956</v>
       </c>
       <c r="B97">
-        <v>3.3800145257639902</v>
+        <v>3.3448237053345502</v>
       </c>
       <c r="C97">
-        <v>2.9695822189294998</v>
+        <v>2.89171228320662</v>
       </c>
       <c r="D97">
         <v>2.9700559425754398</v>
@@ -3275,16 +3284,16 @@
         <v>3.6581221255006882</v>
       </c>
       <c r="F97">
-        <v>-5.2785147924220199</v>
+        <v>-5.6509709460729001</v>
       </c>
       <c r="G97">
-        <v>-8.0462524554321693E-2</v>
+        <v>-7.4621497739057893E-2</v>
       </c>
       <c r="H97">
         <v>4.1443286748202801E-2</v>
       </c>
       <c r="I97">
-        <v>0.96559523649047296</v>
+        <v>0.93915314938668404</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -3292,10 +3301,10 @@
         <v>31048</v>
       </c>
       <c r="B98">
-        <v>3.4859896622712601</v>
+        <v>3.4651352572305898</v>
       </c>
       <c r="C98">
-        <v>2.9519790972264199</v>
+        <v>2.87029347196798</v>
       </c>
       <c r="D98">
         <v>2.9546878642874099</v>
@@ -3304,16 +3313,16 @@
         <v>3.6898111021048678</v>
       </c>
       <c r="F98">
-        <v>-4.8776395711839804</v>
+        <v>-5.06394708172206</v>
       </c>
       <c r="G98">
-        <v>-7.6687664110009601E-2</v>
+        <v>-7.0543192304897903E-2</v>
       </c>
       <c r="H98">
         <v>4.0963939701170203E-2</v>
       </c>
       <c r="I98">
-        <v>1.2757964346060899</v>
+        <v>1.3203906190160299</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -3321,10 +3330,10 @@
         <v>31138</v>
       </c>
       <c r="B99">
-        <v>3.4610235050021601</v>
+        <v>3.422607113497</v>
       </c>
       <c r="C99">
-        <v>2.9334544470125201</v>
+        <v>2.84823757297811</v>
       </c>
       <c r="D99">
         <v>2.93855542158418</v>
@@ -3333,16 +3342,16 @@
         <v>3.6866149814987721</v>
       </c>
       <c r="F99">
-        <v>-5.0480278652000798</v>
+        <v>-5.1808970124644702</v>
       </c>
       <c r="G99">
-        <v>-7.6850461328637501E-2</v>
+        <v>-7.1414076529672604E-2</v>
       </c>
       <c r="H99">
         <v>4.1079696243823099E-2</v>
       </c>
       <c r="I99">
-        <v>1.1898605945237499</v>
+        <v>1.2095873760276299</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -3350,10 +3359,10 @@
         <v>31229</v>
       </c>
       <c r="B100">
-        <v>3.5719406161806502</v>
+        <v>3.57106104976635</v>
       </c>
       <c r="C100">
-        <v>2.90919127080172</v>
+        <v>2.8162894431751102</v>
       </c>
       <c r="D100">
         <v>2.9181989961741102</v>
@@ -3362,16 +3371,16 @@
         <v>3.7787418041815362</v>
       </c>
       <c r="F100">
-        <v>-4.9524900420818803</v>
+        <v>-5.0737139426139501</v>
       </c>
       <c r="G100">
-        <v>-7.3934836981304403E-2</v>
+        <v>-6.7019596947607701E-2</v>
       </c>
       <c r="H100">
         <v>4.0998657634003899E-2</v>
       </c>
       <c r="I100">
-        <v>1.0848569240611701</v>
+        <v>1.08860435186407</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -3379,10 +3388,10 @@
         <v>31321</v>
       </c>
       <c r="B101">
-        <v>3.4708235517267401</v>
+        <v>3.4242077000220199</v>
       </c>
       <c r="C101">
-        <v>2.8873414464473202</v>
+        <v>2.7890644300385898</v>
       </c>
       <c r="D101">
         <v>2.89955374372376</v>
@@ -3391,16 +3400,16 @@
         <v>3.707563374468636</v>
       </c>
       <c r="F101">
-        <v>-4.8277091014759899</v>
+        <v>-4.9094853138384504</v>
       </c>
       <c r="G101">
-        <v>-7.5689991206369406E-2</v>
+        <v>-6.9930776336932496E-2</v>
       </c>
       <c r="H101">
         <v>4.11364631671342E-2</v>
       </c>
       <c r="I101">
-        <v>1.02771963651394</v>
+        <v>1.0213493077162901</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -3408,10 +3417,10 @@
         <v>31413</v>
       </c>
       <c r="B102">
-        <v>3.4791055768341002</v>
+        <v>3.42827069174233</v>
       </c>
       <c r="C102">
-        <v>2.8654282408165601</v>
+        <v>2.7616974431863399</v>
       </c>
       <c r="D102">
         <v>2.8808656299967002</v>
@@ -3420,16 +3429,16 @@
         <v>3.6880338572693558</v>
       </c>
       <c r="F102">
-        <v>-4.4944955092411201</v>
+        <v>-4.5407383469610103</v>
       </c>
       <c r="G102">
-        <v>-7.6143615663611205E-2</v>
+        <v>-7.0631957628712203E-2</v>
       </c>
       <c r="H102">
         <v>4.0960421509822299E-2</v>
       </c>
       <c r="I102">
-        <v>1.00110549498003</v>
+        <v>0.99567868918166302</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -3437,10 +3446,10 @@
         <v>31503</v>
       </c>
       <c r="B103">
-        <v>3.3462829441658801</v>
+        <v>3.2398592352374198</v>
       </c>
       <c r="C103">
-        <v>2.8471767773066401</v>
+        <v>2.7414719532525198</v>
       </c>
       <c r="D103">
         <v>2.8648731006235799</v>
@@ -3449,16 +3458,16 @@
         <v>3.593388582447044</v>
       </c>
       <c r="F103">
-        <v>-4.58986112806826</v>
+        <v>-4.6160962881057204</v>
       </c>
       <c r="G103">
-        <v>-7.9449308020169099E-2</v>
+        <v>-7.6489722433420504E-2</v>
       </c>
       <c r="H103">
         <v>4.11280920908575E-2</v>
       </c>
       <c r="I103">
-        <v>0.97993222212185604</v>
+        <v>0.97204656026194003</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -3466,10 +3475,10 @@
         <v>31594</v>
       </c>
       <c r="B104">
-        <v>3.3431861703189001</v>
+        <v>3.2397660263362398</v>
       </c>
       <c r="C104">
-        <v>2.8280055900560201</v>
+        <v>2.71961054384801</v>
       </c>
       <c r="D104">
         <v>2.8482058843740998</v>
@@ -3478,16 +3487,16 @@
         <v>3.5958918111298241</v>
       </c>
       <c r="F104">
-        <v>-4.59982499342971</v>
+        <v>-4.6160493580729298</v>
       </c>
       <c r="G104">
-        <v>-7.9249027963995994E-2</v>
+        <v>-7.5966292759596696E-2</v>
       </c>
       <c r="H104">
         <v>4.11643932858533E-2</v>
       </c>
       <c r="I104">
-        <v>0.89521110630001499</v>
+        <v>0.879503466289698</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -3495,10 +3504,10 @@
         <v>31686</v>
       </c>
       <c r="B105">
-        <v>3.26681512285213</v>
+        <v>3.1256269642459</v>
       </c>
       <c r="C105">
-        <v>2.8121090562275</v>
+        <v>2.7041239881597101</v>
       </c>
       <c r="D105">
         <v>2.8339482095564401</v>
@@ -3507,16 +3516,16 @@
         <v>3.51131279490756</v>
       </c>
       <c r="F105">
-        <v>-4.3542880149254897</v>
+        <v>-4.3472379411266502</v>
       </c>
       <c r="G105">
-        <v>-7.9785569708887699E-2</v>
+        <v>-7.7358912233349494E-2</v>
       </c>
       <c r="H105">
         <v>4.1063805062390997E-2</v>
       </c>
       <c r="I105">
-        <v>0.83935136221304796</v>
+        <v>0.82233411759081898</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -3524,10 +3533,10 @@
         <v>31778</v>
       </c>
       <c r="B106">
-        <v>3.2014576681554701</v>
+        <v>3.0430626489818202</v>
       </c>
       <c r="C106">
-        <v>2.7973316186481298</v>
+        <v>2.6908591283962799</v>
       </c>
       <c r="D106">
         <v>2.82051244429426</v>
@@ -3536,16 +3545,16 @@
         <v>3.4720131495409601</v>
       </c>
       <c r="F106">
-        <v>-4.3982998492210799</v>
+        <v>-4.3986251662568101</v>
       </c>
       <c r="G106">
-        <v>-7.9776542011839702E-2</v>
+        <v>-7.7523352684867305E-2</v>
       </c>
       <c r="H106">
         <v>4.1186513283411198E-2</v>
       </c>
       <c r="I106">
-        <v>0.796945563246102</v>
+        <v>0.77879948721075998</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -3553,10 +3562,10 @@
         <v>31868</v>
       </c>
       <c r="B107">
-        <v>3.2749769663985102</v>
+        <v>3.1445602190322699</v>
       </c>
       <c r="C107">
-        <v>2.7811673685990002</v>
+        <v>2.67490007874328</v>
       </c>
       <c r="D107">
         <v>2.8060268900446599</v>
@@ -3565,16 +3574,16 @@
         <v>3.480587640445632</v>
       </c>
       <c r="F107">
-        <v>-3.8670620371714199</v>
+        <v>-3.8383334244965699</v>
       </c>
       <c r="G107">
-        <v>-7.9546847951797103E-2</v>
+        <v>-7.67652088286533E-2</v>
       </c>
       <c r="H107">
         <v>4.0843552612969902E-2</v>
       </c>
       <c r="I107">
-        <v>0.89972688600643402</v>
+        <v>0.90327503339630599</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -3582,10 +3591,10 @@
         <v>31959</v>
       </c>
       <c r="B108">
-        <v>3.2470463895891801</v>
+        <v>3.10961908618247</v>
       </c>
       <c r="C108">
-        <v>2.76552065945546</v>
+        <v>2.6600278406689202</v>
       </c>
       <c r="D108">
         <v>2.7918680962709099</v>
@@ -3594,16 +3603,16 @@
         <v>3.4477689663593121</v>
       </c>
       <c r="F108">
-        <v>-3.6447107566075401</v>
+        <v>-3.6242513344387799</v>
       </c>
       <c r="G108">
-        <v>-7.9971678651964903E-2</v>
+        <v>-7.7407501727650097E-2</v>
       </c>
       <c r="H108">
         <v>4.0804283870319299E-2</v>
       </c>
       <c r="I108">
-        <v>0.83057975889265601</v>
+        <v>0.82640296482699205</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -3611,10 +3620,10 @@
         <v>32051</v>
       </c>
       <c r="B109">
-        <v>3.4202044406454699</v>
+        <v>3.3801842029397902</v>
       </c>
       <c r="C109">
-        <v>2.7424930480582601</v>
+        <v>2.6289438951132702</v>
       </c>
       <c r="D109">
         <v>2.7722888868761202</v>
@@ -3623,16 +3632,16 @@
         <v>3.5690352449221558</v>
       </c>
       <c r="F109">
-        <v>-3.2609634770881302</v>
+        <v>-3.2747662544006699</v>
       </c>
       <c r="G109">
-        <v>-7.7448849660322505E-2</v>
+        <v>-7.1758352553454002E-2</v>
       </c>
       <c r="H109">
         <v>4.06453845852245E-2</v>
       </c>
       <c r="I109">
-        <v>0.81776053782454206</v>
+        <v>0.81382480242728195</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -3640,10 +3649,10 @@
         <v>32143</v>
       </c>
       <c r="B110">
-        <v>3.3280075177899202</v>
+        <v>3.2675490183698899</v>
       </c>
       <c r="C110">
-        <v>2.7232056810606098</v>
+        <v>2.6043053555747302</v>
       </c>
       <c r="D110">
         <v>2.7554943863314798</v>
@@ -3652,16 +3661,16 @@
         <v>3.477425921068412</v>
       </c>
       <c r="F110">
-        <v>-3.0036941345730401</v>
+        <v>-3.0468761022643802</v>
       </c>
       <c r="G110">
-        <v>-7.87618108475336E-2</v>
+        <v>-7.3801541306898505E-2</v>
       </c>
       <c r="H110">
         <v>4.0611563086197101E-2</v>
       </c>
       <c r="I110">
-        <v>0.76102165999069005</v>
+        <v>0.752686140710778</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -3669,10 +3678,10 @@
         <v>32234</v>
       </c>
       <c r="B111">
-        <v>3.4221819092058601</v>
+        <v>3.38425483840973</v>
       </c>
       <c r="C111">
-        <v>2.7013615196542702</v>
+        <v>2.5751110066331702</v>
       </c>
       <c r="D111">
         <v>2.7367416609988502</v>
@@ -3681,16 +3690,16 @@
         <v>3.5133138535680359</v>
       </c>
       <c r="F111">
-        <v>-2.5068079815556499</v>
+        <v>-2.5515198027236501</v>
       </c>
       <c r="G111">
-        <v>-7.8606526189006598E-2</v>
+        <v>-7.3454694809433493E-2</v>
       </c>
       <c r="H111">
         <v>4.0406645839472899E-2</v>
       </c>
       <c r="I111">
-        <v>0.81462438815081695</v>
+        <v>0.81595204616794004</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -3698,10 +3707,10 @@
         <v>32325</v>
       </c>
       <c r="B112">
-        <v>3.3550647989966502</v>
+        <v>3.3032153093997101</v>
       </c>
       <c r="C112">
-        <v>2.6820770615384899</v>
+        <v>2.55021560563585</v>
       </c>
       <c r="D112">
         <v>2.7198851839486702</v>
@@ -3710,16 +3719,16 @@
         <v>3.4435106006121039</v>
       </c>
       <c r="F112">
-        <v>-2.3352255825470798</v>
+        <v>-2.4205377536528698</v>
       </c>
       <c r="G112">
-        <v>-7.8267655551213303E-2</v>
+        <v>-7.31112881042697E-2</v>
       </c>
       <c r="H112">
         <v>4.0376253722258303E-2</v>
       </c>
       <c r="I112">
-        <v>0.75944258507120899</v>
+        <v>0.755424331384973</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -3727,10 +3736,10 @@
         <v>32417</v>
       </c>
       <c r="B113">
-        <v>3.4194596638496999</v>
+        <v>3.3875978787315</v>
       </c>
       <c r="C113">
-        <v>2.6593185748711301</v>
+        <v>2.5192592184969902</v>
       </c>
       <c r="D113">
         <v>2.7003756765874201</v>
@@ -3739,16 +3748,16 @@
         <v>3.495320298099152</v>
       </c>
       <c r="F113">
-        <v>-2.1500446790432801</v>
+        <v>-2.22764378183092</v>
       </c>
       <c r="G113">
-        <v>-7.7397395799909494E-2</v>
+        <v>-7.1663789952442894E-2</v>
       </c>
       <c r="H113">
         <v>4.0355940147678501E-2</v>
       </c>
       <c r="I113">
-        <v>0.70992601692771695</v>
+        <v>0.70274136129109799</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -3756,10 +3765,10 @@
         <v>32509</v>
       </c>
       <c r="B114">
-        <v>3.41978185730752</v>
+        <v>3.3902585727890902</v>
       </c>
       <c r="C114">
-        <v>2.6355504966129102</v>
+        <v>2.4865276272777299</v>
       </c>
       <c r="D114">
         <v>2.6800665455380801</v>
@@ -3768,16 +3777,16 @@
         <v>3.4966563300860121</v>
       </c>
       <c r="F114">
-        <v>-2.0218438130510799</v>
+        <v>-2.1025299176162702</v>
       </c>
       <c r="G114">
-        <v>-7.7257611571979995E-2</v>
+        <v>-7.1382097672840206E-2</v>
       </c>
       <c r="H114">
         <v>4.0354413514568303E-2</v>
       </c>
       <c r="I114">
-        <v>0.66658003143929001</v>
+        <v>0.65756023127688201</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -3785,10 +3794,10 @@
         <v>32599</v>
       </c>
       <c r="B115">
-        <v>3.3513486234031098</v>
+        <v>3.30999656765399</v>
       </c>
       <c r="C115">
-        <v>2.6117153640433801</v>
+        <v>2.4537417205400498</v>
       </c>
       <c r="D115">
         <v>2.6596963620310898</v>
@@ -3797,16 +3806,16 @@
         <v>3.4780078698066919</v>
       </c>
       <c r="F115">
-        <v>-2.2831600559760501</v>
+        <v>-2.3595597177779801</v>
       </c>
       <c r="G115">
-        <v>-7.8453256165723406E-2</v>
+        <v>-7.3066801079522695E-2</v>
       </c>
       <c r="H115">
         <v>4.0479506875384597E-2</v>
       </c>
       <c r="I115">
-        <v>0.68243573497158005</v>
+        <v>0.67692428960472395</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -3814,10 +3823,10 @@
         <v>32690</v>
       </c>
       <c r="B116">
-        <v>3.2992535112294501</v>
+        <v>3.24919482042207</v>
       </c>
       <c r="C116">
-        <v>2.58670038879835</v>
+        <v>2.4189667230393499</v>
       </c>
       <c r="D116">
         <v>2.6384648055116902</v>
@@ -3826,16 +3835,16 @@
         <v>3.4800254732292921</v>
       </c>
       <c r="F116">
-        <v>-2.7083767229998998</v>
+        <v>-2.7551386958314201</v>
       </c>
       <c r="G116">
-        <v>-7.8394592927803999E-2</v>
+        <v>-7.3258539835392697E-2</v>
       </c>
       <c r="H116">
         <v>4.0645441557925099E-2</v>
       </c>
       <c r="I116">
-        <v>0.71954377714001105</v>
+        <v>0.71731224119693704</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -3843,10 +3852,10 @@
         <v>32782</v>
       </c>
       <c r="B117">
-        <v>3.2170573221255498</v>
+        <v>3.1178274602720601</v>
       </c>
       <c r="C117">
-        <v>2.5645099534380802</v>
+        <v>2.3903546494304799</v>
       </c>
       <c r="D117">
         <v>2.6193173963166601</v>
@@ -3855,16 +3864,16 @@
         <v>3.3924721239645681</v>
       </c>
       <c r="F117">
-        <v>-2.8394284758780901</v>
+        <v>-2.84640161990944</v>
       </c>
       <c r="G117">
-        <v>-8.7677180900070595E-2</v>
+        <v>-9.0350139448442002E-2</v>
       </c>
       <c r="H117">
         <v>4.0578665658630997E-2</v>
       </c>
       <c r="I117">
-        <v>0.68525639766233903</v>
+        <v>0.68215630579049502</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -3872,10 +3881,10 @@
         <v>32874</v>
       </c>
       <c r="B118">
-        <v>3.3886678565578499</v>
+        <v>3.3448968350261401</v>
       </c>
       <c r="C118">
-        <v>2.5363054900204798</v>
+        <v>2.3501323962081599</v>
       </c>
       <c r="D118">
         <v>2.59575496567266</v>
@@ -3884,16 +3893,16 @@
         <v>3.47968261976464</v>
       </c>
       <c r="F118">
-        <v>-2.7472151180736502</v>
+        <v>-2.7262631639821402</v>
       </c>
       <c r="G118">
-        <v>-7.7982250723166502E-2</v>
+        <v>-7.2535192786121305E-2</v>
       </c>
       <c r="H118">
         <v>4.0338233655084398E-2</v>
       </c>
       <c r="I118">
-        <v>0.75401861958435301</v>
+        <v>0.76063082585702602</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -3901,10 +3910,10 @@
         <v>32964</v>
       </c>
       <c r="B119">
-        <v>3.3431216750524202</v>
+        <v>3.27022187627355</v>
       </c>
       <c r="C119">
-        <v>2.5101070449445002</v>
+        <v>2.3138533869273799</v>
       </c>
       <c r="D119">
         <v>2.5737553357891398</v>
@@ -3913,16 +3922,16 @@
         <v>3.4224835097009878</v>
       </c>
       <c r="F119">
-        <v>-2.81535781075354</v>
+        <v>-2.7719679588935802</v>
       </c>
       <c r="G119">
-        <v>-8.1974113902494095E-2</v>
+        <v>-7.9413973641383695E-2</v>
       </c>
       <c r="H119">
         <v>4.0265335786575797E-2</v>
       </c>
       <c r="I119">
-        <v>0.71934047723310801</v>
+        <v>0.72118537034296604</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -3930,10 +3939,10 @@
         <v>33055</v>
       </c>
       <c r="B120">
-        <v>3.23804048405204</v>
+        <v>3.1253179275804701</v>
       </c>
       <c r="C120">
-        <v>2.4879462751436998</v>
+        <v>2.2850616170854399</v>
       </c>
       <c r="D120">
         <v>2.5549323398055099</v>
@@ -3942,16 +3951,16 @@
         <v>3.3338260100272241</v>
       </c>
       <c r="F120">
-        <v>-3.1298747974291201</v>
+        <v>-3.0686250308509702</v>
       </c>
       <c r="G120">
-        <v>-8.8072761059322893E-2</v>
+        <v>-9.0382826530179802E-2</v>
       </c>
       <c r="H120">
         <v>4.02736823726128E-2</v>
       </c>
       <c r="I120">
-        <v>0.67465704431649698</v>
+        <v>0.67300234987086605</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -3959,10 +3968,10 @@
         <v>33147</v>
       </c>
       <c r="B121">
-        <v>2.9611587622430502</v>
+        <v>2.7633826547023399</v>
       </c>
       <c r="C121">
-        <v>2.47538200507692</v>
+        <v>2.2733964330388701</v>
       </c>
       <c r="D121">
         <v>2.5434943312786098</v>
@@ -3971,16 +3980,16 @@
         <v>3.1353677889135758</v>
       </c>
       <c r="F121">
-        <v>-3.93148463965179</v>
+        <v>-3.8840674629408301</v>
       </c>
       <c r="G121">
-        <v>-0.10411996935996901</v>
+        <v>-0.123647783504441</v>
       </c>
       <c r="H121">
         <v>4.0420238658137098E-2</v>
       </c>
       <c r="I121">
-        <v>0.67107419974618898</v>
+        <v>0.67013093343549501</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -3988,10 +3997,10 @@
         <v>33239</v>
       </c>
       <c r="B122">
-        <v>2.9135333692065801</v>
+        <v>2.7061598921686798</v>
       </c>
       <c r="C122">
-        <v>2.4643226979106001</v>
+        <v>2.2638253250413598</v>
       </c>
       <c r="D122">
         <v>2.5333347765777501</v>
@@ -4000,16 +4009,16 @@
         <v>3.0966701404094081</v>
       </c>
       <c r="F122">
-        <v>-4.7995567420034604</v>
+        <v>-4.6660585223156703</v>
       </c>
       <c r="G122">
-        <v>-0.1070313338356</v>
+        <v>-0.130059813732537</v>
       </c>
       <c r="H122">
         <v>4.0433079819836397E-2</v>
       </c>
       <c r="I122">
-        <v>0.63356500570428997</v>
+        <v>0.63042368065330001</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -4017,10 +4026,10 @@
         <v>33329</v>
       </c>
       <c r="B123">
-        <v>2.92263566868432</v>
+        <v>2.71224798334053</v>
       </c>
       <c r="C123">
-        <v>2.4520189426248602</v>
+        <v>2.2530087731930601</v>
       </c>
       <c r="D123">
         <v>2.5223428538989698</v>
@@ -4029,16 +4038,16 @@
         <v>3.1226037889993998</v>
       </c>
       <c r="F123">
-        <v>-5.1538672279720004</v>
+        <v>-4.9347122636232799</v>
       </c>
       <c r="G123">
-        <v>-0.105868206645148</v>
+        <v>-0.12765599125400001</v>
       </c>
       <c r="H123">
         <v>4.0611964827663397E-2</v>
       </c>
       <c r="I123">
-        <v>0.61764742676956397</v>
+        <v>0.61463234259315602</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -4046,10 +4055,10 @@
         <v>33420</v>
       </c>
       <c r="B124">
-        <v>2.9102735586171402</v>
+        <v>2.6988204032615202</v>
       </c>
       <c r="C124">
-        <v>2.4410650171168098</v>
+        <v>2.2441487901254802</v>
       </c>
       <c r="D124">
         <v>2.5124560923743</v>
@@ -4058,16 +4067,16 @@
         <v>3.0851804561159319</v>
       </c>
       <c r="F124">
-        <v>-5.0365245519208202</v>
+        <v>-4.7887837399774797</v>
       </c>
       <c r="G124">
-        <v>-0.105333125127238</v>
+        <v>-0.127266914023662</v>
       </c>
       <c r="H124">
         <v>4.0381449236786097E-2</v>
       </c>
       <c r="I124">
-        <v>0.61260269998883399</v>
+        <v>0.61152599721324696</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -4075,10 +4084,10 @@
         <v>33512</v>
       </c>
       <c r="B125">
-        <v>2.8101132507906099</v>
+        <v>2.59259651889808</v>
       </c>
       <c r="C125">
-        <v>2.4327676264333702</v>
+        <v>2.2385079885065702</v>
       </c>
       <c r="D125">
         <v>2.5046249035178398</v>
@@ -4087,16 +4096,16 @@
         <v>3.0176040704367679</v>
       </c>
       <c r="F125">
-        <v>-5.1400505879906904</v>
+        <v>-4.9241327845745699</v>
       </c>
       <c r="G125">
-        <v>-0.103775177800108</v>
+        <v>-0.12595393755853199</v>
       </c>
       <c r="H125">
         <v>4.0432283757956898E-2</v>
       </c>
       <c r="I125">
-        <v>0.58440745340907396</v>
+        <v>0.58265795924309804</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -4104,10 +4113,10 @@
         <v>33604</v>
       </c>
       <c r="B126">
-        <v>2.8481747926541998</v>
+        <v>2.6474258294317399</v>
       </c>
       <c r="C126">
-        <v>2.4230246647124498</v>
+        <v>2.2305687440484099</v>
       </c>
       <c r="D126">
         <v>2.4957698494338398</v>
@@ -4116,16 +4125,16 @@
         <v>3.0429359648755478</v>
       </c>
       <c r="F126">
-        <v>-4.84270649670714</v>
+        <v>-4.5922250316861</v>
       </c>
       <c r="G126">
-        <v>-0.104762735201942</v>
+        <v>-0.12709646939188801</v>
       </c>
       <c r="H126">
         <v>4.0420556095911803E-2</v>
       </c>
       <c r="I126">
-        <v>0.55900801253388199</v>
+        <v>0.55697793312908395</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -4133,10 +4142,10 @@
         <v>33695</v>
       </c>
       <c r="B127">
-        <v>2.8045190767684698</v>
+        <v>2.6071754339074502</v>
       </c>
       <c r="C127">
-        <v>2.41436291420555</v>
+        <v>2.2239175732476499</v>
       </c>
       <c r="D127">
         <v>2.48778916691478</v>
@@ -4145,16 +4154,16 @@
         <v>3.0188338402146</v>
       </c>
       <c r="F127">
-        <v>-4.4488901338629603</v>
+        <v>-4.2137091441189796</v>
       </c>
       <c r="G127">
-        <v>-0.10187190990543001</v>
+        <v>-0.12299253887368999</v>
       </c>
       <c r="H127">
         <v>4.0475403858868497E-2</v>
       </c>
       <c r="I127">
-        <v>0.538305320952847</v>
+        <v>0.53668095262982896</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -4162,10 +4171,10 @@
         <v>33786</v>
       </c>
       <c r="B128">
-        <v>2.6936466884410999</v>
+        <v>2.4891281684458901</v>
       </c>
       <c r="C128">
-        <v>2.4082883171739402</v>
+        <v>2.22089626520907</v>
       </c>
       <c r="D128">
         <v>2.48184395214715</v>
@@ -4174,16 +4183,16 @@
         <v>2.9691788779117161</v>
       </c>
       <c r="F128">
-        <v>-4.1952394974912304</v>
+        <v>-4.0094275971016504</v>
       </c>
       <c r="G128">
-        <v>-9.5170946472019902E-2</v>
+        <v>-0.1126988982412</v>
       </c>
       <c r="H128">
         <v>4.0691206324752399E-2</v>
       </c>
       <c r="I128">
-        <v>0.54186916601901902</v>
+        <v>0.54273715990137905</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -4191,10 +4200,10 @@
         <v>33878</v>
       </c>
       <c r="B129">
-        <v>2.6797874473483398</v>
+        <v>2.4815484127634302</v>
       </c>
       <c r="C129">
-        <v>2.4046499383440798</v>
+        <v>2.2217044206813501</v>
       </c>
       <c r="D129">
         <v>2.4778468134868401</v>
@@ -4203,16 +4212,16 @@
         <v>2.9182872742606438</v>
       </c>
       <c r="F129">
-        <v>-3.37078394852551</v>
+        <v>-3.20192067613903</v>
       </c>
       <c r="G129">
-        <v>-9.0019299323617005E-2</v>
+        <v>-0.105154705652069</v>
       </c>
       <c r="H129">
         <v>4.0479476085913499E-2</v>
       </c>
       <c r="I129">
-        <v>0.55053085184930795</v>
+        <v>0.55454870936703604</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -4220,10 +4229,10 @@
         <v>33970</v>
       </c>
       <c r="B130">
-        <v>2.4667359044266699</v>
+        <v>2.2095202127726101</v>
       </c>
       <c r="C130">
-        <v>2.4099389288855</v>
+        <v>2.2374527629446099</v>
       </c>
       <c r="D130">
         <v>2.48051709905734</v>
@@ -4232,16 +4241,16 @@
         <v>2.7427197204432838</v>
       </c>
       <c r="F130">
-        <v>-2.92146360181084</v>
+        <v>-2.81981463717409</v>
       </c>
       <c r="G130">
-        <v>-7.2218243823067102E-2</v>
+        <v>-7.5649771702306606E-2</v>
       </c>
       <c r="H130">
         <v>4.0466433681525603E-2</v>
       </c>
       <c r="I130">
-        <v>0.52957682043063703</v>
+        <v>0.533066328086649</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -4249,10 +4258,10 @@
         <v>34060</v>
       </c>
       <c r="B131">
-        <v>2.4716258553983499</v>
+        <v>2.2172316790543598</v>
       </c>
       <c r="C131">
-        <v>2.4166871932538099</v>
+        <v>2.2557674059739798</v>
       </c>
       <c r="D131">
         <v>2.48438309684028</v>
@@ -4261,16 +4270,16 @@
         <v>2.705330666714032</v>
       </c>
       <c r="F131">
-        <v>-2.4859304004271499</v>
+        <v>-2.3791100343181601</v>
       </c>
       <c r="G131">
-        <v>-7.0104162110394705E-2</v>
+        <v>-7.30796011641692E-2</v>
       </c>
       <c r="H131">
         <v>4.0337007356705402E-2</v>
       </c>
       <c r="I131">
-        <v>0.53214845237974895</v>
+        <v>0.53707407032363996</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -4278,10 +4287,10 @@
         <v>34151</v>
       </c>
       <c r="B132">
-        <v>2.37780387776212</v>
+        <v>2.1137191686121501</v>
       </c>
       <c r="C132">
-        <v>2.42593168652916</v>
+        <v>2.2781365404514302</v>
       </c>
       <c r="D132">
         <v>2.4901500712079501</v>
@@ -4290,16 +4299,16 @@
         <v>2.6659290100311681</v>
       </c>
       <c r="F132">
-        <v>-2.62888328783129</v>
+        <v>-2.5396732071257002</v>
       </c>
       <c r="G132">
-        <v>-6.6971863425352204E-2</v>
+        <v>-6.9226982993335906E-2</v>
       </c>
       <c r="H132">
         <v>4.0488730088522197E-2</v>
       </c>
       <c r="I132">
-        <v>0.55210455569245398</v>
+        <v>0.56060759070783095</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -4307,10 +4316,10 @@
         <v>34243</v>
       </c>
       <c r="B133">
-        <v>2.3953306409489801</v>
+        <v>2.1527173434312901</v>
       </c>
       <c r="C133">
-        <v>2.4332967693561698</v>
+        <v>2.2969952068513102</v>
       </c>
       <c r="D133">
         <v>2.4945344436766699</v>
@@ -4319,16 +4328,16 @@
         <v>2.7098579003741361</v>
       </c>
       <c r="F133">
-        <v>-2.4022496148360202</v>
+        <v>-2.3373175199990301</v>
       </c>
       <c r="G133">
-        <v>-6.9612208465467104E-2</v>
+        <v>-7.3969969696596305E-2</v>
       </c>
       <c r="H133">
         <v>4.0568718769069603E-2</v>
       </c>
       <c r="I133">
-        <v>0.54187769078018899</v>
+        <v>0.54932510134915702</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -4336,10 +4345,10 @@
         <v>34335</v>
       </c>
       <c r="B134">
-        <v>2.3452143980322702</v>
+        <v>2.10827993194034</v>
       </c>
       <c r="C134">
-        <v>2.4419797018309501</v>
+        <v>2.31766249026755</v>
       </c>
       <c r="D134">
         <v>2.4998638558128201</v>
@@ -4348,16 +4357,16 @@
         <v>2.6937676500061398</v>
       </c>
       <c r="F134">
-        <v>-2.1660054770366099</v>
+        <v>-2.1265040373754101</v>
       </c>
       <c r="G134">
-        <v>-6.8310683490277496E-2</v>
+        <v>-7.3003318893423499E-2</v>
       </c>
       <c r="H134">
         <v>4.0656314020364903E-2</v>
       </c>
       <c r="I134">
-        <v>0.53791011081141804</v>
+        <v>0.544988925381509</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -4365,10 +4374,10 @@
         <v>34425</v>
       </c>
       <c r="B135">
-        <v>2.43962863735111</v>
+        <v>2.24018067197352</v>
       </c>
       <c r="C135">
-        <v>2.4490642393486701</v>
+        <v>2.3351526811272101</v>
       </c>
       <c r="D135">
         <v>2.5040140371097301</v>
@@ -4377,16 +4386,16 @@
         <v>2.7196251722884162</v>
       </c>
       <c r="F135">
-        <v>-1.32562328906886</v>
+        <v>-1.32273011412178</v>
       </c>
       <c r="G135">
-        <v>-7.0347073785605202E-2</v>
+        <v>-7.7179560686140097E-2</v>
       </c>
       <c r="H135">
         <v>4.0498313176113E-2</v>
       </c>
       <c r="I135">
-        <v>0.58060160858117404</v>
+        <v>0.59332038536868004</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -4394,10 +4403,10 @@
         <v>34516</v>
       </c>
       <c r="B136">
-        <v>2.3546275631206202</v>
+        <v>2.1484643377240999</v>
       </c>
       <c r="C136">
-        <v>2.46014342761001</v>
+        <v>2.35895092511001</v>
       </c>
       <c r="D136">
         <v>2.5111059231255899</v>
@@ -4406,16 +4415,16 @@
         <v>2.6499574454458159</v>
       </c>
       <c r="F136">
-        <v>-1.04025450466281</v>
+        <v>-1.0882805304715899</v>
       </c>
       <c r="G136">
-        <v>-6.7964342312696199E-2</v>
+        <v>-7.4270004404166395E-2</v>
       </c>
       <c r="H136">
         <v>4.0509917781658897E-2</v>
       </c>
       <c r="I136">
-        <v>0.55797326999272101</v>
+        <v>0.56858438488607199</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -4423,10 +4432,10 @@
         <v>34608</v>
       </c>
       <c r="B137">
-        <v>2.3941640040773402</v>
+        <v>2.2249745671900101</v>
       </c>
       <c r="C137">
-        <v>2.46939143989538</v>
+        <v>2.3791072968670899</v>
       </c>
       <c r="D137">
         <v>2.5168794567114801</v>
@@ -4435,16 +4444,16 @@
         <v>2.69355020224324</v>
       </c>
       <c r="F137">
-        <v>-0.90649531254780402</v>
+        <v>-0.99636940505513405</v>
       </c>
       <c r="G137">
-        <v>-6.81978220397053E-2</v>
+        <v>-7.4050867309548907E-2</v>
       </c>
       <c r="H137">
         <v>4.0518015669222397E-2</v>
       </c>
       <c r="I137">
-        <v>0.53759125735373903</v>
+        <v>0.54651414113160701</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -4452,10 +4461,10 @@
         <v>34700</v>
       </c>
       <c r="B138">
-        <v>2.3219567941239698</v>
+        <v>2.1404892695247901</v>
       </c>
       <c r="C138">
-        <v>2.48267155617132</v>
+        <v>2.4063847409536399</v>
       </c>
       <c r="D138">
         <v>2.5256543051870701</v>
@@ -4464,16 +4473,16 @@
         <v>2.6230637810891362</v>
       </c>
       <c r="F138">
-        <v>-0.77100606790486403</v>
+        <v>-0.88798805310648299</v>
       </c>
       <c r="G138">
-        <v>-6.9192908761248798E-2</v>
+        <v>-7.6243819101818003E-2</v>
       </c>
       <c r="H138">
         <v>4.0509596715445302E-2</v>
       </c>
       <c r="I138">
-        <v>0.51811002734362499</v>
+        <v>0.52605077764848795</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -4481,10 +4490,10 @@
         <v>34790</v>
       </c>
       <c r="B139">
-        <v>2.2973559969213602</v>
+        <v>2.1131491635901698</v>
       </c>
       <c r="C139">
-        <v>2.4985407326370401</v>
+        <v>2.43860719052992</v>
       </c>
       <c r="D139">
         <v>2.5363641596674</v>
@@ -4493,16 +4502,16 @@
         <v>2.5787658998353522</v>
       </c>
       <c r="F139">
-        <v>-0.75151429835398198</v>
+        <v>-0.88174330577112403</v>
       </c>
       <c r="G139">
-        <v>-7.0733551737435604E-2</v>
+        <v>-7.8961898061089303E-2</v>
       </c>
       <c r="H139">
         <v>4.0487473643912399E-2</v>
       </c>
       <c r="I139">
-        <v>0.50665313897783504</v>
+        <v>0.51492906698724905</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -4510,10 +4519,10 @@
         <v>34881</v>
       </c>
       <c r="B140">
-        <v>2.3385800116808699</v>
+        <v>2.1948440722811902</v>
       </c>
       <c r="C140">
-        <v>2.5120386065360698</v>
+        <v>2.4664653859542298</v>
       </c>
       <c r="D140">
         <v>2.54534653400647</v>
@@ -4522,16 +4531,16 @@
         <v>2.6402740468711361</v>
       </c>
       <c r="F140">
-        <v>-1.0883541604487199</v>
+        <v>-1.2283927599354501</v>
       </c>
       <c r="G140">
-        <v>-6.6865232461202198E-2</v>
+        <v>-6.9276745562248498E-2</v>
       </c>
       <c r="H140">
         <v>4.0517119847981002E-2</v>
       </c>
       <c r="I140">
-        <v>0.50502025054764998</v>
+        <v>0.513339738489898</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -4539,10 +4548,10 @@
         <v>34973</v>
       </c>
       <c r="B141">
-        <v>2.3624536838639001</v>
+        <v>2.2303530353380401</v>
       </c>
       <c r="C141">
-        <v>2.52529004372933</v>
+        <v>2.4944128948156301</v>
       </c>
       <c r="D141">
         <v>2.5540844765472901</v>
@@ -4551,16 +4560,16 @@
         <v>2.655195947914756</v>
       </c>
       <c r="F141">
-        <v>-1.13244213081487</v>
+        <v>-1.26357146969644</v>
       </c>
       <c r="G141">
-        <v>-6.5777417090774101E-2</v>
+        <v>-6.6922047986615593E-2</v>
       </c>
       <c r="H141">
         <v>4.0501943562167297E-2</v>
       </c>
       <c r="I141">
-        <v>0.48995868310569801</v>
+        <v>0.49812725059186802</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -4568,10 +4577,10 @@
         <v>35065</v>
       </c>
       <c r="B142">
-        <v>2.3558076952829201</v>
+        <v>2.2321534108640999</v>
       </c>
       <c r="C142">
-        <v>2.53784560749077</v>
+        <v>2.5218029474816599</v>
       </c>
       <c r="D142">
         <v>2.5622061318549099</v>
@@ -4580,16 +4589,16 @@
         <v>2.6877408226659161</v>
       </c>
       <c r="F142">
-        <v>-1.44521755817243</v>
+        <v>-1.56439161499577</v>
       </c>
       <c r="G142">
-        <v>-6.4228105563943996E-2</v>
+        <v>-6.3813020346946206E-2</v>
       </c>
       <c r="H142">
         <v>4.0567723047911203E-2</v>
       </c>
       <c r="I142">
-        <v>0.50015176564066699</v>
+        <v>0.508834959257223</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -4597,10 +4606,10 @@
         <v>35156</v>
       </c>
       <c r="B143">
-        <v>2.5593586356558999</v>
+        <v>2.5113181081275702</v>
       </c>
       <c r="C143">
-        <v>2.5418485503789299</v>
+        <v>2.5324352929930498</v>
       </c>
       <c r="D143">
         <v>2.5639032202248502</v>
@@ -4609,16 +4618,16 @@
         <v>2.8546737636657</v>
       </c>
       <c r="F143">
-        <v>-1.31496330585321</v>
+        <v>-1.4888102545103299</v>
       </c>
       <c r="G143">
-        <v>-5.7054183943059E-2</v>
+        <v>-5.1172582276975499E-2</v>
       </c>
       <c r="H143">
         <v>4.0516747870774202E-2</v>
       </c>
       <c r="I143">
-        <v>0.49030779408757302</v>
+        <v>0.49995297928017202</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -4626,10 +4635,10 @@
         <v>35247</v>
       </c>
       <c r="B144">
-        <v>2.5579537630870099</v>
+        <v>2.5102923832930202</v>
       </c>
       <c r="C144">
-        <v>2.5458561658546102</v>
+        <v>2.5432700429800001</v>
       </c>
       <c r="D144">
         <v>2.5655542499123101</v>
@@ -4638,16 +4647,16 @@
         <v>2.854648832174588</v>
       </c>
       <c r="F144">
-        <v>-1.12436020409893</v>
+        <v>-1.2999942197444601</v>
       </c>
       <c r="G144">
-        <v>-5.7147619502846199E-2</v>
+        <v>-5.1382629889931399E-2</v>
       </c>
       <c r="H144">
         <v>4.05109594930263E-2</v>
       </c>
       <c r="I144">
-        <v>0.476540659204923</v>
+        <v>0.48588715470486099</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -4655,10 +4664,10 @@
         <v>35339</v>
       </c>
       <c r="B145">
-        <v>2.6278522064886398</v>
+        <v>2.58749763135752</v>
       </c>
       <c r="C145">
-        <v>2.5484921932729399</v>
+        <v>2.5520503068368598</v>
       </c>
       <c r="D145">
         <v>2.5660925125366898</v>
@@ -4667,16 +4676,16 @@
         <v>2.8725447337795158</v>
       </c>
       <c r="F145">
-        <v>-0.69633794697403995</v>
+        <v>-0.86305931543859105</v>
       </c>
       <c r="G145">
-        <v>-5.6438325411248803E-2</v>
+        <v>-5.06929841094967E-2</v>
       </c>
       <c r="H145">
         <v>4.0426910989507403E-2</v>
       </c>
       <c r="I145">
-        <v>0.50057682878972898</v>
+        <v>0.51382572218909595</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -4684,10 +4693,10 @@
         <v>35431</v>
       </c>
       <c r="B146">
-        <v>2.5758409481586</v>
+        <v>2.5291969711943101</v>
       </c>
       <c r="C146">
-        <v>2.5522825537312799</v>
+        <v>2.5628081892960002</v>
       </c>
       <c r="D146">
         <v>2.5673803119952501</v>
@@ -4696,16 +4705,16 @@
         <v>2.8633065782686038</v>
       </c>
       <c r="F146">
-        <v>-0.92142620499919303</v>
+        <v>-1.0695545665124699</v>
       </c>
       <c r="G146">
-        <v>-5.6880956200641798E-2</v>
+        <v>-5.1336964543908403E-2</v>
       </c>
       <c r="H146">
         <v>4.0468134657409699E-2</v>
       </c>
       <c r="I146">
-        <v>0.51455343135192499</v>
+        <v>0.52817120871269596</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -4713,10 +4722,10 @@
         <v>35521</v>
       </c>
       <c r="B147">
-        <v>2.7431892314194699</v>
+        <v>2.71158253551762</v>
       </c>
       <c r="C147">
-        <v>2.5490624395175301</v>
+        <v>2.5631472771075798</v>
       </c>
       <c r="D147">
         <v>2.5633521806660502</v>
@@ -4725,16 +4734,16 @@
         <v>2.9907484266067521</v>
       </c>
       <c r="F147">
-        <v>-0.654530451436244</v>
+        <v>-0.70951356712851099</v>
       </c>
       <c r="G147">
-        <v>-5.3259073957719102E-2</v>
+        <v>-4.72755827731084E-2</v>
       </c>
       <c r="H147">
         <v>4.04100526973536E-2</v>
       </c>
       <c r="I147">
-        <v>0.51694185295969797</v>
+        <v>0.53172308308762495</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -4742,10 +4751,10 @@
         <v>35612</v>
       </c>
       <c r="B148">
-        <v>2.7045363157431099</v>
+        <v>2.6666214062290301</v>
       </c>
       <c r="C148">
-        <v>2.5442499735831099</v>
+        <v>2.5611726786087399</v>
       </c>
       <c r="D148">
         <v>2.5579797670629798</v>
@@ -4754,16 +4763,16 @@
         <v>3.0385756890070561</v>
       </c>
       <c r="F148">
-        <v>-1.0176279341038701</v>
+        <v>-0.92711420990281102</v>
       </c>
       <c r="G148">
-        <v>-5.2571765415603898E-2</v>
+        <v>-4.6641282504635097E-2</v>
       </c>
       <c r="H148">
         <v>4.05142950431003E-2</v>
       </c>
       <c r="I148">
-        <v>0.650597066185582</v>
+        <v>0.67250670093023801</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -4771,10 +4780,10 @@
         <v>35704</v>
       </c>
       <c r="B149">
-        <v>2.7041427456893001</v>
+        <v>2.6601363451928299</v>
       </c>
       <c r="C149">
-        <v>2.5393371701333001</v>
+        <v>2.55953760467973</v>
       </c>
       <c r="D149">
         <v>2.5525306056498702</v>
@@ -4783,16 +4792,16 @@
         <v>3.0378992511759919</v>
       </c>
       <c r="F149">
-        <v>-0.94018056904519698</v>
+        <v>-0.823465747704063</v>
       </c>
       <c r="G149">
-        <v>-5.25807241039725E-2</v>
+        <v>-4.6893349986250603E-2</v>
       </c>
       <c r="H149">
         <v>4.0517780985909302E-2</v>
       </c>
       <c r="I149">
-        <v>0.61554048506452397</v>
+        <v>0.63208236443181698</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -4800,10 +4809,10 @@
         <v>35796</v>
       </c>
       <c r="B150">
-        <v>2.7275329279716498</v>
+        <v>2.6873159627665801</v>
       </c>
       <c r="C150">
-        <v>2.5327485144608102</v>
+        <v>2.55573953189006</v>
       </c>
       <c r="D150">
         <v>2.5457073006246098</v>
@@ -4812,16 +4821,16 @@
         <v>3.0689371222892801</v>
       </c>
       <c r="F150">
-        <v>-0.95010393999609699</v>
+        <v>-0.82193585273773795</v>
       </c>
       <c r="G150">
-        <v>-5.15752749996789E-2</v>
+        <v>-4.5867104146559902E-2</v>
       </c>
       <c r="H150">
         <v>4.0530414429008003E-2</v>
       </c>
       <c r="I150">
-        <v>0.58762725649007697</v>
+        <v>0.60062371921630398</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -4829,10 +4838,10 @@
         <v>35886</v>
       </c>
       <c r="B151">
-        <v>2.7493198539724601</v>
+        <v>2.7103662948004201</v>
       </c>
       <c r="C151">
-        <v>2.5251817704772899</v>
+        <v>2.5507077058719698</v>
       </c>
       <c r="D151">
         <v>2.5380712633251701</v>
@@ -4841,16 +4850,16 @@
         <v>3.0915894378389921</v>
       </c>
       <c r="F151">
-        <v>-0.92662987990729595</v>
+        <v>-0.80732569400004195</v>
       </c>
       <c r="G151">
-        <v>-5.08048831497145E-2</v>
+        <v>-4.5120694600008102E-2</v>
       </c>
       <c r="H151">
         <v>4.0530439021751102E-2</v>
       </c>
       <c r="I151">
-        <v>0.56131284652511304</v>
+        <v>0.57173007898699002</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -4858,10 +4867,10 @@
         <v>35977</v>
       </c>
       <c r="B152">
-        <v>2.8429064443549099</v>
+        <v>2.8271927647082702</v>
       </c>
       <c r="C152">
-        <v>2.5136087866444501</v>
+        <v>2.5395189342508999</v>
       </c>
       <c r="D152">
         <v>2.5272220574642801</v>
@@ -4870,16 +4879,16 @@
         <v>3.1637391101691641</v>
       </c>
       <c r="F152">
-        <v>-0.79679633573266495</v>
+        <v>-0.70100784573958197</v>
       </c>
       <c r="G152">
-        <v>-4.7909227629032998E-2</v>
+        <v>-4.1814761991804499E-2</v>
       </c>
       <c r="H152">
         <v>4.0499578227503601E-2</v>
       </c>
       <c r="I152">
-        <v>0.54690431615579405</v>
+        <v>0.55596013421281198</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -4887,10 +4896,10 @@
         <v>36069</v>
       </c>
       <c r="B153">
-        <v>2.9530671475327801</v>
+        <v>2.9672754957065299</v>
       </c>
       <c r="C153">
-        <v>2.4961022844842899</v>
+        <v>2.51818230784149</v>
       </c>
       <c r="D153">
         <v>2.5117626712580101</v>
@@ -4899,16 +4908,16 @@
         <v>3.2743073370118081</v>
       </c>
       <c r="F153">
-        <v>-0.69681401132913801</v>
+        <v>-0.63149512448114797</v>
       </c>
       <c r="G153">
-        <v>-4.4318817315979003E-2</v>
+        <v>-3.7860318541687803E-2</v>
       </c>
       <c r="H153">
         <v>4.0499602133718102E-2</v>
       </c>
       <c r="I153">
-        <v>0.52599508145643903</v>
+        <v>0.53384311835375897</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -4916,10 +4925,10 @@
         <v>36161</v>
       </c>
       <c r="B154">
-        <v>2.9328314072655601</v>
+        <v>2.9411904409100602</v>
       </c>
       <c r="C154">
-        <v>2.4784882748165802</v>
+        <v>2.49700179773015</v>
       </c>
       <c r="D154">
         <v>2.4960403995406701</v>
@@ -4928,16 +4937,16 @@
         <v>3.2754331793812601</v>
       </c>
       <c r="F154">
-        <v>-0.65308304152006302</v>
+        <v>-0.59986657321996995</v>
       </c>
       <c r="G154">
-        <v>-4.4481305724233297E-2</v>
+        <v>-3.8137280816234402E-2</v>
       </c>
       <c r="H154">
         <v>4.05168834881523E-2</v>
       </c>
       <c r="I154">
-        <v>0.51478392768007297</v>
+        <v>0.52265480098281103</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -4945,10 +4954,10 @@
         <v>36251</v>
       </c>
       <c r="B155">
-        <v>2.94316176221484</v>
+        <v>2.9472260628970499</v>
       </c>
       <c r="C155">
-        <v>2.4609808699388398</v>
+        <v>2.47639206188108</v>
       </c>
       <c r="D155">
         <v>2.4803566852548</v>
@@ -4957,16 +4966,16 @@
         <v>3.2655322100229278</v>
       </c>
       <c r="F155">
-        <v>-0.46862903339774697</v>
+        <v>-0.43362659334593401</v>
       </c>
       <c r="G155">
-        <v>-4.4603575844277599E-2</v>
+        <v>-3.8321181492937798E-2</v>
       </c>
       <c r="H155">
         <v>4.0490189271041498E-2</v>
       </c>
       <c r="I155">
-        <v>0.50844220747637403</v>
+        <v>0.51660561300782004</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -4974,10 +4983,10 @@
         <v>36342</v>
       </c>
       <c r="B156">
-        <v>3.02567888357098</v>
+        <v>3.0539521367717399</v>
       </c>
       <c r="C156">
-        <v>2.4395436990039401</v>
+        <v>2.44911395713364</v>
       </c>
       <c r="D156">
         <v>2.4615652521747502</v>
@@ -4986,16 +4995,16 @@
         <v>3.3333270190374442</v>
       </c>
       <c r="F156">
-        <v>-0.32507119441333998</v>
+        <v>-0.33543398127153501</v>
       </c>
       <c r="G156">
-        <v>-4.3667877380184399E-2</v>
+        <v>-3.7337555692939797E-2</v>
       </c>
       <c r="H156">
         <v>4.0473364121900397E-2</v>
       </c>
       <c r="I156">
-        <v>0.495709607867589</v>
+        <v>0.50366777213800196</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -5003,10 +5012,10 @@
         <v>36434</v>
       </c>
       <c r="B157">
-        <v>3.1585261456451601</v>
+        <v>3.2204088725299602</v>
       </c>
       <c r="C157">
-        <v>2.41224086331039</v>
+        <v>2.41109602801974</v>
       </c>
       <c r="D157">
         <v>2.4383004718064099</v>
@@ -5015,16 +5024,16 @@
         <v>3.4214609203956798</v>
       </c>
       <c r="F157">
-        <v>0.10287616804635</v>
+        <v>3.0860612731658001E-2</v>
       </c>
       <c r="G157">
-        <v>-4.2312906320854299E-2</v>
+        <v>-3.5945750451550101E-2</v>
       </c>
       <c r="H157">
         <v>4.0435863273217097E-2</v>
       </c>
       <c r="I157">
-        <v>0.51992749785299397</v>
+        <v>0.53071576393737596</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -5032,10 +5041,10 @@
         <v>36526</v>
       </c>
       <c r="B158">
-        <v>3.1047737174207302</v>
+        <v>3.13308925380717</v>
       </c>
       <c r="C158">
-        <v>2.3883403936969598</v>
+        <v>2.3795093926626998</v>
       </c>
       <c r="D158">
         <v>2.4173929091364101</v>
@@ -5044,16 +5053,16 @@
         <v>3.3434837160281079</v>
       </c>
       <c r="F158">
-        <v>0.32156660171631302</v>
+        <v>0.247589862121117</v>
       </c>
       <c r="G158">
-        <v>-4.3449019655105503E-2</v>
+        <v>-3.7097169240313199E-2</v>
       </c>
       <c r="H158">
         <v>4.0456003309074499E-2</v>
       </c>
       <c r="I158">
-        <v>0.52525158395800098</v>
+        <v>0.53586439962143795</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -5061,10 +5070,10 @@
         <v>36617</v>
       </c>
       <c r="B159">
-        <v>3.2004711438909901</v>
+        <v>3.2609268152764801</v>
       </c>
       <c r="C159">
-        <v>2.3578075609585398</v>
+        <v>2.33678601646674</v>
       </c>
       <c r="D159">
         <v>2.3913706001046702</v>
@@ -5073,16 +5082,16 @@
         <v>3.4684685246631122</v>
       </c>
       <c r="F159">
-        <v>0.24755330737195899</v>
+        <v>0.135801132754864</v>
       </c>
       <c r="G159">
-        <v>-4.1170801062854201E-2</v>
+        <v>-3.4886776272467397E-2</v>
       </c>
       <c r="H159">
         <v>4.0440218285864402E-2</v>
       </c>
       <c r="I159">
-        <v>0.53836066019102202</v>
+        <v>0.54980557214461601</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -5090,10 +5099,10 @@
         <v>36708</v>
       </c>
       <c r="B160">
-        <v>3.1532659982955602</v>
+        <v>3.1862048253172501</v>
       </c>
       <c r="C160">
-        <v>2.3298422072160299</v>
+        <v>2.2986410845865102</v>
       </c>
       <c r="D160">
         <v>2.3673695410073599</v>
@@ -5102,16 +5111,16 @@
         <v>3.3976918041325761</v>
       </c>
       <c r="F160">
-        <v>0.12928090458171901</v>
+        <v>7.9619081687837906E-2</v>
       </c>
       <c r="G160">
-        <v>-4.2509567682740702E-2</v>
+        <v>-3.6222391104250497E-2</v>
       </c>
       <c r="H160">
         <v>4.0460255316372401E-2</v>
       </c>
       <c r="I160">
-        <v>0.53242399515265204</v>
+        <v>0.543919773622347</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -5119,10 +5128,10 @@
         <v>36800</v>
       </c>
       <c r="B161">
-        <v>3.15941110556567</v>
+        <v>3.18333612235759</v>
       </c>
       <c r="C161">
-        <v>2.3008905938359101</v>
+        <v>2.2595749108408398</v>
       </c>
       <c r="D161">
         <v>2.3428232562011799</v>
@@ -5131,16 +5140,16 @@
         <v>3.3938926736391961</v>
       </c>
       <c r="F161">
-        <v>-9.4058734636064401E-2</v>
+        <v>-0.12708799964752901</v>
       </c>
       <c r="G161">
-        <v>-4.2526446571593199E-2</v>
+        <v>-3.6502515460318602E-2</v>
       </c>
       <c r="H161">
         <v>4.0461615652767499E-2</v>
       </c>
       <c r="I161">
-        <v>0.51480310701568199</v>
+        <v>0.52505226936303695</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -5148,10 +5157,10 @@
         <v>36892</v>
       </c>
       <c r="B162">
-        <v>3.0829704979175898</v>
+        <v>3.0856707382311099</v>
       </c>
       <c r="C162">
-        <v>2.2760063188120498</v>
+        <v>2.2263250447636902</v>
       </c>
       <c r="D162">
         <v>2.32129422179037</v>
@@ -5160,16 +5169,16 @@
         <v>3.2819891690345999</v>
       </c>
       <c r="F162">
-        <v>-0.196812295087511</v>
+        <v>-0.27779176416902401</v>
       </c>
       <c r="G162">
-        <v>-4.5828533422641801E-2</v>
+        <v>-3.92162827840805E-2</v>
       </c>
       <c r="H162">
         <v>4.0485108726504397E-2</v>
       </c>
       <c r="I162">
-        <v>0.55705640802177403</v>
+        <v>0.57006588848211504</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -5177,10 +5186,10 @@
         <v>36982</v>
       </c>
       <c r="B163">
-        <v>3.0707674020664601</v>
+        <v>3.06814993464784</v>
       </c>
       <c r="C163">
-        <v>2.2499992819747501</v>
+        <v>2.1918303502332899</v>
       </c>
       <c r="D163">
         <v>2.2987580596625099</v>
@@ -5189,16 +5198,16 @@
         <v>3.3107844227250922</v>
       </c>
       <c r="F163">
-        <v>-0.84221401645856997</v>
+        <v>-0.87012536828376597</v>
       </c>
       <c r="G163">
-        <v>-4.5549741840627198E-2</v>
+        <v>-3.9204899970086297E-2</v>
       </c>
       <c r="H163">
         <v>4.0499952309068797E-2</v>
       </c>
       <c r="I163">
-        <v>0.60129705450890103</v>
+        <v>0.61742963324054601</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -5206,10 +5215,10 @@
         <v>37073</v>
       </c>
       <c r="B164">
-        <v>2.9055423863449898</v>
+        <v>2.8724739283973699</v>
       </c>
       <c r="C164">
-        <v>2.2282736149306501</v>
+        <v>2.1644695511165</v>
       </c>
       <c r="D164">
         <v>2.27949057496479</v>
@@ -5218,16 +5227,16 @@
         <v>3.2051742474970681</v>
       </c>
       <c r="F164">
-        <v>-1.52262496416336</v>
+        <v>-1.6708194467864801</v>
       </c>
       <c r="G164">
-        <v>-4.5826447139800802E-2</v>
+        <v>-3.93849911185397E-2</v>
       </c>
       <c r="H164">
         <v>4.05483799940018E-2</v>
       </c>
       <c r="I164">
-        <v>0.62435487511875598</v>
+        <v>0.63849460183321605</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -5235,10 +5244,10 @@
         <v>37165</v>
       </c>
       <c r="B165">
-        <v>2.9038852452048598</v>
+        <v>2.8633286067960402</v>
       </c>
       <c r="C165">
-        <v>2.2071882894523802</v>
+        <v>2.13835630035096</v>
       </c>
       <c r="D165">
         <v>2.26074463887148</v>
@@ -5247,16 +5256,16 @@
         <v>3.1837790523166918</v>
       </c>
       <c r="F165">
-        <v>-1.76670331502942</v>
+        <v>-1.95739716585115</v>
       </c>
       <c r="G165">
-        <v>-4.5643546573390301E-2</v>
+        <v>-3.9258562784826E-2</v>
       </c>
       <c r="H165">
         <v>4.04543062969435E-2</v>
       </c>
       <c r="I165">
-        <v>0.62327916837825004</v>
+        <v>0.63767265298117104</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -5264,10 +5273,10 @@
         <v>37257</v>
       </c>
       <c r="B166">
-        <v>2.90624169375721</v>
+        <v>2.8659578910982502</v>
       </c>
       <c r="C166">
-        <v>2.1848151503346198</v>
+        <v>2.1106498774404101</v>
       </c>
       <c r="D166">
         <v>2.2409961490700798</v>
@@ -5276,16 +5285,16 @@
         <v>3.20730890026296</v>
       </c>
       <c r="F166">
-        <v>-2.0294864120077101</v>
+        <v>-2.2030710605629298</v>
       </c>
       <c r="G166">
-        <v>-4.6211663885851101E-2</v>
+        <v>-3.9652804627322201E-2</v>
       </c>
       <c r="H166">
         <v>4.05701878018506E-2</v>
       </c>
       <c r="I166">
-        <v>0.62026490506293896</v>
+        <v>0.63187420470978894</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -5293,10 +5302,10 @@
         <v>37347</v>
       </c>
       <c r="B167">
-        <v>2.8780207559537501</v>
+        <v>2.8165034909317899</v>
       </c>
       <c r="C167">
-        <v>2.1631069715041802</v>
+        <v>2.0841325961068402</v>
       </c>
       <c r="D167">
         <v>2.2217262109276499</v>
@@ -5305,16 +5314,16 @@
         <v>3.147924823797676</v>
       </c>
       <c r="F167">
-        <v>-1.6019541589930699</v>
+        <v>-1.77183229570687</v>
       </c>
       <c r="G167">
-        <v>-4.4066161379575197E-2</v>
+        <v>-3.7690270040287598E-2</v>
       </c>
       <c r="H167">
         <v>4.0343975368168E-2</v>
       </c>
       <c r="I167">
-        <v>0.68907537193944701</v>
+        <v>0.70660328423949403</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -5322,10 +5331,10 @@
         <v>37438</v>
       </c>
       <c r="B168">
-        <v>2.79506321497482</v>
+        <v>2.7122673866904798</v>
       </c>
       <c r="C168">
-        <v>2.14353468533236</v>
+        <v>2.0606854176970599</v>
       </c>
       <c r="D168">
         <v>2.2041401443386501</v>
@@ -5334,16 +5343,16 @@
         <v>3.0679396777213359</v>
       </c>
       <c r="F168">
-        <v>-1.40066647286392</v>
+        <v>-1.5906266215450799</v>
       </c>
       <c r="G168">
-        <v>-4.0561463779172899E-2</v>
+        <v>-3.4684749158466199E-2</v>
       </c>
       <c r="H168">
         <v>4.0304000059875097E-2</v>
       </c>
       <c r="I168">
-        <v>0.65673410580700098</v>
+        <v>0.66912950911037805</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -5351,10 +5360,10 @@
         <v>37530</v>
       </c>
       <c r="B169">
-        <v>2.6675852367673101</v>
+        <v>2.5580273651688801</v>
       </c>
       <c r="C169">
-        <v>2.1277430980324601</v>
+        <v>2.04312572349997</v>
       </c>
       <c r="D169">
         <v>2.1894893152332902</v>
@@ -5363,16 +5372,16 @@
         <v>2.9728379911825442</v>
       </c>
       <c r="F169">
-        <v>-1.5033764870969399</v>
+        <v>-1.7009739188341699</v>
       </c>
       <c r="G169">
-        <v>-3.6444954096741602E-2</v>
+        <v>-3.10354234446099E-2</v>
       </c>
       <c r="H169">
         <v>4.0372420894020503E-2</v>
       </c>
       <c r="I169">
-        <v>0.64563750772908002</v>
+        <v>0.65524182862667202</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -5380,10 +5389,10 @@
         <v>37622</v>
       </c>
       <c r="B170">
-        <v>2.6298961281291899</v>
+        <v>2.5134958848231501</v>
       </c>
       <c r="C170">
-        <v>2.1130466123864702</v>
+        <v>2.0272421702991799</v>
       </c>
       <c r="D170">
         <v>2.1756923953870899</v>
@@ -5392,16 +5401,16 @@
         <v>2.9474600752828479</v>
       </c>
       <c r="F170">
-        <v>-1.5963667148446301</v>
+        <v>-1.7880769474039699</v>
       </c>
       <c r="G170">
-        <v>-3.5455668828505399E-2</v>
+        <v>-3.0193132953102102E-2</v>
       </c>
       <c r="H170">
         <v>4.0423201018770602E-2</v>
       </c>
       <c r="I170">
-        <v>0.61959936311956998</v>
+        <v>0.62573590990875305</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -5409,10 +5418,10 @@
         <v>37712</v>
       </c>
       <c r="B171">
-        <v>2.6355557382013499</v>
+        <v>2.5217340291922699</v>
       </c>
       <c r="C171">
-        <v>2.0981874937415301</v>
+        <v>2.0113861277271301</v>
       </c>
       <c r="D171">
         <v>2.16176647621245</v>
@@ -5421,16 +5430,16 @@
         <v>2.947608597644308</v>
       </c>
       <c r="F171">
-        <v>-1.4397571361383801</v>
+        <v>-1.6329702354231601</v>
       </c>
       <c r="G171">
-        <v>-3.56036053932344E-2</v>
+        <v>-3.0387460071329302E-2</v>
       </c>
       <c r="H171">
         <v>4.0405287899560299E-2</v>
       </c>
       <c r="I171">
-        <v>0.58973407337222405</v>
+        <v>0.59408274581874798</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -5438,10 +5447,10 @@
         <v>37803</v>
       </c>
       <c r="B172">
-        <v>2.7530575193815801</v>
+        <v>2.6824459559913101</v>
       </c>
       <c r="C172">
-        <v>2.0781545403211799</v>
+        <v>1.9867250803574299</v>
       </c>
       <c r="D172">
         <v>2.1439868478327799</v>
@@ -5450,16 +5459,16 @@
         <v>3.0363910524228359</v>
       </c>
       <c r="F172">
-        <v>-1.03573369971855</v>
+        <v>-1.2753223595610701</v>
       </c>
       <c r="G172">
-        <v>-3.95124290121249E-2</v>
+        <v>-3.4240755454735601E-2</v>
       </c>
       <c r="H172">
         <v>4.0322561456389197E-2</v>
       </c>
       <c r="I172">
-        <v>0.57648039850817701</v>
+        <v>0.58162854858306101</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -5467,10 +5476,10 @@
         <v>37895</v>
       </c>
       <c r="B173">
-        <v>2.7507213996875102</v>
+        <v>2.68406974048091</v>
       </c>
       <c r="C173">
-        <v>2.0573797437263401</v>
+        <v>1.9604719776608299</v>
       </c>
       <c r="D173">
         <v>2.1256514789039</v>
@@ -5479,16 +5488,16 @@
         <v>3.026774181594408</v>
       </c>
       <c r="F173">
-        <v>-0.51790665710905204</v>
+        <v>-0.80081917605787101</v>
       </c>
       <c r="G173">
-        <v>-3.9220766512799099E-2</v>
+        <v>-3.4215360427108397E-2</v>
       </c>
       <c r="H173">
         <v>4.02929938162341E-2</v>
       </c>
       <c r="I173">
-        <v>0.55556999376507099</v>
+        <v>0.56012937518309902</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -5496,10 +5505,10 @@
         <v>37987</v>
       </c>
       <c r="B174">
-        <v>2.6715048969987101</v>
+        <v>2.5798300227633502</v>
       </c>
       <c r="C174">
-        <v>2.0394462188615101</v>
+        <v>1.9383912372440999</v>
       </c>
       <c r="D174">
         <v>2.1094747587242102</v>
@@ -5508,16 +5517,16 @@
         <v>2.9344585152236879</v>
       </c>
       <c r="F174">
-        <v>5.91151336311668E-2</v>
+        <v>-0.27464968026686198</v>
       </c>
       <c r="G174">
-        <v>-3.5441171670164001E-2</v>
+        <v>-3.07518242343909E-2</v>
       </c>
       <c r="H174">
         <v>4.02680309740212E-2</v>
       </c>
       <c r="I174">
-        <v>0.56507548956762599</v>
+        <v>0.57260626672528903</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -5525,10 +5534,10 @@
         <v>38078</v>
       </c>
       <c r="B175">
-        <v>2.65575511576901</v>
+        <v>2.5638757705802302</v>
       </c>
       <c r="C175">
-        <v>2.0219193935602999</v>
+        <v>1.9165674311748599</v>
       </c>
       <c r="D175">
         <v>2.0936435967867801</v>
@@ -5537,16 +5546,16 @@
         <v>2.9068927561593401</v>
       </c>
       <c r="F175">
-        <v>0.35878011472675603</v>
+        <v>-2.3037166513290699E-2</v>
       </c>
       <c r="G175">
-        <v>-3.4631948193454998E-2</v>
+        <v>-3.02015099913392E-2</v>
       </c>
       <c r="H175">
         <v>4.0271857551171998E-2</v>
       </c>
       <c r="I175">
-        <v>0.54983133272816298</v>
+        <v>0.557285464461025</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -5554,10 +5563,10 @@
         <v>38169</v>
       </c>
       <c r="B176">
-        <v>2.6402858388141</v>
+        <v>2.5638796268250799</v>
       </c>
       <c r="C176">
-        <v>2.0036680613502398</v>
+        <v>1.8931514418894999</v>
       </c>
       <c r="D176">
         <v>2.0772953236786198</v>
@@ -5566,16 +5575,16 @@
         <v>2.9259186910016481</v>
       </c>
       <c r="F176">
-        <v>0.24064652076117499</v>
+        <v>-0.16896447839781101</v>
       </c>
       <c r="G176">
-        <v>-3.4797132601705798E-2</v>
+        <v>-3.0593933377371998E-2</v>
       </c>
       <c r="H176">
         <v>4.0223663790814899E-2</v>
       </c>
       <c r="I176">
-        <v>0.594030734428313</v>
+        <v>0.60226634816889701</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -5583,10 +5592,10 @@
         <v>38261</v>
       </c>
       <c r="B177">
-        <v>2.6650536975352601</v>
+        <v>2.5990058671332701</v>
       </c>
       <c r="C177">
-        <v>1.98415553479053</v>
+        <v>1.86710379115735</v>
       </c>
       <c r="D177">
         <v>2.0600264412101401</v>
@@ -5595,16 +5604,16 @@
         <v>2.927472300214772</v>
       </c>
       <c r="F177">
-        <v>0.62753652065646304</v>
+        <v>0.18170475621718701</v>
       </c>
       <c r="G177">
-        <v>-3.5273489844108101E-2</v>
+        <v>-3.13420743168078E-2</v>
       </c>
       <c r="H177">
         <v>4.0243613948369797E-2</v>
       </c>
       <c r="I177">
-        <v>0.59095353240154902</v>
+        <v>0.60189350269634501</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -5612,10 +5621,10 @@
         <v>38353</v>
       </c>
       <c r="B178">
-        <v>2.7156081420404701</v>
+        <v>2.6690717867140701</v>
       </c>
       <c r="C178">
-        <v>1.96203275726534</v>
+        <v>1.8353471886194599</v>
       </c>
       <c r="D178">
         <v>2.0408753081665201</v>
@@ -5624,16 +5633,16 @@
         <v>2.9410605973106039</v>
       </c>
       <c r="F178">
-        <v>1.08915406189772</v>
+        <v>0.58620987579945505</v>
       </c>
       <c r="G178">
-        <v>-3.6322588483514502E-2</v>
+        <v>-3.2830695495764103E-2</v>
       </c>
       <c r="H178">
         <v>4.0314553642649999E-2</v>
       </c>
       <c r="I178">
-        <v>0.62293136752619704</v>
+        <v>0.639201601143915</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -5641,10 +5650,10 @@
         <v>38443</v>
       </c>
       <c r="B179">
-        <v>2.6105679955283101</v>
+        <v>2.51886774256067</v>
       </c>
       <c r="C179">
-        <v>1.9428104624353499</v>
+        <v>1.80915055553891</v>
       </c>
       <c r="D179">
         <v>2.02388331080365</v>
@@ -5653,16 +5662,16 @@
         <v>2.8720391035245481</v>
       </c>
       <c r="F179">
-        <v>1.1538478632732001</v>
+        <v>0.69151326248811495</v>
       </c>
       <c r="G179">
-        <v>-3.3713128760732999E-2</v>
+        <v>-2.9418063067776501E-2</v>
       </c>
       <c r="H179">
         <v>4.0204336972128503E-2</v>
       </c>
       <c r="I179">
-        <v>0.62655441363185904</v>
+        <v>0.63939141147171696</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -5670,10 +5679,10 @@
         <v>38534</v>
       </c>
       <c r="B180">
-        <v>2.6027025152628802</v>
+        <v>2.5193063807426301</v>
       </c>
       <c r="C180">
-        <v>1.9226609564483601</v>
+        <v>1.78066230320553</v>
       </c>
       <c r="D180">
         <v>2.0062500390333402</v>
@@ -5682,16 +5691,16 @@
         <v>2.882014678944016</v>
       </c>
       <c r="F180">
-        <v>1.03793785846369</v>
+        <v>0.56773930539577599</v>
       </c>
       <c r="G180">
-        <v>-3.3788725053432001E-2</v>
+        <v>-2.9573929224267E-2</v>
       </c>
       <c r="H180">
         <v>4.0113485829036601E-2</v>
       </c>
       <c r="I180">
-        <v>0.625526240213089</v>
+        <v>0.63402117264742797</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -5699,10 +5708,10 @@
         <v>38626</v>
       </c>
       <c r="B181">
-        <v>2.5836469758457499</v>
+        <v>2.47802202246194</v>
       </c>
       <c r="C181">
-        <v>1.9037797702547199</v>
+        <v>1.7551946729688701</v>
       </c>
       <c r="D181">
         <v>1.9895466676828799</v>
@@ -5711,16 +5720,16 @@
         <v>2.8378895459497961</v>
       </c>
       <c r="F181">
-        <v>1.3040722554089801</v>
+        <v>0.84325173452873503</v>
       </c>
       <c r="G181">
-        <v>-3.3221797907355202E-2</v>
+        <v>-2.88483656213805E-2</v>
       </c>
       <c r="H181">
         <v>4.0243880898409599E-2</v>
       </c>
       <c r="I181">
-        <v>0.65568017005086798</v>
+        <v>0.67114961800775497</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -5728,10 +5737,10 @@
         <v>38718</v>
       </c>
       <c r="B182">
-        <v>2.7105693483068198</v>
+        <v>2.67795688256109</v>
       </c>
       <c r="C182">
-        <v>1.87775965993406</v>
+        <v>1.7139856365175601</v>
       </c>
       <c r="D182">
         <v>1.96764015240421</v>
@@ -5740,16 +5749,16 @@
         <v>2.950594410044324</v>
       </c>
       <c r="F182">
-        <v>1.1980666686091599</v>
+        <v>0.66796423233779501</v>
       </c>
       <c r="G182">
-        <v>-3.4553093968466002E-2</v>
+        <v>-3.0463467435795099E-2</v>
       </c>
       <c r="H182">
         <v>4.0221306585537103E-2</v>
       </c>
       <c r="I182">
-        <v>0.62308918657729195</v>
+        <v>0.63350306798871703</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
@@ -5757,10 +5766,10 @@
         <v>38808</v>
       </c>
       <c r="B183">
-        <v>2.6459089512146599</v>
+        <v>2.57237804308203</v>
       </c>
       <c r="C183">
-        <v>1.85446717253764</v>
+        <v>1.67807778287467</v>
       </c>
       <c r="D183">
         <v>1.9478269686284599</v>
@@ -5769,16 +5778,16 @@
         <v>2.863413026868848</v>
       </c>
       <c r="F183">
-        <v>1.5051227488908101</v>
+        <v>0.98722405556623005</v>
       </c>
       <c r="G183">
-        <v>-3.4004048019957801E-2</v>
+        <v>-2.9782707378740399E-2</v>
       </c>
       <c r="H183">
         <v>4.0409013462085801E-2</v>
       </c>
       <c r="I183">
-        <v>0.67613210880141095</v>
+        <v>0.69385274245764905</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -5786,10 +5795,10 @@
         <v>38899</v>
       </c>
       <c r="B184">
-        <v>2.5701784437700801</v>
+        <v>2.4744264576425299</v>
       </c>
       <c r="C184">
-        <v>1.83346139467281</v>
+        <v>1.6463046013012901</v>
       </c>
       <c r="D184">
         <v>1.9297818869961101</v>
@@ -5798,16 +5807,16 @@
         <v>2.816608052398728</v>
       </c>
       <c r="F184">
-        <v>1.1566430108947501</v>
+        <v>0.67756146831516195</v>
       </c>
       <c r="G184">
-        <v>-3.3975036453547602E-2</v>
+        <v>-2.9818658540501398E-2</v>
       </c>
       <c r="H184">
         <v>4.0257050124659501E-2</v>
       </c>
       <c r="I184">
-        <v>0.68624774199169702</v>
+        <v>0.69940765716722697</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -5815,10 +5824,10 @@
         <v>38991</v>
       </c>
       <c r="B185">
-        <v>2.6110479400430702</v>
+        <v>2.5241143718873298</v>
       </c>
       <c r="C185">
-        <v>1.80941576376243</v>
+        <v>1.6093697257219699</v>
       </c>
       <c r="D185">
         <v>1.90948658495802</v>
@@ -5827,16 +5836,16 @@
         <v>2.869549981376196</v>
       </c>
       <c r="F185">
-        <v>0.843473272311144</v>
+        <v>0.42199119043584699</v>
       </c>
       <c r="G185">
-        <v>-3.3840729260253999E-2</v>
+        <v>-2.9650775654481099E-2</v>
       </c>
       <c r="H185">
         <v>4.0162547513185202E-2</v>
       </c>
       <c r="I185">
-        <v>0.69028693174936995</v>
+        <v>0.69761538258868405</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -5844,10 +5853,10 @@
         <v>39083</v>
       </c>
       <c r="B186">
-        <v>2.5720795617333598</v>
+        <v>2.4597940409615102</v>
       </c>
       <c r="C186">
-        <v>1.78694550634662</v>
+        <v>1.5755781686958901</v>
       </c>
       <c r="D186">
         <v>1.89037748184682</v>
@@ -5856,16 +5865,16 @@
         <v>2.8179446499801841</v>
       </c>
       <c r="F186">
-        <v>0.86934220518799099</v>
+        <v>0.46562271169727898</v>
       </c>
       <c r="G186">
-        <v>-3.4068776939159398E-2</v>
+        <v>-3.00175199784493E-2</v>
       </c>
       <c r="H186">
         <v>4.0244926581978098E-2</v>
       </c>
       <c r="I186">
-        <v>0.68895128304396103</v>
+        <v>0.69891642679866295</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -5873,10 +5882,10 @@
         <v>39173</v>
       </c>
       <c r="B187">
-        <v>2.56685476892484</v>
+        <v>2.4531446039268898</v>
       </c>
       <c r="C187">
-        <v>1.76324912318703</v>
+        <v>1.5398286001116701</v>
       </c>
       <c r="D187">
         <v>1.87036608772901</v>
@@ -5885,16 +5894,16 @@
         <v>2.838910008482816</v>
       </c>
       <c r="F187">
-        <v>0.49612483500902699</v>
+        <v>0.14405858588236201</v>
       </c>
       <c r="G187">
-        <v>-3.3990661618741001E-2</v>
+        <v>-2.99760105243146E-2</v>
       </c>
       <c r="H187">
         <v>4.0130823867760401E-2</v>
       </c>
       <c r="I187">
-        <v>0.73715062906633999</v>
+        <v>0.74612062808692003</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -5902,10 +5911,10 @@
         <v>39264</v>
       </c>
       <c r="B188">
-        <v>2.5648697381513399</v>
+        <v>2.4422094477340002</v>
       </c>
       <c r="C188">
-        <v>1.73854858105348</v>
+        <v>1.5025250908113099</v>
       </c>
       <c r="D188">
         <v>1.8496246578898301</v>
@@ -5914,16 +5923,16 @@
         <v>2.835635095075304</v>
       </c>
       <c r="F188">
-        <v>0.392488308005568</v>
+        <v>7.54089655645203E-2</v>
       </c>
       <c r="G188">
-        <v>-3.3996844500405701E-2</v>
+        <v>-3.00607402039327E-2</v>
       </c>
       <c r="H188">
         <v>4.0141042513094E-2</v>
       </c>
       <c r="I188">
-        <v>0.68947605386878896</v>
+        <v>0.69352763938827899</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -5931,10 +5940,10 @@
         <v>39356</v>
       </c>
       <c r="B189">
-        <v>2.5853301486224298</v>
+        <v>2.45742990740013</v>
       </c>
       <c r="C189">
-        <v>1.7114355861689901</v>
+        <v>1.4602619700073001</v>
       </c>
       <c r="D189">
         <v>1.82718032703078</v>
@@ -5943,16 +5952,16 @@
         <v>2.831646585111756</v>
       </c>
       <c r="F189">
-        <v>0.45584814347080299</v>
+        <v>0.15786476403116001</v>
       </c>
       <c r="G189">
-        <v>-3.3907774034990103E-2</v>
+        <v>-3.00061696909661E-2</v>
       </c>
       <c r="H189">
         <v>4.0183022034079398E-2</v>
       </c>
       <c r="I189">
-        <v>0.70313776611027801</v>
+        <v>0.71072943493680896</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
@@ -5960,10 +5969,10 @@
         <v>39448</v>
       </c>
       <c r="B190">
-        <v>2.3603317095717302</v>
+        <v>2.1226460318445999</v>
       </c>
       <c r="C190">
-        <v>1.69227155018348</v>
+        <v>1.43459835655224</v>
       </c>
       <c r="D190">
         <v>1.81067378304101</v>
@@ -5972,16 +5981,16 @@
         <v>2.6552698165156641</v>
       </c>
       <c r="F190">
-        <v>0.30971284377210401</v>
+        <v>0.112231951880517</v>
       </c>
       <c r="G190">
-        <v>-3.4678853439418303E-2</v>
+        <v>-3.1557092692493398E-2</v>
       </c>
       <c r="H190">
         <v>4.0136813092777897E-2</v>
       </c>
       <c r="I190">
-        <v>0.67767331515893003</v>
+        <v>0.68220035648111899</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
@@ -5989,10 +5998,10 @@
         <v>39539</v>
       </c>
       <c r="B191">
-        <v>2.37096399677031</v>
+        <v>2.1355581225287001</v>
       </c>
       <c r="C191">
-        <v>1.67125563304511</v>
+        <v>1.4063141203698799</v>
       </c>
       <c r="D191">
         <v>1.7928226084299399</v>
@@ -6001,16 +6010,16 @@
         <v>2.6763208451206721</v>
       </c>
       <c r="F191">
-        <v>-1.6561870517307401E-2</v>
+        <v>-0.163257876963712</v>
       </c>
       <c r="G191">
-        <v>-3.4869464767416702E-2</v>
+        <v>-3.1741784237977799E-2</v>
       </c>
       <c r="H191">
         <v>4.0120942049019802E-2</v>
       </c>
       <c r="I191">
-        <v>0.65834207166630598</v>
+        <v>0.66039731682054303</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -6018,10 +6027,10 @@
         <v>39630</v>
       </c>
       <c r="B192">
-        <v>2.2363655043594202</v>
+        <v>1.98978196885476</v>
       </c>
       <c r="C192">
-        <v>1.65441901275722</v>
+        <v>1.3838475052869901</v>
       </c>
       <c r="D192">
         <v>1.7782874346397799</v>
@@ -6030,16 +6039,16 @@
         <v>2.5562140546595682</v>
       </c>
       <c r="F192">
-        <v>-0.31260452782794301</v>
+        <v>-0.54454575140721295</v>
       </c>
       <c r="G192">
-        <v>-3.17852550107387E-2</v>
+        <v>-2.9099328727156901E-2</v>
       </c>
       <c r="H192">
         <v>4.0127754145021802E-2</v>
       </c>
       <c r="I192">
-        <v>0.62343682598368499</v>
+        <v>0.62358240536501397</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
@@ -6047,10 +6056,10 @@
         <v>39722</v>
       </c>
       <c r="B193">
-        <v>1.9691280666872299</v>
+        <v>1.70390204539802</v>
       </c>
       <c r="C193">
-        <v>1.64645360826429</v>
+        <v>1.37467430724092</v>
       </c>
       <c r="D193">
         <v>1.7707155960174501</v>
@@ -6059,16 +6068,16 @@
         <v>2.4016500853187002</v>
       </c>
       <c r="F193">
-        <v>-1.88420823730769</v>
+        <v>-2.3383169474537899</v>
       </c>
       <c r="G193">
-        <v>-2.6369940845457799E-2</v>
+        <v>-2.39573897839894E-2</v>
       </c>
       <c r="H193">
         <v>4.0110809079312901E-2</v>
       </c>
       <c r="I193">
-        <v>1.57006449658569</v>
+        <v>1.6872272003239699</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -6076,10 +6085,10 @@
         <v>39814</v>
       </c>
       <c r="B194">
-        <v>1.95499579423222</v>
+        <v>1.6898150294909999</v>
       </c>
       <c r="C194">
-        <v>1.6391603551829601</v>
+        <v>1.3668076370296101</v>
       </c>
       <c r="D194">
         <v>1.7636591348555399</v>
@@ -6088,16 +6097,16 @@
         <v>2.3902407192020401</v>
       </c>
       <c r="F194">
-        <v>-2.8210361177642702</v>
+        <v>-3.6178916357480402</v>
       </c>
       <c r="G194">
-        <v>-2.6182705585381799E-2</v>
+        <v>-2.3841903364718298E-2</v>
       </c>
       <c r="H194">
         <v>4.0146840946407497E-2</v>
       </c>
       <c r="I194">
-        <v>1.3771493586710599</v>
+        <v>1.4392250235931601</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
@@ -6105,10 +6114,10 @@
         <v>39904</v>
       </c>
       <c r="B195">
-        <v>1.9492448337045301</v>
+        <v>1.6859294473292901</v>
       </c>
       <c r="C195">
-        <v>1.6325774819675301</v>
+        <v>1.3596417996338499</v>
       </c>
       <c r="D195">
         <v>1.7571658726777699</v>
@@ -6117,16 +6126,16 @@
         <v>2.3747402224829322</v>
       </c>
       <c r="F195">
-        <v>-3.2882728771857002</v>
+        <v>-4.0395004805816397</v>
       </c>
       <c r="G195">
-        <v>-2.6030189506904201E-2</v>
+        <v>-2.3852359771502799E-2</v>
       </c>
       <c r="H195">
         <v>4.0038525251966502E-2</v>
       </c>
       <c r="I195">
-        <v>1.284513190093</v>
+        <v>1.3195738483850601</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -6134,10 +6143,10 @@
         <v>39995</v>
       </c>
       <c r="B196">
-        <v>1.9444135292785401</v>
+        <v>1.6784737075271401</v>
       </c>
       <c r="C196">
-        <v>1.62670933473238</v>
+        <v>1.3535515202519299</v>
       </c>
       <c r="D196">
         <v>1.7511991894343999</v>
@@ -6146,16 +6155,16 @@
         <v>2.3663868449578001</v>
       </c>
       <c r="F196">
-        <v>-3.4179545187385001</v>
+        <v>-4.1138263513897799</v>
       </c>
       <c r="G196">
-        <v>-2.5966111660901601E-2</v>
+        <v>-2.38371719813209E-2</v>
       </c>
       <c r="H196">
         <v>4.0005818409089199E-2</v>
       </c>
       <c r="I196">
-        <v>1.14764978981166</v>
+        <v>1.1591605082024601</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
@@ -6163,10 +6172,10 @@
         <v>40087</v>
       </c>
       <c r="B197">
-        <v>1.97829776134818</v>
+        <v>1.70663180719471</v>
       </c>
       <c r="C197">
-        <v>1.6197371307616799</v>
+        <v>1.3462863859399099</v>
       </c>
       <c r="D197">
         <v>1.7444314341161999</v>
@@ -6175,16 +6184,16 @@
         <v>2.381121360008688</v>
       </c>
       <c r="F197">
-        <v>-2.88520859030245</v>
+        <v>-3.5042765609098301</v>
       </c>
       <c r="G197">
-        <v>-2.6524218192106899E-2</v>
+        <v>-2.4263904581475999E-2</v>
       </c>
       <c r="H197">
         <v>3.9742157458295402E-2</v>
       </c>
       <c r="I197">
-        <v>1.1764096809689399</v>
+        <v>1.1865128197466399</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -6192,10 +6201,10 @@
         <v>40179</v>
       </c>
       <c r="B198">
-        <v>1.93763567821576</v>
+        <v>1.6664258251611499</v>
       </c>
       <c r="C198">
-        <v>1.6143661994992999</v>
+        <v>1.3411092750048099</v>
       </c>
       <c r="D198">
         <v>1.7388774527066</v>
@@ -6204,16 +6213,16 @@
         <v>2.347989937884932</v>
       </c>
       <c r="F198">
-        <v>-2.7297156822730799</v>
+        <v>-3.3402106682284498</v>
       </c>
       <c r="G198">
-        <v>-2.5738517425739099E-2</v>
+        <v>-2.3736706358267301E-2</v>
       </c>
       <c r="H198">
         <v>3.98051518839743E-2</v>
       </c>
       <c r="I198">
-        <v>1.0619865073489101</v>
+        <v>1.05586281274778</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -6221,10 +6230,10 @@
         <v>40269</v>
       </c>
       <c r="B199">
-        <v>1.9520109790837601</v>
+        <v>1.6867842950383301</v>
       </c>
       <c r="C199">
-        <v>1.6081266332270601</v>
+        <v>1.3348637787156701</v>
       </c>
       <c r="D199">
         <v>1.73272347522779</v>
@@ -6233,16 +6242,16 @@
         <v>2.362876960202192</v>
       </c>
       <c r="F199">
-        <v>-2.54274553447567</v>
+        <v>-3.13321168531149</v>
       </c>
       <c r="G199">
-        <v>-2.6125847823368999E-2</v>
+        <v>-2.41437382468799E-2</v>
       </c>
       <c r="H199">
         <v>3.98668209956662E-2</v>
       </c>
       <c r="I199">
-        <v>0.96693593663666899</v>
+        <v>0.95026220360795299</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
@@ -6250,10 +6259,10 @@
         <v>40360</v>
       </c>
       <c r="B200">
-        <v>1.9276036205362299</v>
+        <v>1.6675856217513401</v>
       </c>
       <c r="C200">
-        <v>1.6019448924772199</v>
+        <v>1.3287048217727799</v>
       </c>
       <c r="D200">
         <v>1.7266780931530299</v>
@@ -6262,16 +6271,16 @@
         <v>2.3488978320252478</v>
       </c>
       <c r="F200">
-        <v>-2.3233795394658001</v>
+        <v>-2.9435600175857002</v>
       </c>
       <c r="G200">
-        <v>-2.5611045523106699E-2</v>
+        <v>-2.3844581529807798E-2</v>
       </c>
       <c r="H200">
         <v>3.9976004182503203E-2</v>
       </c>
       <c r="I200">
-        <v>0.90608009026332503</v>
+        <v>0.88342032726001896</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -6279,10 +6288,10 @@
         <v>40452</v>
       </c>
       <c r="B201">
-        <v>1.87380631780577</v>
+        <v>1.6105067436440801</v>
       </c>
       <c r="C201">
-        <v>1.5967630156634101</v>
+        <v>1.3235164523228</v>
       </c>
       <c r="D201">
         <v>1.72138922764837</v>
@@ -6291,16 +6300,16 @@
         <v>2.2960278708771882</v>
       </c>
       <c r="F201">
-        <v>-1.83292598748653</v>
+        <v>-2.4670134597008699</v>
       </c>
       <c r="G201">
-        <v>-2.4414205617300601E-2</v>
+        <v>-2.2942752850451598E-2</v>
       </c>
       <c r="H201">
         <v>3.9920039314419203E-2</v>
       </c>
       <c r="I201">
-        <v>0.83943795794546405</v>
+        <v>0.81685906501368999</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
@@ -6308,10 +6317,10 @@
         <v>40544</v>
       </c>
       <c r="B202">
-        <v>1.72245925431909</v>
+        <v>1.42212387092881</v>
       </c>
       <c r="C202">
-        <v>1.59742615233492</v>
+        <v>1.3269923500823799</v>
       </c>
       <c r="D202">
         <v>1.7204542591919301</v>
@@ -6320,16 +6329,16 @@
         <v>2.152073766483944</v>
       </c>
       <c r="F202">
-        <v>-1.2047465064646301</v>
+        <v>-1.8088168794861299</v>
       </c>
       <c r="G202">
-        <v>-2.1711882454956401E-2</v>
+        <v>-2.0424541484480599E-2</v>
       </c>
       <c r="H202">
         <v>3.9849419812588598E-2</v>
       </c>
       <c r="I202">
-        <v>0.80577255316058005</v>
+        <v>0.78772589331148601</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
@@ -6337,10 +6346,10 @@
         <v>40634</v>
       </c>
       <c r="B203">
-        <v>1.7456401907941499</v>
+        <v>1.45478581000888</v>
       </c>
       <c r="C203">
-        <v>1.59691358284347</v>
+        <v>1.3285355951603799</v>
       </c>
       <c r="D203">
         <v>1.71871396913796</v>
@@ -6349,16 +6358,16 @@
         <v>2.1534878801365802</v>
       </c>
       <c r="F203">
-        <v>-0.91030314310887706</v>
+        <v>-1.4743952930567701</v>
       </c>
       <c r="G203">
-        <v>-2.1970064759541601E-2</v>
+        <v>-2.0783635993961699E-2</v>
       </c>
       <c r="H203">
         <v>3.9729621673674602E-2</v>
       </c>
       <c r="I203">
-        <v>0.81732465786554598</v>
+        <v>0.80893805240846794</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
@@ -6366,10 +6375,10 @@
         <v>40725</v>
       </c>
       <c r="B204">
-        <v>1.66826562794678</v>
+        <v>1.3514499485018701</v>
       </c>
       <c r="C204">
-        <v>1.5999983319939699</v>
+        <v>1.33591212807906</v>
       </c>
       <c r="D204">
         <v>1.71967837389293</v>
@@ -6378,16 +6387,16 @@
         <v>2.0821824653849119</v>
       </c>
       <c r="F204">
-        <v>-0.71834372339208097</v>
+        <v>-1.30641243590219</v>
       </c>
       <c r="G204">
-        <v>-2.0691906668573599E-2</v>
+        <v>-1.9596144791822999E-2</v>
       </c>
       <c r="H204">
         <v>3.9731908293277302E-2</v>
       </c>
       <c r="I204">
-        <v>0.75754523618703895</v>
+        <v>0.74537793418637099</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
@@ -6395,10 +6404,10 @@
         <v>40817</v>
       </c>
       <c r="B205">
-        <v>1.7346524646191701</v>
+        <v>1.4499941279441</v>
       </c>
       <c r="C205">
-        <v>1.60046464085484</v>
+        <v>1.33877795896908</v>
       </c>
       <c r="D205">
         <v>1.7186999155510601</v>
@@ -6407,16 +6416,16 @@
         <v>2.1463654853880358</v>
       </c>
       <c r="F205">
-        <v>-0.845862523166375</v>
+        <v>-1.4074424257242999</v>
       </c>
       <c r="G205">
-        <v>-2.1737153378504299E-2</v>
+        <v>-2.0795158178762499E-2</v>
       </c>
       <c r="H205">
         <v>3.9768474087676503E-2</v>
       </c>
       <c r="I205">
-        <v>0.71585280081675295</v>
+        <v>0.70113687626845</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
@@ -6424,10 +6433,10 @@
         <v>40909</v>
       </c>
       <c r="B206">
-        <v>1.7543789229707001</v>
+        <v>1.4710176083220701</v>
       </c>
       <c r="C206">
-        <v>1.6000776359864499</v>
+        <v>1.3403627405624601</v>
       </c>
       <c r="D206">
         <v>1.71708964624843</v>
@@ -6436,16 +6445,16 @@
         <v>2.1407864938206882</v>
       </c>
       <c r="F206">
-        <v>-0.29898600850810902</v>
+        <v>-0.76257618022270901</v>
       </c>
       <c r="G206">
-        <v>-2.1964384512028302E-2</v>
+        <v>-2.1091387833888399E-2</v>
       </c>
       <c r="H206">
         <v>3.9662718197324101E-2</v>
       </c>
       <c r="I206">
-        <v>0.74788368448238896</v>
+        <v>0.74719161707007697</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
@@ -6453,10 +6462,10 @@
         <v>41000</v>
       </c>
       <c r="B207">
-        <v>1.7045160950443301</v>
+        <v>1.41609024384174</v>
       </c>
       <c r="C207">
-        <v>1.6008487188826599</v>
+        <v>1.3436312452452699</v>
       </c>
       <c r="D207">
         <v>1.7164068279932101</v>
@@ -6465,16 +6474,16 @@
         <v>2.1069991469726039</v>
       </c>
       <c r="F207">
-        <v>-0.220581099671222</v>
+        <v>-0.70046109658198896</v>
       </c>
       <c r="G207">
-        <v>-2.1140449836975501E-2</v>
+        <v>-2.0313198970800899E-2</v>
       </c>
       <c r="H207">
         <v>3.9671645681036899E-2</v>
       </c>
       <c r="I207">
-        <v>0.729193748060467</v>
+        <v>0.72581799261753099</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
@@ -6482,10 +6491,10 @@
         <v>41091</v>
       </c>
       <c r="B208">
-        <v>1.6214888344287399</v>
+        <v>1.3140631282147399</v>
       </c>
       <c r="C208">
-        <v>1.6044898209071801</v>
+        <v>1.35144126670334</v>
       </c>
       <c r="D208">
         <v>1.7178940104495399</v>
@@ -6494,16 +6503,16 @@
         <v>2.0441170626227319</v>
       </c>
       <c r="F208">
-        <v>-0.21217823914958001</v>
+        <v>-0.68953184488225405</v>
       </c>
       <c r="G208">
-        <v>-1.9828475566801802E-2</v>
+        <v>-1.8960480575487201E-2</v>
       </c>
       <c r="H208">
         <v>3.9666568419565798E-2</v>
       </c>
       <c r="I208">
-        <v>0.71458988516895094</v>
+        <v>0.70859422715000997</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
@@ -6511,10 +6520,10 @@
         <v>41183</v>
       </c>
       <c r="B209">
-        <v>1.56636494047632</v>
+        <v>1.2392752690550699</v>
       </c>
       <c r="C209">
-        <v>1.6110696514756899</v>
+        <v>1.3643700032249499</v>
       </c>
       <c r="D209">
         <v>1.7215597204633299</v>
@@ -6523,16 +6532,16 @@
         <v>1.9852320946191919</v>
       </c>
       <c r="F209">
-        <v>-4.4165117456941502E-2</v>
+        <v>-0.46239997574264202</v>
       </c>
       <c r="G209">
-        <v>-1.9014960695260701E-2</v>
+        <v>-1.8122673039088801E-2</v>
       </c>
       <c r="H209">
         <v>3.96635671425545E-2</v>
       </c>
       <c r="I209">
-        <v>0.680488967383581</v>
+        <v>0.67519088150999795</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
@@ -6540,10 +6549,10 @@
         <v>41275</v>
       </c>
       <c r="B210">
-        <v>1.6419747982495101</v>
+        <v>1.35909647481117</v>
       </c>
       <c r="C210">
-        <v>1.6143498575515101</v>
+        <v>1.3712775325179301</v>
       </c>
       <c r="D210">
         <v>1.7228603347895399</v>
@@ -6552,16 +6561,16 @@
         <v>2.0526718726698241</v>
       </c>
       <c r="F210">
-        <v>-0.159073995740869</v>
+        <v>-0.60303366212428999</v>
       </c>
       <c r="G210">
-        <v>-2.00627374970248E-2</v>
+        <v>-1.9407102267799198E-2</v>
       </c>
       <c r="H210">
         <v>3.9668062150389899E-2</v>
       </c>
       <c r="I210">
-        <v>0.644938178092751</v>
+        <v>0.637608439536961</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -6569,10 +6578,10 @@
         <v>41365</v>
       </c>
       <c r="B211">
-        <v>1.57806129251301</v>
+        <v>1.27482049874499</v>
       </c>
       <c r="C211">
-        <v>1.62044267833176</v>
+        <v>1.38326452663953</v>
       </c>
       <c r="D211">
         <v>1.7262468347679301</v>
@@ -6581,16 +6590,16 @@
         <v>2.0052629611086319</v>
       </c>
       <c r="F211">
-        <v>-0.10726937989409201</v>
+        <v>-0.51738534555693205</v>
       </c>
       <c r="G211">
-        <v>-1.92176288999613E-2</v>
+        <v>-1.8457161265444701E-2</v>
       </c>
       <c r="H211">
         <v>3.9661711622805997E-2</v>
       </c>
       <c r="I211">
-        <v>0.62800760783141396</v>
+        <v>0.62021619242177595</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -6598,10 +6607,10 @@
         <v>41456</v>
       </c>
       <c r="B212">
-        <v>1.6275091383760001</v>
+        <v>1.3520472927017899</v>
       </c>
       <c r="C212">
-        <v>1.62473404141887</v>
+        <v>1.39202504321289</v>
       </c>
       <c r="D212">
         <v>1.72832237036962</v>
@@ -6610,16 +6619,16 @@
         <v>2.0373403567013439</v>
       </c>
       <c r="F212">
-        <v>5.8644237749490499E-2</v>
+        <v>-0.34210951664863398</v>
       </c>
       <c r="G212">
-        <v>-1.9814666605217301E-2</v>
+        <v>-1.9248370511624299E-2</v>
       </c>
       <c r="H212">
         <v>3.9643109280154201E-2</v>
       </c>
       <c r="I212">
-        <v>0.60579084331286903</v>
+        <v>0.60051055859990898</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
@@ -6627,10 +6636,10 @@
         <v>41548</v>
       </c>
       <c r="B213">
-        <v>1.6655838251466499</v>
+        <v>1.4121852444137</v>
       </c>
       <c r="C213">
-        <v>1.62671092114961</v>
+        <v>1.3963068989302401</v>
       </c>
       <c r="D213">
         <v>1.728731877128</v>
@@ -6639,16 +6648,16 @@
         <v>2.0627851946312918</v>
       </c>
       <c r="F213">
-        <v>0.28054554844970903</v>
+        <v>-0.112101010205492</v>
       </c>
       <c r="G213">
-        <v>-2.03193660883552E-2</v>
+        <v>-1.9955988387630401E-2</v>
       </c>
       <c r="H213">
         <v>3.9635010864136899E-2</v>
       </c>
       <c r="I213">
-        <v>0.58103989827704705</v>
+        <v>0.57684029338145704</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -6656,10 +6665,10 @@
         <v>41640</v>
       </c>
       <c r="B214">
-        <v>1.47846193714784</v>
+        <v>1.1545764782357699</v>
       </c>
       <c r="C214">
-        <v>1.63686146399536</v>
+        <v>1.41537436421513</v>
       </c>
       <c r="D214">
         <v>1.73522646815165</v>
@@ -6668,16 +6677,16 @@
         <v>1.9111633436864559</v>
       </c>
       <c r="F214">
-        <v>0.41174222846484598</v>
+        <v>6.6952244363164895E-2</v>
       </c>
       <c r="G214">
-        <v>-1.7797108052129799E-2</v>
+        <v>-1.6871864162454099E-2</v>
       </c>
       <c r="H214">
         <v>3.9564171873053798E-2</v>
       </c>
       <c r="I214">
-        <v>0.57094272406444802</v>
+        <v>0.56732497805363002</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
@@ -6685,10 +6694,10 @@
         <v>41730</v>
       </c>
       <c r="B215">
-        <v>1.57034528896667</v>
+        <v>1.2830479434089701</v>
       </c>
       <c r="C215">
-        <v>1.64385029761861</v>
+        <v>1.4287501133517599</v>
       </c>
       <c r="D215">
         <v>1.7393287857580599</v>
@@ -6697,16 +6706,16 @@
         <v>1.9793525562905721</v>
       </c>
       <c r="F215">
-        <v>0.62001249061665897</v>
+        <v>0.284301547319387</v>
       </c>
       <c r="G215">
-        <v>-1.87425530199305E-2</v>
+        <v>-1.79393782358775E-2</v>
       </c>
       <c r="H215">
         <v>3.9575328683980698E-2</v>
       </c>
       <c r="I215">
-        <v>0.56330999454904696</v>
+        <v>0.56340098763840496</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -6714,10 +6723,10 @@
         <v>41821</v>
       </c>
       <c r="B216">
-        <v>1.61419619104725</v>
+        <v>1.3430615775305601</v>
       </c>
       <c r="C216">
-        <v>1.6488755698833499</v>
+        <v>1.4391315957556501</v>
       </c>
       <c r="D216">
         <v>1.7418848544416701</v>
@@ -6726,16 +6735,16 @@
         <v>2.024663234456908</v>
       </c>
       <c r="F216">
-        <v>0.90734309932690904</v>
+        <v>0.54014689708731101</v>
       </c>
       <c r="G216">
-        <v>-1.9334409544113501E-2</v>
+        <v>-1.8611758467074701E-2</v>
       </c>
       <c r="H216">
         <v>3.9544343194512402E-2</v>
       </c>
       <c r="I216">
-        <v>0.54414280459550801</v>
+        <v>0.54367805638743405</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -6743,10 +6752,10 @@
         <v>41913</v>
       </c>
       <c r="B217">
-        <v>1.58176756657637</v>
+        <v>1.3161556380766</v>
       </c>
       <c r="C217">
-        <v>1.6552676940880799</v>
+        <v>1.4512341227902401</v>
       </c>
       <c r="D217">
         <v>1.74547592228785</v>
@@ -6755,16 +6764,16 @@
         <v>2.0100755984767682</v>
       </c>
       <c r="F217">
-        <v>0.92278157428825103</v>
+        <v>0.52123974908715798</v>
       </c>
       <c r="G217">
-        <v>-1.8965094375456602E-2</v>
+        <v>-1.8396074380334099E-2</v>
       </c>
       <c r="H217">
         <v>3.9426282904250903E-2</v>
       </c>
       <c r="I217">
-        <v>0.55132137305746398</v>
+        <v>0.551135436932645</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -6772,10 +6781,10 @@
         <v>42005</v>
       </c>
       <c r="B218">
-        <v>1.6156354518079501</v>
+        <v>1.3685113403970099</v>
       </c>
       <c r="C218">
-        <v>1.6602029106965499</v>
+        <v>1.46096129261826</v>
       </c>
       <c r="D218">
         <v>1.74797240325291</v>
@@ -6784,16 +6793,16 @@
         <v>2.0552159899348119</v>
       </c>
       <c r="F218">
-        <v>0.83587950691958202</v>
+        <v>0.43216413153322703</v>
       </c>
       <c r="G218">
-        <v>-1.9439488023634599E-2</v>
+        <v>-1.9005199757886001E-2</v>
       </c>
       <c r="H218">
         <v>3.9301907953157897E-2</v>
       </c>
       <c r="I218">
-        <v>0.57498160234533302</v>
+        <v>0.57496123753684203</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -6801,10 +6810,10 @@
         <v>42095</v>
       </c>
       <c r="B219">
-        <v>1.6148274915174301</v>
+        <v>1.3729610688855101</v>
       </c>
       <c r="C219">
-        <v>1.66511351031237</v>
+        <v>1.47044776705886</v>
       </c>
       <c r="D219">
         <v>1.7504682291935101</v>
@@ -6813,16 +6822,16 @@
         <v>2.031290523473992</v>
       </c>
       <c r="F219">
-        <v>1.2980086299734199</v>
+        <v>0.91069810735950796</v>
       </c>
       <c r="G219">
-        <v>-1.9394133601898601E-2</v>
+        <v>-1.9062393635003901E-2</v>
       </c>
       <c r="H219">
         <v>3.94580235208234E-2</v>
       </c>
       <c r="I219">
-        <v>0.617963148005786</v>
+        <v>0.62941145020254596</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -6830,10 +6839,10 @@
         <v>42186</v>
       </c>
       <c r="B220">
-        <v>1.58265632697369</v>
+        <v>1.34098642866606</v>
       </c>
       <c r="C220">
-        <v>1.6709184996172499</v>
+        <v>1.4812464879465901</v>
       </c>
       <c r="D220">
         <v>1.75367327424036</v>
@@ -6842,16 +6851,16 @@
         <v>2.0076443599326121</v>
       </c>
       <c r="F220">
-        <v>1.28974052780006</v>
+        <v>0.89935704002698502</v>
       </c>
       <c r="G220">
-        <v>-1.9032464875171001E-2</v>
+        <v>-1.8748022502462401E-2</v>
       </c>
       <c r="H220">
         <v>3.9379083648224698E-2</v>
       </c>
       <c r="I220">
-        <v>0.59621657538640505</v>
+        <v>0.60439794885879305</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
@@ -6859,10 +6868,10 @@
         <v>42278</v>
       </c>
       <c r="B221">
-        <v>1.5225300116654401</v>
+        <v>1.26890015067434</v>
       </c>
       <c r="C221">
-        <v>1.6792798257905399</v>
+        <v>1.4963169121225901</v>
       </c>
       <c r="D221">
         <v>1.7587950660956899</v>
@@ -6871,16 +6880,16 @@
         <v>1.9614663687209479</v>
       </c>
       <c r="F221">
-        <v>1.22221920920299</v>
+        <v>0.83621764921554098</v>
       </c>
       <c r="G221">
-        <v>-1.8379659164821701E-2</v>
+        <v>-1.8052242043344699E-2</v>
       </c>
       <c r="H221">
         <v>3.92866172482935E-2</v>
       </c>
       <c r="I221">
-        <v>0.57874902640528103</v>
+        <v>0.58433500058381405</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -6888,10 +6897,10 @@
         <v>42370</v>
       </c>
       <c r="B222">
-        <v>1.55767202471387</v>
+        <v>1.32056795358546</v>
       </c>
       <c r="C222">
-        <v>1.6865043750228501</v>
+        <v>1.5093775832026599</v>
       </c>
       <c r="D222">
         <v>1.7631169133614999</v>
@@ -6900,16 +6909,16 @@
         <v>1.972992904344568</v>
       </c>
       <c r="F222">
-        <v>1.3451563227659999</v>
+        <v>0.97681180191318595</v>
       </c>
       <c r="G222">
-        <v>-1.8715314419310802E-2</v>
+        <v>-1.8518715452298301E-2</v>
       </c>
       <c r="H222">
         <v>3.9424781934948798E-2</v>
       </c>
       <c r="I222">
-        <v>0.58408655211425398</v>
+        <v>0.59356595799901601</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -6917,10 +6926,10 @@
         <v>42461</v>
       </c>
       <c r="B223">
-        <v>1.5302705245508801</v>
+        <v>1.28286155805285</v>
       </c>
       <c r="C223">
-        <v>1.6955134473566</v>
+        <v>1.52594844385879</v>
       </c>
       <c r="D223">
         <v>1.7687447589641101</v>
@@ -6929,16 +6938,16 @@
         <v>1.932689391141116</v>
       </c>
       <c r="F223">
-        <v>1.5702930100249</v>
+        <v>1.23092660377267</v>
       </c>
       <c r="G223">
-        <v>-1.83882776104764E-2</v>
+        <v>-1.8134693946722E-2</v>
       </c>
       <c r="H223">
         <v>3.9611330563128197E-2</v>
       </c>
       <c r="I223">
-        <v>0.59492310470254095</v>
+        <v>0.60694422733878095</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
@@ -6946,10 +6955,10 @@
         <v>42552</v>
       </c>
       <c r="B224">
-        <v>1.5873540460293101</v>
+        <v>1.37224765638575</v>
       </c>
       <c r="C224">
-        <v>1.70261937134076</v>
+        <v>1.5390085284618</v>
       </c>
       <c r="D224">
         <v>1.77298880003314</v>
@@ -6958,16 +6967,16 @@
         <v>1.980508326966876</v>
       </c>
       <c r="F224">
-        <v>1.4444640219845699</v>
+        <v>1.09414056869707</v>
       </c>
       <c r="G224">
-        <v>-1.9022690736637302E-2</v>
+        <v>-1.90459233773261E-2</v>
       </c>
       <c r="H224">
         <v>3.9552694429925497E-2</v>
       </c>
       <c r="I224">
-        <v>0.57155734043845097</v>
+        <v>0.58071647893118805</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -6975,10 +6984,10 @@
         <v>42644</v>
       </c>
       <c r="B225">
-        <v>1.59032543619931</v>
+        <v>1.3808167244873699</v>
       </c>
       <c r="C225">
-        <v>1.70981719116915</v>
+        <v>1.5523876521214199</v>
       </c>
       <c r="D225">
         <v>1.77729570078202</v>
@@ -6987,16 +6996,16 @@
         <v>1.98974935673862</v>
       </c>
       <c r="F225">
-        <v>1.36755861791426</v>
+        <v>1.03440205269635</v>
       </c>
       <c r="G225">
-        <v>-1.9080335545352101E-2</v>
+        <v>-1.91573250972953E-2</v>
       </c>
       <c r="H225">
         <v>3.94326899818042E-2</v>
       </c>
       <c r="I225">
-        <v>0.56244556010624802</v>
+        <v>0.56944267705709695</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
@@ -7004,10 +7013,10 @@
         <v>42736</v>
       </c>
       <c r="B226">
-        <v>1.5853533106214399</v>
+        <v>1.3774421652137601</v>
       </c>
       <c r="C226">
-        <v>1.7178698496346501</v>
+        <v>1.56764361292801</v>
       </c>
       <c r="D226">
         <v>1.7822313553414899</v>
@@ -7016,16 +7025,16 @@
         <v>1.9770538473422039</v>
       </c>
       <c r="F226">
-        <v>1.4814309249072699</v>
+        <v>1.16405309730339</v>
       </c>
       <c r="G226">
-        <v>-1.89871330237588E-2</v>
+        <v>-1.9068007750643299E-2</v>
       </c>
       <c r="H226">
         <v>3.95037932332679E-2</v>
       </c>
       <c r="I226">
-        <v>0.54432072712443802</v>
+        <v>0.551488301786353</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
@@ -7033,10 +7042,10 @@
         <v>42826</v>
       </c>
       <c r="B227">
-        <v>1.59463985742062</v>
+        <v>1.3982633725768301</v>
       </c>
       <c r="C227">
-        <v>1.7264173993454801</v>
+        <v>1.58421557952539</v>
       </c>
       <c r="D227">
         <v>1.7875149000885</v>
@@ -7045,16 +7054,16 @@
         <v>1.996616127552076</v>
       </c>
       <c r="F227">
-        <v>1.30518787409028</v>
+        <v>0.99490169902844605</v>
       </c>
       <c r="G227">
-        <v>-1.9150263996052901E-2</v>
+        <v>-1.9374261804790498E-2</v>
       </c>
       <c r="H227">
         <v>3.9311237085224902E-2</v>
       </c>
       <c r="I227">
-        <v>0.55781779048156499</v>
+        <v>0.56440002236535003</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -7062,10 +7071,10 @@
         <v>42917</v>
       </c>
       <c r="B228">
-        <v>1.6550482832544999</v>
+        <v>1.50005303517231</v>
       </c>
       <c r="C228">
-        <v>1.7336571906345899</v>
+        <v>1.5980294704859801</v>
       </c>
       <c r="D228">
         <v>1.7918196182372701</v>
@@ -7074,16 +7083,16 @@
         <v>2.0514281491531761</v>
       </c>
       <c r="F228">
-        <v>1.1995856954700901</v>
+        <v>0.85800032338363497</v>
       </c>
       <c r="G228">
-        <v>-1.9889893362020499E-2</v>
+        <v>-2.06916509422433E-2</v>
       </c>
       <c r="H228">
         <v>3.92260964719452E-2</v>
       </c>
       <c r="I228">
-        <v>0.54670229247325597</v>
+        <v>0.55141957268872199</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -7091,10 +7100,10 @@
         <v>43009</v>
       </c>
       <c r="B229">
-        <v>1.7823801145210401</v>
+        <v>1.7049615304941901</v>
       </c>
       <c r="C229">
-        <v>1.73613964959409</v>
+        <v>1.6011251828687101</v>
       </c>
       <c r="D229">
         <v>1.7925798947101901</v>
@@ -7103,16 +7112,16 @@
         <v>2.141756345421904</v>
       </c>
       <c r="F229">
-        <v>1.33886993362125</v>
+        <v>0.93510814710680301</v>
       </c>
       <c r="G229">
-        <v>-2.1339548573894598E-2</v>
+        <v>-2.34621597248903E-2</v>
       </c>
       <c r="H229">
         <v>3.9324158649941397E-2</v>
       </c>
       <c r="I229">
-        <v>0.54559034113018301</v>
+        <v>0.55385369780732796</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
@@ -7120,10 +7129,10 @@
         <v>43101</v>
       </c>
       <c r="B230">
-        <v>1.8179148493239099</v>
+        <v>1.75255614783031</v>
       </c>
       <c r="C230">
-        <v>1.7374707500483899</v>
+        <v>1.60205103563327</v>
       </c>
       <c r="D230">
         <v>1.7924381814354799</v>
@@ -7132,16 +7141,16 @@
         <v>2.1473611410601441</v>
       </c>
       <c r="F230">
-        <v>1.7377575563076599</v>
+        <v>1.3290792571405099</v>
       </c>
       <c r="G230">
-        <v>-2.1682292805154001E-2</v>
+        <v>-2.40466192825258E-2</v>
       </c>
       <c r="H230">
         <v>3.9594849023863801E-2</v>
       </c>
       <c r="I230">
-        <v>0.60859874642495704</v>
+        <v>0.625901427207606</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
@@ -7149,10 +7158,10 @@
         <v>43191</v>
       </c>
       <c r="B231">
-        <v>1.7993604719669001</v>
+        <v>1.7207980949755599</v>
       </c>
       <c r="C231">
-        <v>1.73941246182103</v>
+        <v>1.60466383406021</v>
       </c>
       <c r="D231">
         <v>1.79273788939954</v>
@@ -7161,16 +7170,16 @@
         <v>2.132301287513112</v>
       </c>
       <c r="F231">
-        <v>1.8158287121110599</v>
+        <v>1.4158622568586501</v>
       </c>
       <c r="G231">
-        <v>-2.1427323904216401E-2</v>
+        <v>-2.34239299738268E-2</v>
       </c>
       <c r="H231">
         <v>3.9582964027063801E-2</v>
       </c>
       <c r="I231">
-        <v>0.57964082212974599</v>
+        <v>0.59306456896871496</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
@@ -7178,10 +7187,10 @@
         <v>43282</v>
       </c>
       <c r="B232">
-        <v>1.8085877443087599</v>
+        <v>1.73090325435254</v>
       </c>
       <c r="C232">
-        <v>1.74037061155581</v>
+        <v>1.6049563346292099</v>
       </c>
       <c r="D232">
         <v>1.7923141855263001</v>
@@ -7190,16 +7199,16 @@
         <v>2.1587818867784199</v>
       </c>
       <c r="F232">
-        <v>1.600986426438</v>
+        <v>1.2286353592941199</v>
       </c>
       <c r="G232">
-        <v>-2.1639664710282999E-2</v>
+        <v>-2.3756431696742599E-2</v>
       </c>
       <c r="H232">
         <v>3.9256670134426297E-2</v>
       </c>
       <c r="I232">
-        <v>0.63632727610585904</v>
+        <v>0.64899828462840903</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
@@ -7207,10 +7216,10 @@
         <v>43374</v>
       </c>
       <c r="B233">
-        <v>1.72431087475443</v>
+        <v>1.58807490346929</v>
       </c>
       <c r="C233">
-        <v>1.74534377522755</v>
+        <v>1.6152652154486</v>
       </c>
       <c r="D233">
         <v>1.79487794924774</v>
@@ -7219,16 +7228,16 @@
         <v>2.08573258940562</v>
       </c>
       <c r="F233">
-        <v>1.63088995781584</v>
+        <v>1.3215646247164199</v>
       </c>
       <c r="G233">
-        <v>-2.0614559107539902E-2</v>
+        <v>-2.14714039833796E-2</v>
       </c>
       <c r="H233">
         <v>3.9324213008088103E-2</v>
       </c>
       <c r="I233">
-        <v>0.606268757306475</v>
+        <v>0.61633873873306799</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
@@ -7236,10 +7245,10 @@
         <v>43466</v>
       </c>
       <c r="B234">
-        <v>1.7660284668758901</v>
+        <v>1.64525338099311</v>
       </c>
       <c r="C234">
-        <v>1.7490805078519001</v>
+        <v>1.62338122213103</v>
       </c>
       <c r="D234">
         <v>1.79651776075034</v>
@@ -7248,16 +7257,16 @@
         <v>2.1262275877499199</v>
       </c>
       <c r="F234">
-        <v>1.4231359011342899</v>
+        <v>1.1394086763190201</v>
       </c>
       <c r="G234">
-        <v>-2.1059146278212301E-2</v>
+        <v>-2.2180758158284301E-2</v>
       </c>
       <c r="H234">
         <v>3.9213542877347102E-2</v>
       </c>
       <c r="I234">
-        <v>0.59264639657163498</v>
+        <v>0.59978360104693496</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
@@ -7265,10 +7274,10 @@
         <v>43556</v>
       </c>
       <c r="B235">
-        <v>1.8373519864278101</v>
+        <v>1.74342513111467</v>
       </c>
       <c r="C235">
-        <v>1.75037694159159</v>
+        <v>1.6268828103070601</v>
       </c>
       <c r="D235">
         <v>1.7962639918412899</v>
@@ -7277,16 +7286,16 @@
         <v>2.1842598167485199</v>
       </c>
       <c r="F235">
-        <v>1.37880167898823</v>
+        <v>1.1054627543468301</v>
       </c>
       <c r="G235">
-        <v>-2.16447754507113E-2</v>
+        <v>-2.3153337285688899E-2</v>
       </c>
       <c r="H235">
         <v>3.9209964599998502E-2</v>
       </c>
       <c r="I235">
-        <v>0.56573866979601595</v>
+        <v>0.57085733130168104</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
@@ -7294,10 +7303,10 @@
         <v>43647</v>
       </c>
       <c r="B236">
-        <v>1.95330927736838</v>
+        <v>1.9108671792026799</v>
       </c>
       <c r="C236">
-        <v>1.7458795465636301</v>
+        <v>1.61815078732346</v>
       </c>
       <c r="D236">
         <v>1.7915910883445101</v>
@@ -7306,16 +7315,16 @@
         <v>2.284288006606376</v>
       </c>
       <c r="F236">
-        <v>1.36067182000204</v>
+        <v>1.0895527797279101</v>
       </c>
       <c r="G236">
-        <v>-2.2546254722264601E-2</v>
+        <v>-2.4802869193075901E-2</v>
       </c>
       <c r="H236">
         <v>3.9156461241587101E-2</v>
       </c>
       <c r="I236">
-        <v>0.54749480540431406</v>
+        <v>0.55121599330097504</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
@@ -7323,10 +7332,10 @@
         <v>43739</v>
       </c>
       <c r="B237">
-        <v>1.94850029800124</v>
+        <v>1.89870009721924</v>
       </c>
       <c r="C237">
-        <v>1.7392452192211101</v>
+        <v>1.6050928181953401</v>
       </c>
       <c r="D237">
         <v>1.7853707525984199</v>
@@ -7335,16 +7344,16 @@
         <v>2.2871213921804401</v>
       </c>
       <c r="F237">
-        <v>1.4215183934726401</v>
+        <v>1.1637571838603</v>
       </c>
       <c r="G237">
-        <v>-2.2522302826743602E-2</v>
+        <v>-2.4688941092377899E-2</v>
       </c>
       <c r="H237">
         <v>3.9086537387403301E-2</v>
       </c>
       <c r="I237">
-        <v>0.53232023690712804</v>
+        <v>0.53518419698852904</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
@@ -7352,10 +7361,10 @@
         <v>43831</v>
       </c>
       <c r="B238">
-        <v>1.5768679008789499</v>
+        <v>1.3869270196549699</v>
       </c>
       <c r="C238">
-        <v>1.7475554925938599</v>
+        <v>1.62351170366611</v>
       </c>
       <c r="D238">
         <v>1.7903908321520401</v>
@@ -7364,16 +7373,16 @@
         <v>1.981653863339</v>
       </c>
       <c r="F238">
-        <v>1.2669698402902401</v>
+        <v>1.0201102614830699</v>
       </c>
       <c r="G238">
-        <v>-1.8566446070110602E-2</v>
+        <v>-1.79287494563601E-2</v>
       </c>
       <c r="H238">
         <v>3.9157141122953397E-2</v>
       </c>
       <c r="I238">
-        <v>0.51461895040486205</v>
+        <v>0.52230148160180001</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
@@ -7381,10 +7390,10 @@
         <v>43922</v>
       </c>
       <c r="B239">
-        <v>1.5292841802904</v>
+        <v>1.3119620917757799</v>
       </c>
       <c r="C239">
-        <v>1.7563846474440099</v>
+        <v>1.6427772009378201</v>
       </c>
       <c r="D239">
         <v>1.79582771381115</v>
@@ -7393,16 +7402,16 @@
         <v>2.0223673803636562</v>
       </c>
       <c r="F239">
-        <v>-7.8569657955275698</v>
+        <v>-8.0740096538236195</v>
       </c>
       <c r="G239">
-        <v>-1.8406159450416699E-2</v>
+        <v>-1.7661453933586601E-2</v>
       </c>
       <c r="H239">
         <v>3.8360562714448702E-2</v>
       </c>
       <c r="I239">
-        <v>2.19606661963306</v>
+        <v>2.5268590548903802</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
@@ -7410,10 +7419,10 @@
         <v>44013</v>
       </c>
       <c r="B240">
-        <v>1.5372797357284</v>
+        <v>1.32145246459489</v>
       </c>
       <c r="C240">
-        <v>1.76417146794869</v>
+        <v>1.6601691884707599</v>
       </c>
       <c r="D240">
         <v>1.80047230250753</v>
@@ -7422,16 +7431,16 @@
         <v>2.0242649011096598</v>
       </c>
       <c r="F240">
-        <v>-0.72068750911614599</v>
+        <v>-1.0092571586922101</v>
       </c>
       <c r="G240">
-        <v>-1.8507801824993401E-2</v>
+        <v>-1.7741443008206601E-2</v>
       </c>
       <c r="H240">
         <v>3.80248151289687E-2</v>
       </c>
       <c r="I240">
-        <v>2.1439248648563001</v>
+        <v>2.3023822221769099</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
@@ -7439,10 +7448,10 @@
         <v>44105</v>
       </c>
       <c r="B241">
-        <v>1.5280867993980201</v>
+        <v>1.30614843928249</v>
       </c>
       <c r="C241">
-        <v>1.7724524113708799</v>
+        <v>1.67828512009574</v>
       </c>
       <c r="D241">
         <v>1.80561264692558</v>
@@ -7451,16 +7460,16 @@
         <v>2.0170472335578959</v>
       </c>
       <c r="F241">
-        <v>-9.8147137736646101E-2</v>
+        <v>-0.31175987112408199</v>
       </c>
       <c r="G241">
-        <v>-1.8338901667700899E-2</v>
+        <v>-1.7506355690999401E-2</v>
       </c>
       <c r="H241">
         <v>3.8045576314815102E-2</v>
       </c>
       <c r="I241">
-        <v>1.8177905961493299</v>
+        <v>1.8906011043269899</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
@@ -7468,10 +7477,10 @@
         <v>44197</v>
       </c>
       <c r="B242">
-        <v>1.5438833193502399</v>
+        <v>1.32701691475355</v>
       </c>
       <c r="C242">
-        <v>1.7803289172974699</v>
+        <v>1.6961028703326799</v>
       </c>
       <c r="D242">
         <v>1.8104294359608399</v>
@@ -7480,16 +7489,16 @@
         <v>2.0281609685122439</v>
       </c>
       <c r="F242">
-        <v>0.733303924869801</v>
+        <v>0.58236377934451899</v>
       </c>
       <c r="G242">
-        <v>-1.8667272785931999E-2</v>
+        <v>-1.7852809820010501E-2</v>
       </c>
       <c r="H242">
         <v>3.8036969356628897E-2</v>
       </c>
       <c r="I242">
-        <v>1.66280488590415</v>
+        <v>1.69274596313213</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
@@ -7497,10 +7506,10 @@
         <v>44287</v>
       </c>
       <c r="B243">
-        <v>1.59567368568054</v>
+        <v>1.41316956313008</v>
       </c>
       <c r="C243">
-        <v>1.7857911449349799</v>
+        <v>1.7080041017995</v>
       </c>
       <c r="D243">
         <v>1.81325797315422</v>
@@ -7509,16 +7518,16 @@
         <v>2.0655682156523678</v>
       </c>
       <c r="F243">
-        <v>1.55921901954741</v>
+        <v>1.54334511484183</v>
       </c>
       <c r="G243">
-        <v>-1.97308307019546E-2</v>
+        <v>-1.9400697331106401E-2</v>
       </c>
       <c r="H243">
         <v>3.80365209615404E-2</v>
       </c>
       <c r="I243">
-        <v>1.83060605416637</v>
+        <v>1.8062881123480901</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
@@ -7526,10 +7535,10 @@
         <v>44378</v>
       </c>
       <c r="B244">
-        <v>1.5837770957459301</v>
+        <v>1.3930428347329</v>
       </c>
       <c r="C244">
-        <v>1.7924361973665</v>
+        <v>1.72303282576707</v>
       </c>
       <c r="D244">
         <v>1.8170187314833499</v>
@@ -7538,16 +7547,16 @@
         <v>2.0531238817681201</v>
       </c>
       <c r="F244">
-        <v>1.99357147955789</v>
+        <v>1.9588909952467499</v>
       </c>
       <c r="G244">
-        <v>-1.9472563353307399E-2</v>
+        <v>-1.8917945307217798E-2</v>
       </c>
       <c r="H244">
         <v>3.8055607110235597E-2</v>
       </c>
       <c r="I244">
-        <v>1.5739224190072301</v>
+        <v>1.52220663739594</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
@@ -7555,10 +7564,10 @@
         <v>44470</v>
       </c>
       <c r="B245">
-        <v>1.7271495963699099</v>
+        <v>1.5547132004289299</v>
       </c>
       <c r="C245">
-        <v>1.7932858648207499</v>
+        <v>1.7279098905097301</v>
       </c>
       <c r="D245">
         <v>1.81622192097601</v>
@@ -7567,16 +7576,16 @@
         <v>2.1727382074428481</v>
       </c>
       <c r="F245">
-        <v>2.3572990398570299</v>
+        <v>2.4510505207094901</v>
       </c>
       <c r="G245">
-        <v>-2.37199929224076E-2</v>
+        <v>-2.4202816210356599E-2</v>
       </c>
       <c r="H245">
         <v>3.81000467017042E-2</v>
       </c>
       <c r="I245">
-        <v>1.3952354185042499</v>
+        <v>1.33496738703817</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -7584,10 +7593,10 @@
         <v>44562</v>
       </c>
       <c r="B246">
-        <v>1.5976217028848301</v>
+        <v>1.4131058696241301</v>
       </c>
       <c r="C246">
-        <v>1.79796863042386</v>
+        <v>1.7385895747443501</v>
       </c>
       <c r="D246">
         <v>1.8185025520871501</v>
@@ -7596,16 +7605,16 @@
         <v>2.0574934874734438</v>
       </c>
       <c r="F246">
-        <v>2.61377631629591</v>
+        <v>2.36159082737356</v>
       </c>
       <c r="G246">
-        <v>-1.89400647442605E-2</v>
+        <v>-1.8417982377232099E-2</v>
       </c>
       <c r="H246">
         <v>3.8197592262906803E-2</v>
       </c>
       <c r="I246">
-        <v>1.2592276296768199</v>
+        <v>1.1996430022833799</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
@@ -7613,10 +7622,10 @@
         <v>44652</v>
       </c>
       <c r="B247">
-        <v>1.5770492652253301</v>
+        <v>1.40642034606272</v>
       </c>
       <c r="C247">
-        <v>1.8034969486489001</v>
+        <v>1.74974903584087</v>
       </c>
       <c r="D247">
         <v>1.82153771914158</v>
@@ -7625,16 +7634,16 @@
         <v>2.043985008530572</v>
       </c>
       <c r="F247">
-        <v>2.25850275457447</v>
+        <v>1.9795979639524099</v>
       </c>
       <c r="G247">
-        <v>-1.8264310354158399E-2</v>
+        <v>-1.80791897319184E-2</v>
       </c>
       <c r="H247">
         <v>3.8064062853987397E-2</v>
       </c>
       <c r="I247">
-        <v>1.1753595915368</v>
+        <v>1.11342920694119</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
@@ -7642,10 +7651,10 @@
         <v>44743</v>
       </c>
       <c r="B248">
-        <v>1.6078074450667801</v>
+        <v>1.4489618739115899</v>
       </c>
       <c r="C248">
-        <v>1.8080657247962699</v>
+        <v>1.75880957719148</v>
       </c>
       <c r="D248">
         <v>1.8238613434548101</v>
@@ -7654,16 +7663,16 @@
         <v>2.0690366325810521</v>
       </c>
       <c r="F248">
-        <v>2.1919374254133599</v>
+        <v>1.9717594619157801</v>
       </c>
       <c r="G248">
-        <v>-1.9141691024170199E-2</v>
+        <v>-1.9367393166909799E-2</v>
       </c>
       <c r="H248">
         <v>3.8076485290018398E-2</v>
       </c>
       <c r="I248">
-        <v>1.0527703732142899</v>
+        <v>0.98980625185680204</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
@@ -7671,10 +7680,10 @@
         <v>44835</v>
       </c>
       <c r="B249">
-        <v>1.64894621585375</v>
+        <v>1.4716997547256501</v>
       </c>
       <c r="C249">
-        <v>1.81148978952106</v>
+        <v>1.7673629075067001</v>
       </c>
       <c r="D249">
         <v>1.8252996504937899</v>
@@ -7683,16 +7692,16 @@
         <v>2.109067381749564</v>
       </c>
       <c r="F249">
-        <v>2.1337894507229298</v>
+        <v>1.97436433542339</v>
       </c>
       <c r="G249">
-        <v>-2.0024936106466801E-2</v>
+        <v>-1.9822141515694801E-2</v>
       </c>
       <c r="H249">
         <v>3.79921982522003E-2</v>
       </c>
       <c r="I249">
-        <v>0.97443177514341495</v>
+        <v>0.91256951972331501</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
@@ -7700,10 +7709,10 @@
         <v>44927</v>
       </c>
       <c r="B250">
-        <v>1.6625559059805499</v>
+        <v>1.5040627336780401</v>
       </c>
       <c r="C250">
-        <v>1.81480033303363</v>
+        <v>1.7751838536843201</v>
       </c>
       <c r="D250">
         <v>1.82662665674691</v>
@@ -7712,16 +7721,16 @@
         <v>2.1232877944619561</v>
       </c>
       <c r="F250">
-        <v>2.1581967457175302</v>
+        <v>1.97875820652894</v>
       </c>
       <c r="G250">
-        <v>-2.0226745271575801E-2</v>
+        <v>-2.03453819279584E-2</v>
       </c>
       <c r="H250">
         <v>3.79416335219648E-2</v>
       </c>
       <c r="I250">
-        <v>0.89478496390969797</v>
+        <v>0.83719587462642098</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
@@ -7729,10 +7738,10 @@
         <v>45017</v>
       </c>
       <c r="B251">
-        <v>1.6737672870800699</v>
+        <v>1.5281227563102699</v>
       </c>
       <c r="C251">
-        <v>1.8187821883520601</v>
+        <v>1.78415792793271</v>
       </c>
       <c r="D251">
         <v>1.82842128227597</v>
@@ -7741,16 +7750,16 @@
         <v>2.1443801236802602</v>
       </c>
       <c r="F251">
-        <v>1.97267479687525</v>
+        <v>1.8178152176969899</v>
       </c>
       <c r="G251">
-        <v>-2.0274178300366E-2</v>
+        <v>-2.0487290442189401E-2</v>
       </c>
       <c r="H251">
         <v>3.7740510054703101E-2</v>
       </c>
       <c r="I251">
-        <v>0.89151835172324301</v>
+        <v>0.82949957843966204</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -7758,10 +7767,10 @@
         <v>45108</v>
       </c>
       <c r="B252">
-        <v>1.7828278153080599</v>
+        <v>1.6967297889260999</v>
       </c>
       <c r="C252">
-        <v>1.81973565511514</v>
+        <v>1.78734118107407</v>
       </c>
       <c r="D252">
         <v>1.82797713327655</v>
@@ -7770,16 +7779,16 @@
         <v>2.2565085879441482</v>
       </c>
       <c r="F252">
-        <v>1.4301228242003401</v>
+        <v>1.27812070805874</v>
       </c>
       <c r="G252">
-        <v>-2.0966136947073201E-2</v>
+        <v>-2.15119571429001E-2</v>
       </c>
       <c r="H252">
         <v>3.7451684484177197E-2</v>
       </c>
       <c r="I252">
-        <v>1.1084369045842799</v>
+        <v>1.1295902369356901</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
@@ -7787,10 +7796,10 @@
         <v>45200</v>
       </c>
       <c r="B253">
-        <v>1.8057207376759701</v>
+        <v>1.7315163082862699</v>
       </c>
       <c r="C253">
-        <v>1.81990941556657</v>
+        <v>1.7886108184210501</v>
       </c>
       <c r="D253">
         <v>1.8269449317037401</v>
@@ -7799,16 +7808,16 @@
         <v>2.2836765408837598</v>
       </c>
       <c r="F253">
-        <v>1.3564794521307699</v>
+        <v>1.26455005991272</v>
       </c>
       <c r="G253">
-        <v>-2.1023424497974699E-2</v>
+        <v>-2.1603052286615299E-2</v>
       </c>
       <c r="H253">
         <v>3.7364680324472703E-2</v>
       </c>
       <c r="I253">
-        <v>1.0716756600244599</v>
+        <v>1.0649271288914</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
@@ -7816,10 +7825,10 @@
         <v>45292</v>
       </c>
       <c r="B254">
-        <v>1.7666988649926201</v>
+        <v>1.62704097069113</v>
       </c>
       <c r="C254">
-        <v>1.8218211822544801</v>
+        <v>1.7955414341336999</v>
       </c>
       <c r="D254">
         <v>1.8271807792521499</v>
@@ -7828,16 +7837,16 @@
         <v>2.2424470967867318</v>
       </c>
       <c r="F254">
-        <v>1.5726396821949</v>
+        <v>1.5168003029089101</v>
       </c>
       <c r="G254">
-        <v>-2.1048352429610999E-2</v>
+        <v>-2.1739264135766701E-2</v>
       </c>
       <c r="H254">
         <v>3.7460166900804101E-2</v>
       </c>
       <c r="I254">
-        <v>1.0254043751749999</v>
+        <v>1.03707972923699</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
@@ -7845,10 +7854,10 @@
         <v>45383</v>
       </c>
       <c r="B255">
-        <v>1.82121178626076</v>
+        <v>1.7439888565991</v>
       </c>
       <c r="C255">
-        <v>1.8222024884441601</v>
+        <v>1.7979649575312699</v>
       </c>
       <c r="D255">
         <v>1.8262973314398601</v>
@@ -7857,16 +7866,16 @@
         <v>2.2912088287390522</v>
       </c>
       <c r="F255">
-        <v>1.31592299946738</v>
+        <v>1.18446225834657</v>
       </c>
       <c r="G255">
-        <v>-2.0804828804717599E-2</v>
+        <v>-2.1149272468194001E-2</v>
       </c>
       <c r="H255">
         <v>3.7403774483407398E-2</v>
       </c>
       <c r="I255">
-        <v>0.95239030801473301</v>
+        <v>0.96031855797425303</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
@@ -7874,10 +7883,10 @@
         <v>45474</v>
       </c>
       <c r="B256">
-        <v>1.8660548204696601</v>
+        <v>1.80091784419755</v>
       </c>
       <c r="C256">
-        <v>1.82081958602922</v>
+        <v>1.79726334416957</v>
       </c>
       <c r="D256">
         <v>1.82409250439844</v>
@@ -7886,16 +7895,16 @@
         <v>2.3342297687644278</v>
       </c>
       <c r="F256">
-        <v>1.11370792573587</v>
+        <v>1.0525762521086801</v>
       </c>
       <c r="G256">
-        <v>-2.0547137583519001E-2</v>
+        <v>-2.0827392489604201E-2</v>
       </c>
       <c r="H256">
         <v>3.7347514567364702E-2</v>
       </c>
       <c r="I256">
-        <v>0.89343789011552999</v>
+        <v>0.88819112953291202</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
@@ -7903,10 +7912,10 @@
         <v>45566</v>
       </c>
       <c r="B257">
-        <v>1.87519432363487</v>
+        <v>1.7656989048017999</v>
       </c>
       <c r="C257">
-        <v>1.8182060878292601</v>
+        <v>1.7966876952945601</v>
       </c>
       <c r="D257">
         <v>1.8209222791108099</v>
@@ -7915,16 +7924,16 @@
         <v>2.3395366435340761</v>
       </c>
       <c r="F257">
-        <v>1.1038086413113899</v>
+        <v>1.08856074549044</v>
       </c>
       <c r="G257">
-        <v>-2.04727261751158E-2</v>
+        <v>-2.1022174442719699E-2</v>
       </c>
       <c r="H257">
         <v>3.7367070505527997E-2</v>
       </c>
       <c r="I257">
-        <v>0.82260421029459996</v>
+        <v>0.81014204876734397</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
@@ -7932,10 +7941,10 @@
         <v>45658</v>
       </c>
       <c r="B258">
-        <v>1.7442445318747499</v>
+        <v>1.5901369288845</v>
       </c>
       <c r="C258">
-        <v>1.8211197261462999</v>
+        <v>1.8064922530513501</v>
       </c>
       <c r="D258">
         <v>1.8209222791108099</v>
@@ -7944,16 +7953,16 @@
         <v>2.2329285883727961</v>
       </c>
       <c r="F258">
-        <v>1.34275442676608</v>
+        <v>1.22112376947041</v>
       </c>
       <c r="G258">
-        <v>-2.0953035909155301E-2</v>
+        <v>-2.1690696992171601E-2</v>
       </c>
       <c r="H258">
         <v>3.7474644118299899E-2</v>
       </c>
       <c r="I258">
-        <v>0.796027869148762</v>
+        <v>0.754409445063846</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
@@ -7961,19 +7970,39 @@
         <v>45748</v>
       </c>
       <c r="B259">
-        <v>1.8211197261462999</v>
+        <v>1.7251007725363701</v>
       </c>
       <c r="C259">
-        <v>1.8211197261462999</v>
+        <v>1.81073312365465</v>
       </c>
       <c r="F259">
-        <v>0.91854505946196197</v>
+        <v>0.80733213907194601</v>
       </c>
       <c r="G259">
-        <v>-2.08762958727267E-2</v>
+        <v>-2.1470484589351E-2</v>
       </c>
       <c r="I259">
-        <v>0.77448129246245101</v>
+        <v>0.71702587090188097</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A260" s="3">
+        <v>45839</v>
+      </c>
+      <c r="B260">
+        <v>1.81073312365465</v>
+      </c>
+      <c r="C260">
+        <v>1.81073312365465</v>
+      </c>
+      <c r="F260">
+        <v>0.85713933616273197</v>
+      </c>
+      <c r="G260">
+        <v>-2.1454639976749099E-2</v>
+      </c>
+      <c r="I260">
+        <v>0.67131956979096596</v>
       </c>
     </row>
   </sheetData>
